--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Yael\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7942D0A5-82E8-47EA-86FF-E1BED5034DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568212A-22A1-463F-BD96-1407E058FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="6180" windowHeight="12900" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
     <sheet name="VOIP" sheetId="19" r:id="rId2"/>
     <sheet name="Video Str." sheetId="17" r:id="rId3"/>
     <sheet name="Audio Str." sheetId="18" r:id="rId4"/>
-    <sheet name="Browser" sheetId="20" r:id="rId5"/>
+    <sheet name="Browsing" sheetId="20" r:id="rId5"/>
     <sheet name="Cloud" sheetId="21" r:id="rId6"/>
     <sheet name="Download" sheetId="22" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1187">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -2963,9 +2963,6 @@
     <t>https://www.91fm.co.il/</t>
   </si>
   <si>
-    <t>https://www.oles.tv/91fm/</t>
-  </si>
-  <si>
     <t>https://www.nli.org.il/he/archives/NNL_ARCHIVE_AL990052797910205171/NLI</t>
   </si>
   <si>
@@ -2991,13 +2988,628 @@
   </si>
   <si>
     <t>Browser</t>
+  </si>
+  <si>
+    <t>https://www.calcalist.co.il/calcalistech/article/r17rj3otyx#autoplay</t>
+  </si>
+  <si>
+    <t>x92rtbv</t>
+  </si>
+  <si>
+    <t>fmMYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.target.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bestbuy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.asos.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zappos.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shein.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.banggood.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gearbest.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wish.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.overstock.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.macys.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nordstrom.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kohls.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wayfair.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.homedepot.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lowes.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shufersal.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ksp.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.super-pharm.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.next.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.castro.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.golfco.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fox.co.il  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.terminalx.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adidas.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nike.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.puma.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.underarmour.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zara.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mango.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forever21.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniqlo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gap.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oldnavy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lululemon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sephora.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ulta.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.boots.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jysk.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bedbathandbeyond.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crateandbarrel.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.westelm.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.potterybarn.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shopdisney.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lego.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.toysrus.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gamestop.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.newegg.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bhphotovideo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adorama.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.microcenter.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.officedepot.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.staples.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dickssportinggoods.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rei.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.decathlon.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.academy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.petsmart.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.petco.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chewy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tractorsupply.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.farfetch.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ssense.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.revolve.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.urbanoutfitters.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.anthropologie.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freepeople.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.boohoo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.prettylittlething.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.missguided.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fashionnova.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tjmaxx.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marshalls.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rossstores.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dollartree.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fivebelow.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biglots.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.costco.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.samsclub.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aldi.us  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lidl.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shoprite.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kroger.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.acehardware.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.truevalue.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.autozone.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.advanceautoparts.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oreillyauto.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.michaels.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.joann.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hobbylobby.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dickblick.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bookdepository.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barnesandnoble.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mega.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pcloud.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sync.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.box.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://proton.me/drive  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.terabox.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://filen.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://degoo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mediafire.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.opendrive.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jottacloud.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cloud.mail.ru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/photos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.icloud.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nordlocker.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blomp.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.rakuten.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://icedrive.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onedrive.live.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.idrive.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://koofr.eu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tresorit.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zoho.com/workdrive  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://internxt.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hightail.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.syncplicity.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infomaniak.com/en/kdrive  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cozy.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gmx.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.de  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mail.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freenet.de  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.securesafe.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wetransfer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sendgb.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.transfernow.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.filemail.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fromsmash.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.myairbridge.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://send-anywhere.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropsend.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.transferxl.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sendtransfer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mailbigfile.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grosfichiers.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.swisstransfer.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://temp.sh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uguu.se  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://catbox.moe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://volafile.org  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://filebin.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://0x0.st  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pomf.cat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transfer.sh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bashupload.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://anonfiles.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bayfiles.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.filedropper.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://filehosting.org  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gigafile.nu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://droppyfiles.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://filetransfer.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sendfiles.online  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://send.vis.ee  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wormhole.app  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.pizza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sharedrop.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.4shared.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megaup.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.ee  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file-upload.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sendspace.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dropmefiles.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gofile.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rapidgator.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uploaded.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://turbobit.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fileconvoy.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sendthisfile.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tinyupload.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file-upload.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://letsupload.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://streamable.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vimeo.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailymotion.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://soundcloud.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bandcamp.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mixcloud.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scribd.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.slideshare.net  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.flickr.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://imgur.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://500px.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deviantart.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hivenet.com  </t>
+  </si>
+  <si>
+    <t>https://file.io</t>
+  </si>
+  <si>
+    <t>https://easyupload.io</t>
+  </si>
+  <si>
+    <t>https://uploadfiles.io</t>
+  </si>
+  <si>
+    <t>upload-btn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3042,6 +3654,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3113,13 +3731,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3987,10 +4605,10 @@
         <v>681</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>682</v>
@@ -5457,7 +6075,7 @@
         <v>902</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>628</v>
@@ -7996,502 +8614,502 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
+      <c r="B77" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+      <c r="B78" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
+      <c r="B79" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
+      <c r="B80" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
+      <c r="B81" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
+      <c r="B82" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
+      <c r="B83" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+      <c r="B84" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="17" t="s">
+      <c r="B85" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
+      <c r="B86" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+      <c r="B87" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
+      <c r="B88" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
+      <c r="B89" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+      <c r="B90" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
+      <c r="B91" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
+      <c r="B92" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
+      <c r="B94" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
+      <c r="B95" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
+      <c r="B96" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="17" t="s">
+      <c r="B97" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="17" t="s">
+      <c r="B98" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
+      <c r="B99" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
+      <c r="B100" t="s">
         <v>569</v>
       </c>
     </row>
@@ -8502,10 +9120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8589,7 +9207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>859</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8627,47 +9245,56 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>971</v>
+      <c r="A19" t="s">
+        <v>983</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>974</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>984</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>976</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8675,405 +9302,397 @@
         <v>978</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>979</v>
-      </c>
       <c r="B26" s="4" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>971</v>
+      </c>
       <c r="B28" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>971</v>
-      </c>
       <c r="B29" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>979</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>980</v>
-      </c>
       <c r="B31" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>937</v>
+      <c r="B65" s="14" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
-        <v>942</v>
+      <c r="B66" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>945</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>47</v>
+      <c r="B68" s="14" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
-        <v>964</v>
+      <c r="B69" s="11" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>570</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>11</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>572</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>12</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>576</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>2</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
-        <v>582</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>8</v>
+        <v>583</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="11" t="s">
-        <v>580</v>
+      <c r="B96" s="6" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>925</v>
+        <v>888</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>888</v>
+        <v>921</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>921</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
         <v>866</v>
       </c>
     </row>
@@ -9081,47 +9700,47 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="B70" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="B71" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="B72" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="B73" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="B74" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="B75" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="B76" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="B77" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="B78" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="B79" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="B80" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="B81" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="B82" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="B83" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="B84" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="B85" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="B86" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="B93" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="B95" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="B96" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="B88" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="B89" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="B90" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="B91" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="B92" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="B94" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="B87" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="B101" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="B98" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="B100" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
-    <hyperlink ref="B26" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
-    <hyperlink ref="B23" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
-    <hyperlink ref="B32" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
-    <hyperlink ref="B30" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
-    <hyperlink ref="B29" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
-    <hyperlink ref="B28" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
-    <hyperlink ref="B27" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
-    <hyperlink ref="B45" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
-    <hyperlink ref="B53" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
-    <hyperlink ref="B54" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
-    <hyperlink ref="B66" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
+    <hyperlink ref="B69" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="B70" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="B71" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="B72" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="B73" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="B74" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="B75" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="B76" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="B77" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="B78" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="B79" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="B80" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="B81" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="B82" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="B83" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="B84" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="B85" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="B92" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="B94" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="B95" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="B87" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="B88" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="B89" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="B90" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="B91" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="B93" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="B86" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="B100" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="B97" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="B99" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="B25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
+    <hyperlink ref="B22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
+    <hyperlink ref="B31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
+    <hyperlink ref="B29" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
+    <hyperlink ref="B28" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
+    <hyperlink ref="B27" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
+    <hyperlink ref="B26" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
+    <hyperlink ref="B44" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
+    <hyperlink ref="B52" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
+    <hyperlink ref="B53" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
+    <hyperlink ref="B65" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
     <hyperlink ref="B2" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
     <hyperlink ref="B3" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
     <hyperlink ref="B4" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
@@ -9131,23 +9750,22 @@
     <hyperlink ref="B9" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
     <hyperlink ref="B10" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
     <hyperlink ref="B11" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
-    <hyperlink ref="B12" r:id="rId53" xr:uid="{7F74D112-0795-4569-B888-EB3630FEF5F6}"/>
-    <hyperlink ref="B13" r:id="rId54" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
-    <hyperlink ref="B14" r:id="rId55" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
-    <hyperlink ref="B15" r:id="rId56" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
-    <hyperlink ref="B16" r:id="rId57" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
-    <hyperlink ref="B17" r:id="rId58" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="B103" r:id="rId59" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
-    <hyperlink ref="B18" r:id="rId60" xr:uid="{15CBF9C7-A1EC-4B5C-A239-9B30FC5B1A23}"/>
-    <hyperlink ref="B20" r:id="rId61" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
-    <hyperlink ref="B24" r:id="rId62" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="B21" r:id="rId63" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
-    <hyperlink ref="B22" r:id="rId64" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="B25" r:id="rId65" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="B31" r:id="rId66" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="B13" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
+    <hyperlink ref="B14" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
+    <hyperlink ref="B15" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
+    <hyperlink ref="B16" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
+    <hyperlink ref="B17" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
+    <hyperlink ref="B102" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="B19" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
+    <hyperlink ref="B23" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
+    <hyperlink ref="B20" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
+    <hyperlink ref="B21" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="B24" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="B30" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="B12" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -9378,7 +9996,7 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -9832,509 +10450,509 @@
   <dimension ref="B1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B100"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>393</v>
+      <c r="B1" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>394</v>
+      <c r="B2" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>395</v>
+      <c r="B3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>396</v>
+      <c r="B4" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>397</v>
+      <c r="B5" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>398</v>
+      <c r="B6" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>399</v>
+      <c r="B7" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>400</v>
+      <c r="B8" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>401</v>
+      <c r="B9" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>402</v>
+      <c r="B10" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>403</v>
+      <c r="B11" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>404</v>
+      <c r="B12" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>405</v>
+      <c r="B13" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>406</v>
+      <c r="B14" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>407</v>
+      <c r="B15" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>408</v>
+      <c r="B16" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>409</v>
+      <c r="B17" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>410</v>
+      <c r="B18" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>411</v>
+      <c r="B19" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>412</v>
+      <c r="B20" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>413</v>
+      <c r="B21" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>414</v>
+      <c r="B22" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>415</v>
+      <c r="B23" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>416</v>
+      <c r="B24" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>417</v>
+      <c r="B25" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>418</v>
+      <c r="B26" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>419</v>
+      <c r="B27" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>420</v>
+      <c r="B28" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>421</v>
+      <c r="B29" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>422</v>
+      <c r="B30" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>423</v>
+      <c r="B31" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
-        <v>424</v>
+      <c r="B32" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>425</v>
+      <c r="B33" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>426</v>
+      <c r="B34" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>427</v>
+      <c r="B35" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>428</v>
+      <c r="B36" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>429</v>
+      <c r="B37" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>430</v>
+      <c r="B38" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>431</v>
+      <c r="B39" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>432</v>
+      <c r="B40" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>433</v>
+      <c r="B41" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>434</v>
+      <c r="B42" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>435</v>
+      <c r="B43" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>436</v>
+      <c r="B44" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>437</v>
+      <c r="B45" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>438</v>
+      <c r="B46" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>439</v>
+      <c r="B47" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>440</v>
+      <c r="B48" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>441</v>
+      <c r="B49" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>442</v>
+      <c r="B50" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>443</v>
+      <c r="B51" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>444</v>
+      <c r="B52" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>445</v>
+      <c r="B53" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>446</v>
+      <c r="B54" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>447</v>
+      <c r="B55" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>448</v>
+      <c r="B56" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>449</v>
+      <c r="B57" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>450</v>
+      <c r="B58" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>451</v>
+      <c r="B59" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
-        <v>452</v>
+      <c r="B60" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>453</v>
+      <c r="B61" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
-        <v>454</v>
+      <c r="B62" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>455</v>
+      <c r="B63" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
-        <v>456</v>
+      <c r="B64" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
-        <v>457</v>
+      <c r="B65" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
-        <v>458</v>
+      <c r="B66" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>459</v>
+      <c r="B67" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
-        <v>460</v>
+      <c r="B68" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
-        <v>461</v>
+      <c r="B69" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
-        <v>462</v>
+      <c r="B70" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="17" t="s">
-        <v>463</v>
+      <c r="B71" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
-        <v>464</v>
+      <c r="B72" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
-        <v>465</v>
+      <c r="B73" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
-        <v>466</v>
+      <c r="B74" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
-        <v>467</v>
+      <c r="B75" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>468</v>
+      <c r="B76" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
-        <v>469</v>
+      <c r="B77" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
-        <v>470</v>
+      <c r="B78" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
-        <v>471</v>
+      <c r="B79" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
-        <v>472</v>
+      <c r="B80" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
-        <v>473</v>
+      <c r="B81" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
-        <v>474</v>
+      <c r="B82" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
-        <v>475</v>
+      <c r="B83" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
-        <v>476</v>
+      <c r="B84" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="17" t="s">
-        <v>477</v>
+      <c r="B85" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
-        <v>478</v>
+      <c r="B86" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>479</v>
+      <c r="B87" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
-        <v>480</v>
+      <c r="B88" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
-        <v>481</v>
+      <c r="B89" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
-        <v>482</v>
+      <c r="B90" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>483</v>
+      <c r="B91" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
-        <v>484</v>
+      <c r="B92" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
-        <v>485</v>
+      <c r="B93" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
-        <v>486</v>
+      <c r="B94" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
-        <v>487</v>
+      <c r="B95" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
-        <v>488</v>
+      <c r="B96" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="17" t="s">
-        <v>489</v>
+      <c r="B97" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="17" t="s">
-        <v>490</v>
+      <c r="B98" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
-        <v>491</v>
+      <c r="B99" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
-        <v>492</v>
+      <c r="B100" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -10344,619 +10962,528 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
-  <dimension ref="B1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="17"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>765</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>766</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>767</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>768</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>769</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>770</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>771</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>772</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>773</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>774</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>775</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>776</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>777</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>778</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>779</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>780</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>781</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>782</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>783</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>784</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>785</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>786</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>787</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>788</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>789</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>790</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>791</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>792</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>793</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>794</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>795</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>796</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>797</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>798</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>799</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>800</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>801</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>802</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>803</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>804</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>805</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>806</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>807</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>808</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>809</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>810</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>811</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>812</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>813</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>814</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>815</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>816</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>817</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>818</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>819</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>820</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>821</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>822</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>823</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>824</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>825</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>826</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>827</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>828</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>829</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>830</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>831</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>832</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>833</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>834</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>835</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>836</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>837</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>9</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>10</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>838</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>839</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>840</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>841</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>842</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>843</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>844</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>845</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>846</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>847</v>
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://drive.google.com/drive/home" xr:uid="{B533393B-B888-413B-AA79-C2D3FD6F504C}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.dropbox.com/" xr:uid="{BCB6A98A-62C1-46FD-AF5C-0B96558194CD}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://mega.io/" xr:uid="{32826931-6625-4BAA-9133-7B7575388394}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://www.pcloud.com/" xr:uid="{D89A1325-39BA-442F-8261-84C7C900F1AF}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.sync.com/" xr:uid="{049283C8-0EF6-4083-8DDE-BEB9CEB53010}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://www.box.com/" xr:uid="{6B0FCC6E-D43F-4C4B-9061-B1AA41F46A48}"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://proton.me/drive" xr:uid="{218A888B-7040-4E9F-A6C2-D561A9258124}"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://www.terabox.com/" xr:uid="{551E02FD-10D6-40C9-ABFC-7C960129FDAC}"/>
-    <hyperlink ref="B9" r:id="rId9" display="https://filen.io/" xr:uid="{78FEE1F1-9B26-4FA6-A3CB-7DCC3FA42EAC}"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://degoo.com/" xr:uid="{9100F272-42D0-436B-84E2-F1494D91CAE1}"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://360.yandex.com/disk/" xr:uid="{C4D0BA00-8249-4F66-B833-916544615A38}"/>
-    <hyperlink ref="B12" r:id="rId12" display="https://www.mediafire.com/" xr:uid="{9D8B88E1-ADA3-4FD4-A012-E41D987B61C8}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://www.opendrive.com/" xr:uid="{E41C3860-4FB8-4A57-A4A4-94E5DC06E690}"/>
-    <hyperlink ref="B14" r:id="rId14" display="https://jottacloud.com/en/" xr:uid="{17B7DF5D-2E1D-44CE-9CD0-2E94EBC4D75E}"/>
-    <hyperlink ref="B15" r:id="rId15" display="https://cloud.mail.ru/" xr:uid="{3EF70A7E-6037-4013-A089-F4B3956C2937}"/>
-    <hyperlink ref="B16" r:id="rId16" display="https://www.amazon.com/Amazon-Photos" xr:uid="{644FB455-0815-4479-8D2E-5947BF62E7AC}"/>
-    <hyperlink ref="B17" r:id="rId17" display="https://www.apple.com/icloud/" xr:uid="{2A164203-D6D1-40B7-9DD0-32364D30F3F2}"/>
-    <hyperlink ref="B18" r:id="rId18" display="https://nordlocker.com/" xr:uid="{41A80592-780E-4C05-A0C2-93B67EE1BB95}"/>
-    <hyperlink ref="B19" r:id="rId19" display="https://www.blomp.com/" xr:uid="{034BB2F8-CD23-4AB7-8B52-27954061BB67}"/>
-    <hyperlink ref="B20" r:id="rId20" display="https://www.rakuten.com/drive" xr:uid="{249E05BD-2B37-4AD3-9AF5-1359AB51BE69}"/>
-    <hyperlink ref="B21" r:id="rId21" display="https://icedrive.net/" xr:uid="{22520F92-C10D-47A4-92D6-8C159FA03742}"/>
-    <hyperlink ref="B22" r:id="rId22" display="https://onedrive.live.com/" xr:uid="{8ED24D03-B48A-443B-BF2A-13AC99D4C550}"/>
-    <hyperlink ref="B23" r:id="rId23" display="https://www.idrive.com/" xr:uid="{113DD525-2870-476F-B0D8-6797F4008AD8}"/>
-    <hyperlink ref="B24" r:id="rId24" display="https://koofr.eu/" xr:uid="{26A9A37D-255D-4AAC-A542-B02D1EDF88F2}"/>
-    <hyperlink ref="B25" r:id="rId25" display="https://tresorit.com/" xr:uid="{A1FFDBF4-DA11-4C6A-9DE0-A9563CE4AB08}"/>
-    <hyperlink ref="B26" r:id="rId26" display="https://www.zoho.com/workdrive/" xr:uid="{4F307692-E9CB-4F47-928B-8AB45B11091E}"/>
-    <hyperlink ref="B27" r:id="rId27" display="https://internxt.com/" xr:uid="{6E964238-F640-4F8F-A7F0-33D5DAA915F5}"/>
-    <hyperlink ref="B28" r:id="rId28" display="https://www.hightail.com/" xr:uid="{D808852F-F655-406A-BF8E-5A92AACE4971}"/>
-    <hyperlink ref="B29" r:id="rId29" display="https://www.syncplicity.com/" xr:uid="{A5A6680A-E66E-47C8-865B-BC53919A8095}"/>
-    <hyperlink ref="B30" r:id="rId30" display="https://www.infomaniak.com/en/kdrive" xr:uid="{2AAA734F-FF19-4B31-82CA-2393E34902CC}"/>
-    <hyperlink ref="B31" r:id="rId31" display="https://cozy.io/en/" xr:uid="{AA1073E2-2960-4D2C-9BE9-40745E2AFA59}"/>
-    <hyperlink ref="B32" r:id="rId32" display="https://www.gmx.net/" xr:uid="{7BA331F2-509B-458D-8EA8-93E2E951505C}"/>
-    <hyperlink ref="B33" r:id="rId33" display="https://web.de/" xr:uid="{C7B24C09-5FD9-45C4-B2DF-719195B5F3F5}"/>
-    <hyperlink ref="B34" r:id="rId34" display="https://www.mail.com/" xr:uid="{BC575A5D-0663-40D5-A0CC-FA7CACB9BCF1}"/>
-    <hyperlink ref="B35" r:id="rId35" display="https://www.freenet.de/" xr:uid="{D86C2E95-D382-4925-AA81-6EB97566A800}"/>
-    <hyperlink ref="B36" r:id="rId36" display="https://www.securesafe.com/" xr:uid="{7EAD5830-1DC0-4857-BA19-E64526DEA338}"/>
-    <hyperlink ref="B37" r:id="rId37" display="https://wetransfer.com/" xr:uid="{DB331A35-3E54-4672-8768-657E99620F52}"/>
-    <hyperlink ref="B38" r:id="rId38" display="https://www.sendgb.com/" xr:uid="{9E4068D8-9A92-4249-952F-2F67E6C5DF0C}"/>
-    <hyperlink ref="B39" r:id="rId39" display="https://www.transfernow.net/" xr:uid="{19008718-1648-4E19-A6B1-52F54EDE72F5}"/>
-    <hyperlink ref="B40" r:id="rId40" display="https://www.filemail.com/" xr:uid="{708DAD49-37E6-45BE-93A6-65D9761C6E28}"/>
-    <hyperlink ref="B41" r:id="rId41" display="https://fromsmash.com/" xr:uid="{209E41CF-B4C9-4C23-8C6C-D628D0AA7EA4}"/>
-    <hyperlink ref="B42" r:id="rId42" display="https://www.myairbridge.com/" xr:uid="{0CD6FD37-A37C-4B65-8142-BD509FECD5A4}"/>
-    <hyperlink ref="B43" r:id="rId43" display="https://send-anywhere.com/" xr:uid="{C60C6C2D-7FBB-49F4-8DF0-3F4D5702D5D2}"/>
-    <hyperlink ref="B44" r:id="rId44" display="https://www.dropsend.com/" xr:uid="{F056AF92-3EF8-4986-99D2-5FF761D5CAC9}"/>
-    <hyperlink ref="B45" r:id="rId45" display="https://transferxl.com/" xr:uid="{E25FCD4C-E47A-4C5F-82EC-9F896F12C6DA}"/>
-    <hyperlink ref="B46" r:id="rId46" display="https://sendtransfer.com/" xr:uid="{9BCA6E86-F0B2-46C5-80AC-C630957F6DD6}"/>
-    <hyperlink ref="B47" r:id="rId47" display="https://www.mailbigfile.com/" xr:uid="{761C9262-717C-4401-9B95-9CC3C780FF63}"/>
-    <hyperlink ref="B48" r:id="rId48" display="https://www.grosfichiers.com/" xr:uid="{E056DB11-3D82-49CB-9A26-26B6EF1C1F8E}"/>
-    <hyperlink ref="B49" r:id="rId49" display="https://www.swisstransfer.com/" xr:uid="{CEA18B1F-094D-48BA-9C11-5F3B6B74DFC3}"/>
-    <hyperlink ref="B50" r:id="rId50" display="https://temp.sh/" xr:uid="{DFA2238F-9C13-4E23-9B66-8EAB9D11431E}"/>
-    <hyperlink ref="B51" r:id="rId51" display="https://www.file.io/" xr:uid="{262233B0-4325-403E-A492-235784F8E042}"/>
-    <hyperlink ref="B52" r:id="rId52" display="https://uguu.se/" xr:uid="{FCEE0C8B-DE41-4D73-896D-89871F48B8AA}"/>
-    <hyperlink ref="B53" r:id="rId53" display="https://catbox.moe/" xr:uid="{B290268C-D682-4AAB-9FE2-9FC90B213A48}"/>
-    <hyperlink ref="B54" r:id="rId54" display="https://volafile.org/" xr:uid="{5A3BA03D-C480-4256-BA62-E1D2EF13EC5F}"/>
-    <hyperlink ref="B55" r:id="rId55" display="https://filebin.net/" xr:uid="{66EF2AB6-08B2-4A1F-A272-74B4E6213AD4}"/>
-    <hyperlink ref="B56" r:id="rId56" display="https://0x0.st/" xr:uid="{FE28A795-942A-4D11-8C1F-F94877467921}"/>
-    <hyperlink ref="B57" r:id="rId57" display="https://pomf.lain.la/" xr:uid="{93A41509-74A9-4D93-92DF-DCE182757029}"/>
-    <hyperlink ref="B58" r:id="rId58" display="https://transfer.sh/" xr:uid="{BD5E1D25-5FE5-4900-ACB4-5A3C669C058B}"/>
-    <hyperlink ref="B59" r:id="rId59" display="https://bashupload.com/" xr:uid="{C82B0310-4B1F-43BB-9D07-F43F76159B65}"/>
-    <hyperlink ref="B60" r:id="rId60" display="https://anonfiles.com/" xr:uid="{B50149E1-6574-4424-B456-22AB276167F5}"/>
-    <hyperlink ref="B61" r:id="rId61" display="https://bayfiles.com/" xr:uid="{AAAEC7A8-16E8-4BDF-98FC-F60B278D6E7E}"/>
-    <hyperlink ref="B62" r:id="rId62" display="https://filedropper.com/" xr:uid="{54B141AE-570F-4876-BEEE-AFD6B5AB47B2}"/>
-    <hyperlink ref="B63" r:id="rId63" display="https://www.filehosting.org/" xr:uid="{B5192BA8-097F-4DEC-9E89-021BB084C23C}"/>
-    <hyperlink ref="B64" r:id="rId64" display="https://www.gigafile.nu/" xr:uid="{084ED7A3-EF03-42D9-B874-E34113FE8AB1}"/>
-    <hyperlink ref="B65" r:id="rId65" display="https://www.droppyfiles.com/" xr:uid="{278CCED5-23A8-4AFD-B05E-00642786D655}"/>
-    <hyperlink ref="B66" r:id="rId66" display="https://filetransfer.io/" xr:uid="{014F35E6-7EFE-4184-B989-A5C86133F01F}"/>
-    <hyperlink ref="B67" r:id="rId67" display="https://sendfiles.online/" xr:uid="{425E8B20-D431-4730-B181-8A625ED773CA}"/>
-    <hyperlink ref="B68" r:id="rId68" display="https://send.vis.ee/" xr:uid="{0C732C7A-202E-4FB5-986B-045CE55C589E}"/>
-    <hyperlink ref="B69" r:id="rId69" display="https://wormhole.app/" xr:uid="{B063E68F-EFE0-48D7-9194-8FBE6C6D525F}"/>
-    <hyperlink ref="B70" r:id="rId70" display="https://file.pizza/" xr:uid="{15A9BD3B-B790-4473-974A-96B9686103F5}"/>
-    <hyperlink ref="B71" r:id="rId71" display="https://sharedrop.io/" xr:uid="{87AE06B9-BAF6-4912-8514-829541CBFAB0}"/>
-    <hyperlink ref="B72" r:id="rId72" display="https://www.4shared.com/" xr:uid="{8EA98CD6-4D7B-4EF3-8525-E07D8A26FEF3}"/>
-    <hyperlink ref="B73" r:id="rId73" display="https://www.megaup.net/" xr:uid="{78516539-64AD-4FB5-B082-8DBD5A6AA852}"/>
-    <hyperlink ref="B74" r:id="rId74" display="https://www.upload.ee/" xr:uid="{C1172D1C-CD0A-49FC-8050-5EF94355FCFF}"/>
-    <hyperlink ref="B75" r:id="rId75" display="https://www.file-upload.com/" xr:uid="{4EF8F897-6459-4BCA-A2A1-2BD9D7004B40}"/>
-    <hyperlink ref="B76" r:id="rId76" display="https://www.sendspace.com/" xr:uid="{A7F35E71-0D4A-4F57-B2BA-C7F64AD6449B}"/>
-    <hyperlink ref="B77" r:id="rId77" display="https://dropmefiles.com/" xr:uid="{ADE23394-9626-404E-AFB1-76BD141DB657}"/>
-    <hyperlink ref="B78" r:id="rId78" display="https://www.gofile.io/" xr:uid="{E65B36AA-E219-45A2-98CE-436A52DDB2D2}"/>
-    <hyperlink ref="B79" r:id="rId79" display="https://www.rapidgator.net/" xr:uid="{9F49F006-1318-4DC6-BAB4-0C4CD25FF2EA}"/>
-    <hyperlink ref="B80" r:id="rId80" display="https://www.uploaded.net/" xr:uid="{40873F03-2CCD-46F5-89DA-3EA0851133AF}"/>
-    <hyperlink ref="B81" r:id="rId81" display="https://www.turbobit.net/" xr:uid="{FB357C96-54D9-43D3-8000-976D33CB0B69}"/>
-    <hyperlink ref="B82" r:id="rId82" display="https://www.fileconvoy.com/" xr:uid="{74F09805-DEEE-4999-B874-47CC5167E1A3}"/>
-    <hyperlink ref="B83" r:id="rId83" display="https://www.sendthisfile.com/" xr:uid="{4512A633-6052-40C6-B63A-6D7561DC5DD9}"/>
-    <hyperlink ref="B84" r:id="rId84" display="https://www.tinyupload.com/" xr:uid="{E513E67F-84DC-4BEB-9C5E-CF17F12ED4FF}"/>
-    <hyperlink ref="B85" r:id="rId85" display="https://www.file-upload.net/" xr:uid="{0C1E1C0C-B433-4AC3-A3F0-4C79B1F247CC}"/>
-    <hyperlink ref="B86" r:id="rId86" display="https://www.letsupload.io/" xr:uid="{BA667B9F-E35F-4651-99C5-D6E90674A47F}"/>
-    <hyperlink ref="B87" r:id="rId87" display="https://www.uploadfiles.io/" xr:uid="{F77BB32A-A7BE-4059-A587-6E2BEFB61204}"/>
-    <hyperlink ref="B88" r:id="rId88" display="https://www.streamable.com/" xr:uid="{8F492CE4-F07D-4A77-B34E-95D6B9DCCF72}"/>
-    <hyperlink ref="B89" r:id="rId89" display="https://vimeo.com/" xr:uid="{7C339E8D-DB58-42A7-A3D0-727A697E87A9}"/>
-    <hyperlink ref="B90" r:id="rId90" display="https://www.dailymotion.com/" xr:uid="{B54ABDE0-68B8-4286-8DE2-8AF63F064FC6}"/>
-    <hyperlink ref="B91" r:id="rId91" display="https://www.soundcloud.com/" xr:uid="{40B5800B-1DEE-450C-8829-4086ADE0B342}"/>
-    <hyperlink ref="B92" r:id="rId92" display="https://bandcamp.com/" xr:uid="{314006BA-C6BC-4292-872C-F49CDAD2AA65}"/>
-    <hyperlink ref="B93" r:id="rId93" display="https://www.mixcloud.com/" xr:uid="{DAEF35F4-76D2-4308-8D42-92D34024CF89}"/>
-    <hyperlink ref="B94" r:id="rId94" display="https://www.scribd.com/" xr:uid="{D6AEBE99-D4CA-47BF-AE5E-BA49CCC1F6DE}"/>
-    <hyperlink ref="B95" r:id="rId95" display="https://www.slideshare.net/" xr:uid="{FA4EAAEA-8487-428B-B6B1-DE9EFAE4AD67}"/>
-    <hyperlink ref="B96" r:id="rId96" display="https://www.flickr.com/" xr:uid="{0846D692-340E-490D-A5FB-36473D59153E}"/>
-    <hyperlink ref="B97" r:id="rId97" display="https://imgur.com/" xr:uid="{74172FFD-A6A4-4E8E-BE1E-4324CCB28115}"/>
-    <hyperlink ref="B98" r:id="rId98" display="https://www.500px.com/" xr:uid="{5A6DF095-6C68-45D3-A7AC-88966FAF2A50}"/>
-    <hyperlink ref="B99" r:id="rId99" display="https://www.deviantart.com/" xr:uid="{997BB1B7-DA06-4D3A-8CC1-562EF6F7ADFF}"/>
-    <hyperlink ref="B100" r:id="rId100" display="https://www.hivenet.com/" xr:uid="{EE6FFE0D-0A9B-4B68-BC54-50FB0CF4F0EA}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://file.io/" xr:uid="{D9BDC6AB-CD1B-46C0-9D81-62915FCC1ADF}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://easyupload.io/" xr:uid="{C7C414C7-3AB8-4047-9B31-3A1BD59F9120}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://uploadfiles.io/" xr:uid="{2757978E-0B7C-44FE-8268-8026CBC5FE43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10966,52 +11493,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="B1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="17"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11026,717 +11550,717 @@
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="17" t="s">
+      <c r="B153" t="s">
         <v>920</v>
       </c>
     </row>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568212A-22A1-463F-BD96-1407E058FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220E07F-03F2-4211-A9C2-83D1AF162305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="6180" windowHeight="12900" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1192">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3603,6 +3603,21 @@
   </si>
   <si>
     <t>upload-btn</t>
+  </si>
+  <si>
+    <t>https://sample-videos.com/download-sample-pdf.php</t>
+  </si>
+  <si>
+    <t>https://www.learningcontainer.com/sample-pdf-files-for-testing/</t>
+  </si>
+  <si>
+    <t>https://file-examples.com/storage/fe0e4e70546803a46a7efa8/2017/10/file-sample_150kB.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1PD5OUnHWnEzhfPl4h1mZCReWYjJOCx34FqbZonOEgs4/export?format=pdf</t>
+  </si>
+  <si>
+    <t>instant</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3738,10 +3753,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4586,21 +4605,21 @@
       <selection activeCell="A2" sqref="A2:A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>681</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -4665,7 +4684,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -4698,7 +4717,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -4731,7 +4750,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -4764,7 +4783,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -4797,7 +4816,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -4830,7 +4849,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -4863,7 +4882,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4915,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -4929,7 +4948,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -4962,7 +4981,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -5028,7 +5047,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -5061,7 +5080,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -5094,7 +5113,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -5127,7 +5146,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -5160,7 +5179,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5193,7 +5212,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -5226,7 +5245,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -5259,7 +5278,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5292,7 +5311,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5325,7 +5344,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -5358,7 +5377,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -5391,7 +5410,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -5424,7 +5443,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -5457,7 +5476,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -5490,7 +5509,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -5523,7 +5542,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
@@ -5556,7 +5575,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -5589,7 +5608,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -5622,7 +5641,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -5655,7 +5674,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -5688,7 +5707,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +5740,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -5754,7 +5773,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -5787,7 +5806,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -5820,7 +5839,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -5853,7 +5872,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -5886,7 +5905,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
@@ -5919,7 +5938,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -5952,7 +5971,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -5985,7 +6004,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -6018,7 +6037,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -6051,7 +6070,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -6084,7 +6103,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -6117,7 +6136,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
@@ -6150,7 +6169,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -6183,7 +6202,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -6216,7 +6235,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -6249,7 +6268,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -6282,7 +6301,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -6315,7 +6334,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -6348,7 +6367,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6381,7 +6400,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6447,7 +6466,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6480,7 +6499,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6513,7 +6532,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6546,7 +6565,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6579,7 +6598,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>74</v>
       </c>
@@ -6612,7 +6631,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
@@ -6645,7 +6664,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>76</v>
       </c>
@@ -6678,7 +6697,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
@@ -6711,7 +6730,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -6744,7 +6763,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -6777,7 +6796,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -6843,7 +6862,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -6876,7 +6895,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
@@ -6909,7 +6928,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
@@ -6942,7 +6961,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -6975,7 +6994,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
@@ -7008,7 +7027,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
@@ -7041,7 +7060,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -7074,7 +7093,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
@@ -7107,7 +7126,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
@@ -7140,7 +7159,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -7173,7 +7192,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -7206,7 +7225,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
@@ -7239,7 +7258,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
@@ -7272,7 +7291,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
@@ -7305,7 +7324,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
@@ -7338,7 +7357,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
@@ -7371,7 +7390,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -7404,7 +7423,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
@@ -7437,7 +7456,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
@@ -7470,7 +7489,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -7503,7 +7522,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
@@ -7536,7 +7555,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -7569,7 +7588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -7602,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
@@ -7635,7 +7654,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
@@ -7668,7 +7687,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
@@ -7701,7 +7720,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
@@ -7734,7 +7753,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -7767,7 +7786,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>109</v>
       </c>
@@ -7800,7 +7819,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
@@ -7833,7 +7852,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -7866,7 +7885,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -7899,7 +7918,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
@@ -7932,7 +7951,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>114</v>
       </c>
@@ -7946,7 +7965,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>115</v>
       </c>
@@ -7960,7 +7979,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>116</v>
       </c>
@@ -7974,7 +7993,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>117</v>
       </c>
@@ -7985,7 +8004,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>118</v>
       </c>
@@ -7993,7 +8012,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -8001,7 +8020,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -8009,7 +8028,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -8017,7 +8036,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -8025,7 +8044,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -8033,7 +8052,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
@@ -8041,7 +8060,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>147</v>
       </c>
@@ -8049,7 +8068,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>150</v>
       </c>
@@ -8057,7 +8076,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>161</v>
       </c>
@@ -8065,7 +8084,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>149</v>
       </c>
@@ -8073,7 +8092,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>148</v>
       </c>
@@ -8081,7 +8100,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>153</v>
       </c>
@@ -8089,182 +8108,182 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>920</v>
       </c>
@@ -8608,507 +8627,507 @@
       <selection activeCell="B1" sqref="B1:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="17" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="17" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="17" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="17" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="17" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="17" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>569</v>
       </c>
@@ -9122,22 +9141,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>965</v>
       </c>
@@ -9145,22 +9164,22 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>966</v>
       </c>
@@ -9168,7 +9187,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>967</v>
       </c>
@@ -9176,7 +9195,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>968</v>
       </c>
@@ -9184,7 +9203,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>969</v>
       </c>
@@ -9192,7 +9211,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>970</v>
       </c>
@@ -9200,17 +9219,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>971</v>
       </c>
@@ -9218,7 +9237,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>971</v>
       </c>
@@ -9226,17 +9245,17 @@
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>971</v>
       </c>
@@ -9244,7 +9263,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>971</v>
       </c>
@@ -9252,7 +9271,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>983</v>
       </c>
@@ -9260,7 +9279,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>984</v>
       </c>
@@ -9268,12 +9287,12 @@
         <v>872</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>976</v>
       </c>
@@ -9281,7 +9300,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>975</v>
       </c>
@@ -9289,7 +9308,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>977</v>
       </c>
@@ -9297,7 +9316,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>978</v>
       </c>
@@ -9305,17 +9324,17 @@
         <v>886</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>971</v>
       </c>
@@ -9323,12 +9342,12 @@
         <v>875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>979</v>
       </c>
@@ -9336,362 +9355,362 @@
         <v>880</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>866</v>
       </c>
@@ -9777,589 +9796,589 @@
       <selection activeCell="B1" sqref="B1:B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="13" t="s">
         <v>952</v>
       </c>
@@ -10453,504 +10472,504 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>1084</v>
       </c>
@@ -10964,19 +10983,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1186</v>
       </c>
@@ -10984,497 +11003,497 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>1182</v>
       </c>
@@ -11491,783 +11510,820 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
-  <dimension ref="B1:B153"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="17" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="17" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="17" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="17" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="17" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="17" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="17" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="17" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="17" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="17" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="17" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="17" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="17" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="17" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="17" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="17" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="17" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="17" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="17" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="17" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="17" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="17" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="17" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="17" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="17" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="17" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="17" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="17" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="17" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="17" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="17" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="17" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="17" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="17" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="17" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="17" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="17" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="17" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="17" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="17" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="17" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="17" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="17" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="17" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="17" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="17" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="17" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="17" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="17" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="17" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="17" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="20" t="s">
         <v>920</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
+    <hyperlink ref="B157" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive\Desktop\Final_Project\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220E07F-03F2-4211-A9C2-83D1AF162305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06C6AA2-8F42-4545-88C2-07B9A6616353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1020" windowWidth="20160" windowHeight="10830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
-    <sheet name="VOIP" sheetId="19" r:id="rId2"/>
-    <sheet name="Video Str." sheetId="17" r:id="rId3"/>
-    <sheet name="Audio Str." sheetId="18" r:id="rId4"/>
-    <sheet name="Browsing" sheetId="20" r:id="rId5"/>
-    <sheet name="Cloud" sheetId="21" r:id="rId6"/>
-    <sheet name="Download" sheetId="22" r:id="rId7"/>
+    <sheet name="Video Str." sheetId="17" r:id="rId2"/>
+    <sheet name="Audio Str." sheetId="18" r:id="rId3"/>
+    <sheet name="Browsing" sheetId="20" r:id="rId4"/>
+    <sheet name="Cloud" sheetId="21" r:id="rId5"/>
+    <sheet name="Download" sheetId="22" r:id="rId6"/>
+    <sheet name="Games" sheetId="23" r:id="rId7"/>
+    <sheet name="VOIP" sheetId="19" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1295">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3611,20 +3612,329 @@
     <t>https://www.learningcontainer.com/sample-pdf-files-for-testing/</t>
   </si>
   <si>
-    <t>https://file-examples.com/storage/fe0e4e70546803a46a7efa8/2017/10/file-sample_150kB.pdf</t>
-  </si>
-  <si>
     <t>https://docs.google.com/spreadsheets/d/1PD5OUnHWnEzhfPl4h1mZCReWYjJOCx34FqbZonOEgs4/export?format=pdf</t>
   </si>
   <si>
     <t>instant</t>
+  </si>
+  <si>
+    <t>downloadButtonElement</t>
+  </si>
+  <si>
+    <t>https://file-examples.com/index.php/sample-documents-download/sample-pdf-download/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/1v1-lol  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acolytefight.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://agar.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/agario  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/agario  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/agar-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/amogus-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://anomal.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://antwar.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aquapark.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aquar.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arras.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arrow.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://astr.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://astrar.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://astro.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://astroe.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://backrooms.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bacter.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bacterio.ca  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://basher.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://battleofpens.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://battleboats.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://battledudes.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://battleshipgame.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bellum.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bighunter.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biome3d.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/bloxdhop-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/bonkio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/buildroyale-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/bulletz-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/catac-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/g/craftnite-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://craftnite.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/deadshot-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diep.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/diepio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/diep-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drednot.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/ducklings  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/ducklings-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/ev-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/flyordie-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flixter.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/flyordieio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/heist-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hole.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/hole-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/hole-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/holey-io-battle-royale  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/kiomet-com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://krunker.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/krunker-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/krunker-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/little-big-snake  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/arcade/little-big-snake  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/lolbeans-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/lol-beans  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/magicland-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/narrow-one  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://paper.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/paper-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/paper-io-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/paper-io-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/poxel-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/shellshockersio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/shell-shockers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shellshock.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/ships-3d  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://skribbl.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/skribblio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/skribbl-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://slither.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/slitherio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/arcade/slither-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/smash-karts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/smash-karts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://snake.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/snake-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/snakeio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/sprint-league  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/starblastio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/state-io-conquer-the-world  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/states-battle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/stickman-hook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/sushi-party-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/taming-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/vectaria-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/venge-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/voxiom-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wings.io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iogames.games/wings-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/worm-hunt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1001games.com/multiplayer/worms-zone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/worms-zone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://poki.com/en/g/yohoho-io  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crazygames.com/game/zombsroyaleio  </t>
+  </si>
+  <si>
+    <t>raised</t>
+  </si>
+  <si>
+    <t>admeen-splash-button</t>
+  </si>
+  <si>
+    <t>app-btn-primary</t>
+  </si>
+  <si>
+    <t>css-19qwy7b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3673,6 +3983,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -3753,14 +4069,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4601,25 +4917,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223EC159-F820-4AE8-B6E2-507652CFCB29}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A154"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>681</v>
       </c>
@@ -4651,7 +4967,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -4684,7 +5000,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -4717,7 +5033,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +5066,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -4783,7 +5099,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -4816,7 +5132,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -4849,7 +5165,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -4882,7 +5198,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +5231,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +5264,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -4981,7 +5297,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5014,7 +5330,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -5047,7 +5363,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5396,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -5113,7 +5429,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -5146,7 +5462,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -5179,7 +5495,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5212,7 +5528,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -5245,7 +5561,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -5278,7 +5594,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5311,7 +5627,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5344,7 +5660,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -5377,7 +5693,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -5410,7 +5726,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -5443,7 +5759,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -5476,7 +5792,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -5509,7 +5825,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -5542,7 +5858,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
@@ -5575,7 +5891,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -5608,7 +5924,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5957,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -5674,7 +5990,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -5707,7 +6023,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -5740,7 +6056,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -5773,7 +6089,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -5806,7 +6122,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -5839,7 +6155,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -5872,7 +6188,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -5905,7 +6221,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
@@ -5938,7 +6254,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -5971,7 +6287,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -6004,7 +6320,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -6037,7 +6353,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -6070,7 +6386,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -6103,7 +6419,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -6136,7 +6452,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
@@ -6169,7 +6485,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -6202,7 +6518,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -6235,7 +6551,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -6268,7 +6584,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -6301,7 +6617,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -6334,7 +6650,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -6367,7 +6683,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6400,7 +6716,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6433,7 +6749,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6466,7 +6782,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6499,7 +6815,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6532,7 +6848,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6565,7 +6881,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6598,7 +6914,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>74</v>
       </c>
@@ -6631,7 +6947,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
@@ -6664,7 +6980,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>76</v>
       </c>
@@ -6697,7 +7013,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
@@ -6730,7 +7046,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -6763,7 +7079,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -6796,7 +7112,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
@@ -6829,7 +7145,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -6862,7 +7178,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -6895,7 +7211,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
@@ -6928,7 +7244,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
@@ -6961,7 +7277,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -6994,7 +7310,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
@@ -7027,7 +7343,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
@@ -7060,7 +7376,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -7093,7 +7409,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
@@ -7126,7 +7442,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
@@ -7159,7 +7475,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -7192,7 +7508,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -7225,7 +7541,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
@@ -7258,7 +7574,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
@@ -7291,7 +7607,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
@@ -7324,7 +7640,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
@@ -7357,7 +7673,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
@@ -7390,7 +7706,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -7423,7 +7739,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
@@ -7456,7 +7772,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
@@ -7489,7 +7805,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -7522,7 +7838,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
@@ -7555,7 +7871,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -7588,7 +7904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -7621,7 +7937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
@@ -7654,7 +7970,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
@@ -7687,7 +8003,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
@@ -7720,7 +8036,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
@@ -7753,7 +8069,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -7786,7 +8102,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>109</v>
       </c>
@@ -7819,7 +8135,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
@@ -7852,7 +8168,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -7885,7 +8201,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -7918,7 +8234,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
@@ -7951,7 +8267,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>114</v>
       </c>
@@ -7965,7 +8281,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>115</v>
       </c>
@@ -7979,7 +8295,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>116</v>
       </c>
@@ -7993,7 +8309,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>117</v>
       </c>
@@ -8004,7 +8320,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>118</v>
       </c>
@@ -8012,7 +8328,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -8020,7 +8336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -8028,7 +8344,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -8036,7 +8352,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -8044,7 +8360,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -8052,7 +8368,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
@@ -8060,7 +8376,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>147</v>
       </c>
@@ -8068,7 +8384,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>150</v>
       </c>
@@ -8076,7 +8392,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>161</v>
       </c>
@@ -8084,7 +8400,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>149</v>
       </c>
@@ -8092,7 +8408,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>148</v>
       </c>
@@ -8100,7 +8416,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>153</v>
       </c>
@@ -8108,182 +8424,182 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>920</v>
       </c>
@@ -8620,524 +8936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB5F57-9A03-4145-8201-5FC47AB315FD}">
-  <dimension ref="B1:B100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="17" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="17" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="17" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="17" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="17" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:B102"/>
   <sheetViews>
@@ -9145,18 +8943,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>965</v>
       </c>
@@ -9164,22 +8962,22 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>966</v>
       </c>
@@ -9187,7 +8985,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>967</v>
       </c>
@@ -9195,7 +8993,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>968</v>
       </c>
@@ -9203,7 +9001,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>969</v>
       </c>
@@ -9211,7 +9009,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>970</v>
       </c>
@@ -9219,17 +9017,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>971</v>
       </c>
@@ -9237,7 +9035,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>971</v>
       </c>
@@ -9245,17 +9043,17 @@
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>971</v>
       </c>
@@ -9263,7 +9061,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>971</v>
       </c>
@@ -9271,7 +9069,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>983</v>
       </c>
@@ -9279,7 +9077,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>984</v>
       </c>
@@ -9287,12 +9085,12 @@
         <v>872</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>976</v>
       </c>
@@ -9300,7 +9098,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>975</v>
       </c>
@@ -9308,7 +9106,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>977</v>
       </c>
@@ -9316,7 +9114,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>978</v>
       </c>
@@ -9324,17 +9122,17 @@
         <v>886</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>971</v>
       </c>
@@ -9342,12 +9140,12 @@
         <v>875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>979</v>
       </c>
@@ -9355,362 +9153,362 @@
         <v>880</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>866</v>
       </c>
@@ -9788,604 +9586,607 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="B1:B117"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
     <hyperlink ref="B107" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
     <hyperlink ref="B108" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
     <hyperlink ref="B109" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
@@ -10456,7 +10257,7 @@
     <hyperlink ref="B94" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
     <hyperlink ref="B95" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
     <hyperlink ref="B96" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="B21" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="B20" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
     <hyperlink ref="B116" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
     <hyperlink ref="B115" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
   </hyperlinks>
@@ -10464,7 +10265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A2EFD-A127-47E5-B375-5235669A0921}">
   <dimension ref="B1:B100"/>
   <sheetViews>
@@ -10472,504 +10273,504 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>1084</v>
       </c>
@@ -10979,7 +10780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -10987,15 +10788,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1186</v>
       </c>
@@ -11003,497 +10804,497 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>1182</v>
       </c>
@@ -11508,823 +11309,1862 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="20"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="20" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
     <hyperlink ref="B1" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
-    <hyperlink ref="B157" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
+    <hyperlink ref="B157" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
+    <hyperlink ref="B156" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
+    <hyperlink ref="B155" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2D1A5-2BF6-4BAC-B823-F864749CEE0B}">
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB5F57-9A03-4145-8201-5FC47AB315FD}">
+  <dimension ref="B1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06C6AA2-8F42-4545-88C2-07B9A6616353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8352DCA4-48AA-4FEF-B36E-3BA5DAB80E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="1020" windowWidth="20160" windowHeight="10830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9591,7 +9591,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8352DCA4-48AA-4FEF-B36E-3BA5DAB80E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABF262-D8FF-405D-8E40-AF2D5F1AB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1020" windowWidth="20160" windowHeight="10830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1299">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -2973,9 +2973,6 @@
     <t>css-sor8t7</t>
   </si>
   <si>
-    <t>c-playtrigger__button</t>
-  </si>
-  <si>
     <t>fp-play</t>
   </si>
   <si>
@@ -3928,13 +3925,28 @@
   </si>
   <si>
     <t>css-19qwy7b</t>
+  </si>
+  <si>
+    <t>קישור</t>
+  </si>
+  <si>
+    <t>לחיצת PLAY</t>
+  </si>
+  <si>
+    <t>לחיצת קדם</t>
+  </si>
+  <si>
+    <t>didomi-notice-agree-button,c-playtrigger__button</t>
+  </si>
+  <si>
+    <t>CybotCookiebotDialogBodyLevelButtonAccept,vjs-big-play-button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3992,6 +4004,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4032,7 +4050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4073,10 +4091,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4921,29 +4940,29 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>682</v>
@@ -4967,7 +4986,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -5000,7 +5019,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -5033,7 +5052,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -5066,7 +5085,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -5099,7 +5118,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -5132,7 +5151,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -5165,7 +5184,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -5198,7 +5217,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5250,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -5264,7 +5283,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -5297,7 +5316,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5330,7 +5349,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -5363,7 +5382,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -5396,7 +5415,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -5429,7 +5448,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -5462,7 +5481,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -5561,7 +5580,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -5594,7 +5613,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5627,7 +5646,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5660,7 +5679,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -5693,7 +5712,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -5726,7 +5745,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -5759,7 +5778,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -5792,7 +5811,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -5825,7 +5844,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -5858,7 +5877,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
@@ -5891,7 +5910,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -5957,7 +5976,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -5990,7 +6009,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -6023,7 +6042,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -6056,7 +6075,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -6089,7 +6108,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -6122,7 +6141,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -6188,7 +6207,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -6221,7 +6240,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
@@ -6254,7 +6273,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -6287,7 +6306,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -6320,7 +6339,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -6353,7 +6372,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -6386,7 +6405,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -6419,7 +6438,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -6452,7 +6471,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
@@ -6485,7 +6504,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -6518,7 +6537,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -6551,7 +6570,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -6584,7 +6603,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -6617,7 +6636,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -6650,7 +6669,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6716,7 +6735,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6749,7 +6768,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6782,7 +6801,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6815,7 +6834,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6848,7 +6867,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6881,7 +6900,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6914,7 +6933,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>74</v>
       </c>
@@ -6947,7 +6966,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
@@ -6980,7 +6999,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>76</v>
       </c>
@@ -7013,7 +7032,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
@@ -7046,7 +7065,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -7079,7 +7098,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -7112,7 +7131,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
@@ -7145,7 +7164,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -7178,7 +7197,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -7211,7 +7230,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
@@ -7244,7 +7263,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
@@ -7277,7 +7296,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -7310,7 +7329,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
@@ -7343,7 +7362,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
@@ -7376,7 +7395,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -7409,7 +7428,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
@@ -7442,7 +7461,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
@@ -7475,7 +7494,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -7508,7 +7527,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -7541,7 +7560,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
@@ -7574,7 +7593,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
@@ -7607,7 +7626,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
@@ -7640,7 +7659,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
@@ -7673,7 +7692,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
@@ -7706,7 +7725,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -7739,7 +7758,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
@@ -7772,7 +7791,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
@@ -7805,7 +7824,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -7838,7 +7857,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
@@ -7871,7 +7890,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -7904,7 +7923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -7937,7 +7956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
@@ -7970,7 +7989,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
@@ -8003,7 +8022,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
@@ -8069,7 +8088,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -8102,7 +8121,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>109</v>
       </c>
@@ -8135,7 +8154,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
@@ -8168,7 +8187,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -8201,7 +8220,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -8234,7 +8253,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
@@ -8267,7 +8286,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>114</v>
       </c>
@@ -8281,7 +8300,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>115</v>
       </c>
@@ -8295,7 +8314,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>116</v>
       </c>
@@ -8309,7 +8328,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>117</v>
       </c>
@@ -8320,7 +8339,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>118</v>
       </c>
@@ -8328,7 +8347,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -8336,7 +8355,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -8344,7 +8363,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -8352,7 +8371,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -8360,7 +8379,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -8368,7 +8387,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
@@ -8376,7 +8395,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>147</v>
       </c>
@@ -8384,7 +8403,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>150</v>
       </c>
@@ -8392,7 +8411,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>161</v>
       </c>
@@ -8400,7 +8419,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>149</v>
       </c>
@@ -8408,7 +8427,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>148</v>
       </c>
@@ -8416,7 +8435,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>153</v>
       </c>
@@ -8424,182 +8443,182 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>920</v>
       </c>
@@ -8937,649 +8956,662 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="C19" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>983</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>984</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>977</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="C29" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="14" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="11" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="11" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="11" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="11" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="11" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="11" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="11" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="11" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="11" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="11" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="11" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="6" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="6" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="6" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="6" t="s">
         <v>866</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="B69" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="B70" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="B71" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="B72" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="B73" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="B74" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="B75" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="B76" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="B77" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="B78" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="B79" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="B80" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="B81" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="B82" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="B83" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="B84" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="B85" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="B92" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="B94" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="B95" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="B87" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="B88" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="B89" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="B90" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="B91" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="B93" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="B86" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="B100" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="B97" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="B99" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
-    <hyperlink ref="B25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
-    <hyperlink ref="B22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
-    <hyperlink ref="B31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
-    <hyperlink ref="B29" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
-    <hyperlink ref="B28" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
-    <hyperlink ref="B27" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
-    <hyperlink ref="B26" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
-    <hyperlink ref="B44" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
-    <hyperlink ref="B52" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
-    <hyperlink ref="B53" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
-    <hyperlink ref="B65" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
-    <hyperlink ref="B2" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
-    <hyperlink ref="B3" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
-    <hyperlink ref="B4" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
-    <hyperlink ref="B6" r:id="rId47" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
-    <hyperlink ref="B7" r:id="rId48" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
-    <hyperlink ref="B8" r:id="rId49" xr:uid="{7C313490-E377-4F1D-B99E-AA798B85C141}"/>
-    <hyperlink ref="B9" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
-    <hyperlink ref="B10" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
-    <hyperlink ref="B11" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
-    <hyperlink ref="B13" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
-    <hyperlink ref="B14" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
-    <hyperlink ref="B15" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
-    <hyperlink ref="B16" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
-    <hyperlink ref="B17" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="B102" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
-    <hyperlink ref="B19" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
-    <hyperlink ref="B23" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="B20" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
-    <hyperlink ref="B21" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="B24" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="B30" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
-    <hyperlink ref="B12" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
+    <hyperlink ref="C70" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="C71" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="C72" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="C73" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="C74" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="C75" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="C76" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="C77" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="C78" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="C79" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="C80" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="C81" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="C82" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="C83" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="C84" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="C85" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="C86" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="C93" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="C95" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="C96" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="C88" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="C89" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="C90" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="C91" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="C92" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="C94" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="C87" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="C101" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="C98" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="C100" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="C26" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
+    <hyperlink ref="C23" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
+    <hyperlink ref="C32" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
+    <hyperlink ref="C30" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
+    <hyperlink ref="C29" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
+    <hyperlink ref="C28" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
+    <hyperlink ref="C27" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
+    <hyperlink ref="C45" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
+    <hyperlink ref="C53" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
+    <hyperlink ref="C54" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
+    <hyperlink ref="C66" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
+    <hyperlink ref="C3" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
+    <hyperlink ref="C4" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
+    <hyperlink ref="C5" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
+    <hyperlink ref="C7" r:id="rId47" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
+    <hyperlink ref="C8" r:id="rId48" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
+    <hyperlink ref="C9" r:id="rId49" xr:uid="{7C313490-E377-4F1D-B99E-AA798B85C141}"/>
+    <hyperlink ref="C10" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
+    <hyperlink ref="C11" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
+    <hyperlink ref="C12" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
+    <hyperlink ref="C14" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
+    <hyperlink ref="C15" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
+    <hyperlink ref="C16" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
+    <hyperlink ref="C17" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
+    <hyperlink ref="C18" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
+    <hyperlink ref="C103" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C19" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
+    <hyperlink ref="C24" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
+    <hyperlink ref="C20" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
+    <hyperlink ref="C21" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="C25" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="C31" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="C13" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId66"/>
@@ -9588,1191 +9620,1214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="16" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="16" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="12" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="12" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="12" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="12" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="12" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="12" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="12" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="12" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="12" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="13" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
-    <hyperlink ref="B107" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
-    <hyperlink ref="B108" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
-    <hyperlink ref="B109" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
-    <hyperlink ref="B110" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
-    <hyperlink ref="B112" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
-    <hyperlink ref="B114" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
-    <hyperlink ref="B113" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
-    <hyperlink ref="B45" r:id="rId10" xr:uid="{CACF3F4B-FD60-4F5D-80DE-4F989827283B}"/>
-    <hyperlink ref="B46" r:id="rId11" xr:uid="{B621D8DE-A767-4BBD-BE22-640A75CA5D91}"/>
-    <hyperlink ref="B47" r:id="rId12" xr:uid="{E343DF28-D7C6-487D-8890-421CD37C42EB}"/>
-    <hyperlink ref="B48" r:id="rId13" xr:uid="{393CD1D9-6D85-43AC-847D-1BF2CF74E366}"/>
-    <hyperlink ref="B49" r:id="rId14" xr:uid="{E118AE26-9368-4DE4-9299-26E63628339C}"/>
-    <hyperlink ref="B50" r:id="rId15" xr:uid="{D0393A7E-EC42-4E0E-A98F-C8F2B2386DB9}"/>
-    <hyperlink ref="B51" r:id="rId16" xr:uid="{45CA9E57-58A2-4669-B92E-D18354127A7A}"/>
-    <hyperlink ref="B52" r:id="rId17" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
-    <hyperlink ref="B53" r:id="rId18" xr:uid="{04F0B8E6-39DE-4116-A66A-09152BBF7CA1}"/>
-    <hyperlink ref="B54" r:id="rId19" xr:uid="{0042D724-A44C-49DB-8C11-798623C9F02E}"/>
-    <hyperlink ref="B55" r:id="rId20" xr:uid="{82C2869E-FB63-4D88-8258-85F9BF076209}"/>
-    <hyperlink ref="B56" r:id="rId21" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
-    <hyperlink ref="B57" r:id="rId22" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
-    <hyperlink ref="B58" r:id="rId23" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="B59" r:id="rId24" xr:uid="{7F7B17FD-BE50-4A04-835D-927E484FB8E1}"/>
-    <hyperlink ref="B60" r:id="rId25" xr:uid="{6C5A4EE0-E514-4B33-BA2B-26BB5453FE55}"/>
-    <hyperlink ref="B61" r:id="rId26" xr:uid="{9F0AA92C-C581-4FB2-88BD-43045313725E}"/>
-    <hyperlink ref="B62" r:id="rId27" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
-    <hyperlink ref="B63" r:id="rId28" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
-    <hyperlink ref="B64" r:id="rId29" xr:uid="{CE17CEF1-9490-446E-A22A-B4C8A5DB656A}"/>
-    <hyperlink ref="B65" r:id="rId30" xr:uid="{E1A24C18-823A-4306-8077-9A5DC1EA092E}"/>
-    <hyperlink ref="B66" r:id="rId31" xr:uid="{2F0B5BB0-87DC-43D1-BACB-384A98AFF5C1}"/>
-    <hyperlink ref="B67" r:id="rId32" xr:uid="{89FB00D7-0299-4541-AD03-9354C18AE10A}"/>
-    <hyperlink ref="B68" r:id="rId33" xr:uid="{D101A818-34FE-4E2E-B70F-64BB3B0AA327}"/>
-    <hyperlink ref="B69" r:id="rId34" xr:uid="{768B14C4-770A-4C55-8FA2-AC356966313C}"/>
-    <hyperlink ref="B70" r:id="rId35" xr:uid="{DA258324-2BCB-404B-8CAD-1C4F7D9C69F0}"/>
-    <hyperlink ref="B71" r:id="rId36" xr:uid="{4E66D9A3-1977-49B0-8CE0-D772D9935E89}"/>
-    <hyperlink ref="B72" r:id="rId37" xr:uid="{37AC3147-1434-402A-AE31-2D0AE7521865}"/>
-    <hyperlink ref="B106" r:id="rId38" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
-    <hyperlink ref="B105" r:id="rId39" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
-    <hyperlink ref="B104" r:id="rId40" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
-    <hyperlink ref="B103" r:id="rId41" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
-    <hyperlink ref="B102" r:id="rId42" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
-    <hyperlink ref="B101" r:id="rId43" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
-    <hyperlink ref="B100" r:id="rId44" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
-    <hyperlink ref="B99" r:id="rId45" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
-    <hyperlink ref="B98" r:id="rId46" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
-    <hyperlink ref="B97" r:id="rId47" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
-    <hyperlink ref="B73" r:id="rId48" xr:uid="{EC7E067B-B344-4215-B67F-066FFF3BB015}"/>
-    <hyperlink ref="B74" r:id="rId49" xr:uid="{3064A639-44E8-462A-B8B8-199B2145DA6A}"/>
-    <hyperlink ref="B75" r:id="rId50" xr:uid="{5F90A03D-704E-4363-B6C5-77E374A4C34C}"/>
-    <hyperlink ref="B76" r:id="rId51" xr:uid="{B2669C5D-06DE-4B76-9ED8-B7AD33812FAB}"/>
-    <hyperlink ref="B77" r:id="rId52" xr:uid="{EB935972-5A53-4EFE-B2ED-28DB075FF785}"/>
-    <hyperlink ref="B78" r:id="rId53" xr:uid="{82F21A45-69D3-4AFD-BAB6-F70E65634772}"/>
-    <hyperlink ref="B79" r:id="rId54" xr:uid="{3FE44C2B-044D-487D-99C7-CC11FD84EC70}"/>
-    <hyperlink ref="B80" r:id="rId55" xr:uid="{91662DE5-36FC-426A-BE97-2CF289DAA7E8}"/>
-    <hyperlink ref="B81" r:id="rId56" xr:uid="{F80B58BD-AE57-4872-8B78-9642CC138842}"/>
-    <hyperlink ref="B82" r:id="rId57" xr:uid="{EB15B0CA-38C8-4F63-AB4B-E2DCF42B030F}"/>
-    <hyperlink ref="B83" r:id="rId58" xr:uid="{209C6D8B-8EEF-4D33-A631-7B5200F2A7BC}"/>
-    <hyperlink ref="B84" r:id="rId59" xr:uid="{40C460FF-5039-45A0-9990-F58B898CC5D2}"/>
-    <hyperlink ref="B85" r:id="rId60" xr:uid="{D5C94AA2-457D-4EB3-9757-17E119BED846}"/>
-    <hyperlink ref="B86" r:id="rId61" xr:uid="{9A475341-5F99-4792-9D5B-EDE04D483C0F}"/>
-    <hyperlink ref="B87" r:id="rId62" xr:uid="{8E7485E5-7083-4D39-B2B8-82FB0DEFD5D3}"/>
-    <hyperlink ref="B88" r:id="rId63" xr:uid="{AF5B7AEA-2C18-4DCB-8319-296AF51ABD74}"/>
-    <hyperlink ref="B89" r:id="rId64" xr:uid="{F4F44B7B-7022-4C8C-A971-B9C7F106916A}"/>
-    <hyperlink ref="B90" r:id="rId65" xr:uid="{A4D574C0-F69B-47B4-B6BE-24BD59B1F37E}"/>
-    <hyperlink ref="B91" r:id="rId66" xr:uid="{725F13E7-12CF-42E8-B98B-9EA63EB5FE2D}"/>
-    <hyperlink ref="B92" r:id="rId67" xr:uid="{98547F72-A493-4133-8857-2EC85CD29A2D}"/>
-    <hyperlink ref="B93" r:id="rId68" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
-    <hyperlink ref="B94" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
-    <hyperlink ref="B95" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
-    <hyperlink ref="B96" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="B20" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="B116" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
-    <hyperlink ref="B115" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
+    <hyperlink ref="C108" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
+    <hyperlink ref="C109" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
+    <hyperlink ref="C110" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
+    <hyperlink ref="C111" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
+    <hyperlink ref="C112" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
+    <hyperlink ref="C113" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
+    <hyperlink ref="C115" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
+    <hyperlink ref="C114" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{CACF3F4B-FD60-4F5D-80DE-4F989827283B}"/>
+    <hyperlink ref="C47" r:id="rId11" xr:uid="{B621D8DE-A767-4BBD-BE22-640A75CA5D91}"/>
+    <hyperlink ref="C48" r:id="rId12" xr:uid="{E343DF28-D7C6-487D-8890-421CD37C42EB}"/>
+    <hyperlink ref="C49" r:id="rId13" xr:uid="{393CD1D9-6D85-43AC-847D-1BF2CF74E366}"/>
+    <hyperlink ref="C50" r:id="rId14" xr:uid="{E118AE26-9368-4DE4-9299-26E63628339C}"/>
+    <hyperlink ref="C51" r:id="rId15" xr:uid="{D0393A7E-EC42-4E0E-A98F-C8F2B2386DB9}"/>
+    <hyperlink ref="C52" r:id="rId16" xr:uid="{45CA9E57-58A2-4669-B92E-D18354127A7A}"/>
+    <hyperlink ref="C53" r:id="rId17" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
+    <hyperlink ref="C54" r:id="rId18" xr:uid="{04F0B8E6-39DE-4116-A66A-09152BBF7CA1}"/>
+    <hyperlink ref="C55" r:id="rId19" xr:uid="{0042D724-A44C-49DB-8C11-798623C9F02E}"/>
+    <hyperlink ref="C56" r:id="rId20" xr:uid="{82C2869E-FB63-4D88-8258-85F9BF076209}"/>
+    <hyperlink ref="C57" r:id="rId21" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
+    <hyperlink ref="C58" r:id="rId22" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
+    <hyperlink ref="C59" r:id="rId23" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C60" r:id="rId24" xr:uid="{7F7B17FD-BE50-4A04-835D-927E484FB8E1}"/>
+    <hyperlink ref="C61" r:id="rId25" xr:uid="{6C5A4EE0-E514-4B33-BA2B-26BB5453FE55}"/>
+    <hyperlink ref="C62" r:id="rId26" xr:uid="{9F0AA92C-C581-4FB2-88BD-43045313725E}"/>
+    <hyperlink ref="C63" r:id="rId27" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
+    <hyperlink ref="C64" r:id="rId28" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
+    <hyperlink ref="C65" r:id="rId29" xr:uid="{CE17CEF1-9490-446E-A22A-B4C8A5DB656A}"/>
+    <hyperlink ref="C66" r:id="rId30" xr:uid="{E1A24C18-823A-4306-8077-9A5DC1EA092E}"/>
+    <hyperlink ref="C67" r:id="rId31" xr:uid="{2F0B5BB0-87DC-43D1-BACB-384A98AFF5C1}"/>
+    <hyperlink ref="C68" r:id="rId32" xr:uid="{89FB00D7-0299-4541-AD03-9354C18AE10A}"/>
+    <hyperlink ref="C69" r:id="rId33" xr:uid="{D101A818-34FE-4E2E-B70F-64BB3B0AA327}"/>
+    <hyperlink ref="C70" r:id="rId34" xr:uid="{768B14C4-770A-4C55-8FA2-AC356966313C}"/>
+    <hyperlink ref="C71" r:id="rId35" xr:uid="{DA258324-2BCB-404B-8CAD-1C4F7D9C69F0}"/>
+    <hyperlink ref="C72" r:id="rId36" xr:uid="{4E66D9A3-1977-49B0-8CE0-D772D9935E89}"/>
+    <hyperlink ref="C73" r:id="rId37" xr:uid="{37AC3147-1434-402A-AE31-2D0AE7521865}"/>
+    <hyperlink ref="C107" r:id="rId38" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
+    <hyperlink ref="C106" r:id="rId39" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
+    <hyperlink ref="C105" r:id="rId40" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
+    <hyperlink ref="C104" r:id="rId41" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
+    <hyperlink ref="C103" r:id="rId42" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
+    <hyperlink ref="C102" r:id="rId43" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
+    <hyperlink ref="C101" r:id="rId44" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
+    <hyperlink ref="C100" r:id="rId45" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
+    <hyperlink ref="C99" r:id="rId46" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
+    <hyperlink ref="C98" r:id="rId47" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
+    <hyperlink ref="C74" r:id="rId48" xr:uid="{EC7E067B-B344-4215-B67F-066FFF3BB015}"/>
+    <hyperlink ref="C75" r:id="rId49" xr:uid="{3064A639-44E8-462A-B8B8-199B2145DA6A}"/>
+    <hyperlink ref="C76" r:id="rId50" xr:uid="{5F90A03D-704E-4363-B6C5-77E374A4C34C}"/>
+    <hyperlink ref="C77" r:id="rId51" xr:uid="{B2669C5D-06DE-4B76-9ED8-B7AD33812FAB}"/>
+    <hyperlink ref="C78" r:id="rId52" xr:uid="{EB935972-5A53-4EFE-B2ED-28DB075FF785}"/>
+    <hyperlink ref="C79" r:id="rId53" xr:uid="{82F21A45-69D3-4AFD-BAB6-F70E65634772}"/>
+    <hyperlink ref="C80" r:id="rId54" xr:uid="{3FE44C2B-044D-487D-99C7-CC11FD84EC70}"/>
+    <hyperlink ref="C81" r:id="rId55" xr:uid="{91662DE5-36FC-426A-BE97-2CF289DAA7E8}"/>
+    <hyperlink ref="C82" r:id="rId56" xr:uid="{F80B58BD-AE57-4872-8B78-9642CC138842}"/>
+    <hyperlink ref="C83" r:id="rId57" xr:uid="{EB15B0CA-38C8-4F63-AB4B-E2DCF42B030F}"/>
+    <hyperlink ref="C84" r:id="rId58" xr:uid="{209C6D8B-8EEF-4D33-A631-7B5200F2A7BC}"/>
+    <hyperlink ref="C85" r:id="rId59" xr:uid="{40C460FF-5039-45A0-9990-F58B898CC5D2}"/>
+    <hyperlink ref="C86" r:id="rId60" xr:uid="{D5C94AA2-457D-4EB3-9757-17E119BED846}"/>
+    <hyperlink ref="C87" r:id="rId61" xr:uid="{9A475341-5F99-4792-9D5B-EDE04D483C0F}"/>
+    <hyperlink ref="C88" r:id="rId62" xr:uid="{8E7485E5-7083-4D39-B2B8-82FB0DEFD5D3}"/>
+    <hyperlink ref="C89" r:id="rId63" xr:uid="{AF5B7AEA-2C18-4DCB-8319-296AF51ABD74}"/>
+    <hyperlink ref="C90" r:id="rId64" xr:uid="{F4F44B7B-7022-4C8C-A971-B9C7F106916A}"/>
+    <hyperlink ref="C91" r:id="rId65" xr:uid="{A4D574C0-F69B-47B4-B6BE-24BD59B1F37E}"/>
+    <hyperlink ref="C92" r:id="rId66" xr:uid="{725F13E7-12CF-42E8-B98B-9EA63EB5FE2D}"/>
+    <hyperlink ref="C93" r:id="rId67" xr:uid="{98547F72-A493-4133-8857-2EC85CD29A2D}"/>
+    <hyperlink ref="C94" r:id="rId68" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
+    <hyperlink ref="C95" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
+    <hyperlink ref="C96" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
+    <hyperlink ref="C97" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
+    <hyperlink ref="C21" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C117" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
+    <hyperlink ref="C116" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A2EFD-A127-47E5-B375-5235669A0921}">
-  <dimension ref="B1:B100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
       <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>1083</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -10782,528 +10837,539 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="10" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="10" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="10" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="10" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="10" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="10" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="10" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="10" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="10" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="10" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="10" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="10" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="10" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="10" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="10" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="10" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="10" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="10" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="10" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="10" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="10" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="10" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="10" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="10" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="10" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="10" t="s">
         <v>1181</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>1182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://file.io/" xr:uid="{D9BDC6AB-CD1B-46C0-9D81-62915FCC1ADF}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://easyupload.io/" xr:uid="{C7C414C7-3AB8-4047-9B31-3A1BD59F9120}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://uploadfiles.io/" xr:uid="{2757978E-0B7C-44FE-8268-8026CBC5FE43}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://file.io/" xr:uid="{D9BDC6AB-CD1B-46C0-9D81-62915FCC1ADF}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://easyupload.io/" xr:uid="{C7C414C7-3AB8-4047-9B31-3A1BD59F9120}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://uploadfiles.io/" xr:uid="{2757978E-0B7C-44FE-8268-8026CBC5FE43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11311,820 +11377,831 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="20" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="20" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="20" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="20" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
-    <hyperlink ref="B1" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
-    <hyperlink ref="B157" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
-    <hyperlink ref="B156" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
-    <hyperlink ref="B9" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
-    <hyperlink ref="B155" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
+    <hyperlink ref="C158" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
+    <hyperlink ref="C157" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
+    <hyperlink ref="C156" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12132,517 +12209,528 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2D1A5-2BF6-4BAC-B823-F864749CEE0B}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>1291</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="3" t="s">
         <v>1197</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
-        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -12653,514 +12741,527 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB5F57-9A03-4145-8201-5FC47AB315FD}">
-  <dimension ref="B1:B100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B100"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="17" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="17" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="17" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="17" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="17" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="17" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="17" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="17" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="17" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="17" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="17" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="17" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="17" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="17" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="17" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="17" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="17" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="17" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="17" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>569</v>
       </c>
     </row>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABF262-D8FF-405D-8E40-AF2D5F1AB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7CC165-D3F3-427A-86CA-0CE8B13610E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4011,7 +4011,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4036,6 +4036,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4050,7 +4056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4092,6 +4098,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4099,6 +4108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8958,8 +8972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9020,7 +9034,7 @@
       <c r="B8" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="23" t="s">
         <v>854</v>
       </c>
     </row>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive\Desktop\Final_Project\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7CC165-D3F3-427A-86CA-0CE8B13610E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71C6A9-538A-40EB-A233-597E3A93F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -2976,9 +2976,6 @@
     <t>fp-play</t>
   </si>
   <si>
-    <t>ud-focus-visible-target,video-player--center--e4C24</t>
-  </si>
-  <si>
     <t>jwplayer</t>
   </si>
   <si>
@@ -3940,6 +3937,9 @@
   </si>
   <si>
     <t>CybotCookiebotDialogBodyLevelButtonAccept,vjs-big-play-button</t>
+  </si>
+  <si>
+    <t>ud-custom-focus-visible,video-player--play-button--ABnlR</t>
   </si>
 </sst>
 </file>
@@ -4103,8 +4103,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4954,29 +4954,29 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>682</v>
@@ -5000,7 +5000,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>74</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>76</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>109</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>114</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>115</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>116</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>117</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>118</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>147</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>150</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>161</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>149</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>148</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>153</v>
       </c>
@@ -8457,182 +8457,182 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>920</v>
       </c>
@@ -8972,34 +8972,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>965</v>
       </c>
@@ -9007,22 +9007,22 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>966</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>967</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>968</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>969</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>970</v>
       </c>
@@ -9062,17 +9062,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>971</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>971</v>
       </c>
@@ -9088,17 +9088,17 @@
         <v>861</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>971</v>
       </c>
@@ -9106,79 +9106,79 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>977</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>971</v>
       </c>
@@ -9186,375 +9186,375 @@
         <v>875</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="14" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="6" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="6" t="s">
         <v>866</v>
       </c>
@@ -9640,603 +9640,603 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="12" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="12" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="12" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="12" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="13" t="s">
         <v>952</v>
       </c>
@@ -10331,517 +10331,517 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>1082</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -10857,526 +10857,526 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="10" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="10" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="10" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="10" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="10" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="10" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="10" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="10" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="10" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="10" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="10" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="10" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="10" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="10" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="10" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="10" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="10" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="10" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="10" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="10" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="10" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="10" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="10" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="10" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="10" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="10" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="10" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="10" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="10" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="10" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="10" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="10" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="10" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="10" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="10" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="10" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="10" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="10" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="10" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="10" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="10" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="10" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="10" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="10" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="10" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="10" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="10" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="10" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="10" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="10" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="10" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="10" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="10" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="10" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="10" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="10" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="10" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="10" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="10" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="10" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="10" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="10" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="10" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="10" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="10" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="10" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="10" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="10" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="10" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="10" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="10" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="10" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="10" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="10" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="10" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="10" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="10" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="10" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="10" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="10" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="10" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="10" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="10" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="10" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="10" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
         <v>1180</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="10" t="s">
-        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -11393,810 +11393,810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="20" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C145" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C146" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C147" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C148" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C149" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C150" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C151" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C152" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C153" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C154" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C157" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C158" s="20" t="s">
         <v>15</v>
       </c>
@@ -12229,522 +12229,522 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>967</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="3" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="3" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="3" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="3" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="3" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="3" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="3" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="3" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="3" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="3" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="3" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="3" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="3" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="3" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="3" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="3" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="3" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="3" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="3" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="3" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="3" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="3" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="3" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="3" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="3" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="3" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="3" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="3" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="3" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="3" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="3" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="3" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
         <v>1196</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="3" t="s">
-        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -12761,520 +12761,520 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="17" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="17" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="17" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="17" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="17" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="17" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="17" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="17" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="17" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="17" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>569</v>
       </c>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71C6A9-538A-40EB-A233-597E3A93F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0720B-9B55-4076-9002-95EAC1B89A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1304">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3940,6 +3940,21 @@
   </si>
   <si>
     <t>ud-custom-focus-visible,video-player--play-button--ABnlR</t>
+  </si>
+  <si>
+    <t>wdp-onboardings-inventory-module__closeIcon</t>
+  </si>
+  <si>
+    <t>button--is-type-eight--JgoJ6</t>
+  </si>
+  <si>
+    <t>https://kidoodle.tv/2574/slick-slime-sam/S6E01-making-outfits-and-makeup-for-dolls</t>
+  </si>
+  <si>
+    <t>video-page-jwplayer-wrapper</t>
+  </si>
+  <si>
+    <t>videoAdUiSkipButton</t>
   </si>
 </sst>
 </file>
@@ -8972,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9169,25 +9184,26 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="3" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9195,198 +9211,208 @@
       <c r="B31" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="C36" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="4" t="s">
-        <v>937</v>
+      <c r="C65" s="14" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="14" t="s">
-        <v>942</v>
+      <c r="C66" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>945</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>47</v>
+      <c r="C68" s="14" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="14" t="s">
-        <v>964</v>
+      <c r="C69" s="4" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
@@ -9600,10 +9626,10 @@
     <hyperlink ref="C29" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
     <hyperlink ref="C28" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
     <hyperlink ref="C27" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
-    <hyperlink ref="C45" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
-    <hyperlink ref="C53" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
-    <hyperlink ref="C54" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
-    <hyperlink ref="C66" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
+    <hyperlink ref="C44" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
+    <hyperlink ref="C52" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
+    <hyperlink ref="C53" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
+    <hyperlink ref="C65" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
     <hyperlink ref="C3" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
     <hyperlink ref="C4" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
     <hyperlink ref="C5" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
@@ -10853,8 +10879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A102" sqref="A101:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11393,8 +11419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0720B-9B55-4076-9002-95EAC1B89A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCE8081-CF94-4305-A81B-86597F082222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="2655" windowWidth="20160" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1313">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -2949,18 +2949,12 @@
     <t>btn-play</t>
   </si>
   <si>
-    <t>playResume</t>
-  </si>
-  <si>
     <t>playkit-pre-playback-play-button</t>
   </si>
   <si>
     <t>image-inside</t>
   </si>
   <si>
-    <t>vjs-big-play-button</t>
-  </si>
-  <si>
     <t>https://www.91fm.co.il/</t>
   </si>
   <si>
@@ -2973,9 +2967,6 @@
     <t>css-sor8t7</t>
   </si>
   <si>
-    <t>fp-play</t>
-  </si>
-  <si>
     <t>jwplayer</t>
   </si>
   <si>
@@ -3939,9 +3930,6 @@
     <t>CybotCookiebotDialogBodyLevelButtonAccept,vjs-big-play-button</t>
   </si>
   <si>
-    <t>ud-custom-focus-visible,video-player--play-button--ABnlR</t>
-  </si>
-  <si>
     <t>wdp-onboardings-inventory-module__closeIcon</t>
   </si>
   <si>
@@ -3955,6 +3943,45 @@
   </si>
   <si>
     <t>videoAdUiSkipButton</t>
+  </si>
+  <si>
+    <t>iconKnsPlay</t>
+  </si>
+  <si>
+    <t>Cookies_CookiesPopin_button,Cookies_CookiesSettings_footer</t>
+  </si>
+  <si>
+    <t>CybotCookiebotDialogBodyLevelButtonLevelOptinAllowAll</t>
+  </si>
+  <si>
+    <t>ud-custom-focus-visible</t>
+  </si>
+  <si>
+    <t>sp_choice_type_11</t>
+  </si>
+  <si>
+    <t>didomi-notice-agree-button</t>
+  </si>
+  <si>
+    <t>cmptxt_btn_yes</t>
+  </si>
+  <si>
+    <t>PlayButton-base</t>
+  </si>
+  <si>
+    <t>save-preference-btn-handler</t>
+  </si>
+  <si>
+    <t>play-arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayButton_module_playButton__d1afd73a </t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/world/2025/apr/24/india-pakistan-summons-kashmir-attack</t>
+  </si>
+  <si>
+    <t>sp_choice_type_11,play-icon</t>
   </si>
 </sst>
 </file>
@@ -4026,7 +4053,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4057,6 +4084,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4071,7 +4104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4114,6 +4147,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4988,10 +5024,10 @@
         <v>681</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>682</v>
@@ -6425,7 +6461,7 @@
         <v>901</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>627</v>
@@ -6458,7 +6494,7 @@
         <v>902</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>628</v>
@@ -8985,28 +9021,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9046,11 +9082,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>854</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9058,7 +9092,7 @@
         <v>968</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9066,522 +9100,538 @@
         <v>969</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>970</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>857</v>
+        <v>977</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
-        <v>980</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>971</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>971</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" t="s">
+        <v>978</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="15" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>981</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>883</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>973</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>1296</v>
+        <v>973</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>975</v>
-      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="3" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>976</v>
+        <v>1303</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>1298</v>
+      <c r="B26" s="19" t="s">
+        <v>1295</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>1299</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
       <c r="C29" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>974</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>977</v>
+      <c r="B31" s="19" t="s">
+        <v>1296</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>1300</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="C35" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="C36" s="3" t="s">
-        <v>896</v>
+      <c r="A36" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>1303</v>
-      </c>
       <c r="B37" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
-        <v>900</v>
+      <c r="C40" s="3" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
-        <v>901</v>
+      <c r="C41" s="3" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>902</v>
+      <c r="C42" s="3" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>903</v>
+      <c r="B43" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>905</v>
+      <c r="B44" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>906</v>
+      <c r="B45" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
-        <v>907</v>
+      <c r="C46" s="3" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
-        <v>909</v>
+      <c r="C47" s="3" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+      <c r="B48" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>1312</v>
+      </c>
       <c r="C56" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="4" t="s">
         <v>937</v>
       </c>
     </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="14" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>945</v>
+      </c>
+    </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="14" t="s">
-        <v>942</v>
+      <c r="C65" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>945</v>
+      <c r="C66" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>47</v>
+      <c r="C67" s="11" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="14" t="s">
-        <v>964</v>
+      <c r="C68" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="4" t="s">
-        <v>1301</v>
+      <c r="C69" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>13</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
-        <v>571</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
-        <v>3</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
-        <v>12</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
-        <v>574</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C93" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="11" t="s">
         <v>580</v>
       </c>
     </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="24" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
+        <v>888</v>
+      </c>
+    </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
-        <v>925</v>
+      <c r="C97" s="24" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="6" t="s">
-        <v>888</v>
+      <c r="C98" s="24" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="6" t="s">
-        <v>921</v>
+      <c r="C99" s="24" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="6" t="s">
-        <v>889</v>
+      <c r="C100" s="24" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="6" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="6" t="s">
+      <c r="C101" s="24" t="s">
         <v>866</v>
       </c>
     </row>
@@ -9589,69 +9639,69 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="C70" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="C71" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="C72" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="C73" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="C74" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="C75" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="C76" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="C77" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="C78" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="C79" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="C80" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="C81" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="C82" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="C83" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="C84" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="C85" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="C86" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="C93" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="C95" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="C96" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="C88" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="C89" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="C90" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="C91" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="C92" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="C94" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="C87" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="C101" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="C98" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="C100" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
-    <hyperlink ref="C26" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
-    <hyperlink ref="C23" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
-    <hyperlink ref="C32" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
-    <hyperlink ref="C30" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
-    <hyperlink ref="C29" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
-    <hyperlink ref="C27" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
-    <hyperlink ref="C44" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
-    <hyperlink ref="C52" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
-    <hyperlink ref="C53" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
-    <hyperlink ref="C65" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
+    <hyperlink ref="C67" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="C68" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="C69" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="C70" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="C71" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="C72" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="C73" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="C74" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="C75" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="C76" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="C77" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="C78" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="C79" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="C80" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="C81" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="C82" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="C83" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="C90" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="C92" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="C93" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="C85" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="C86" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="C87" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="C88" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="C89" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="C91" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="C84" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="C99" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="C96" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="C98" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="C25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
+    <hyperlink ref="C31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
+    <hyperlink ref="C29" r:id="rId36" xr:uid="{3AA7A5CF-B505-44C6-B893-17E7769A7128}"/>
+    <hyperlink ref="C28" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
+    <hyperlink ref="C27" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
+    <hyperlink ref="C26" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
+    <hyperlink ref="C43" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
+    <hyperlink ref="C51" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
+    <hyperlink ref="C52" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
+    <hyperlink ref="C63" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
     <hyperlink ref="C3" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
     <hyperlink ref="C4" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
     <hyperlink ref="C5" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
     <hyperlink ref="C7" r:id="rId47" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
-    <hyperlink ref="C8" r:id="rId48" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
-    <hyperlink ref="C9" r:id="rId49" xr:uid="{7C313490-E377-4F1D-B99E-AA798B85C141}"/>
-    <hyperlink ref="C10" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
-    <hyperlink ref="C11" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
-    <hyperlink ref="C12" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
-    <hyperlink ref="C14" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
-    <hyperlink ref="C15" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
-    <hyperlink ref="C16" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
-    <hyperlink ref="C17" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
-    <hyperlink ref="C18" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C103" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
-    <hyperlink ref="C19" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
-    <hyperlink ref="C24" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="C20" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
-    <hyperlink ref="C21" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C25" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="C31" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
-    <hyperlink ref="C13" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C94" r:id="rId48" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
+    <hyperlink ref="C8" r:id="rId49" xr:uid="{7C313490-E377-4F1D-B99E-AA798B85C141}"/>
+    <hyperlink ref="C9" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
+    <hyperlink ref="C10" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
+    <hyperlink ref="C11" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
+    <hyperlink ref="C13" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
+    <hyperlink ref="C14" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
+    <hyperlink ref="C15" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
+    <hyperlink ref="C16" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
+    <hyperlink ref="C17" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
+    <hyperlink ref="C101" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C18" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
+    <hyperlink ref="C23" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
+    <hyperlink ref="C19" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
+    <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="C24" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="C30" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="C12" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId66"/>
@@ -9670,13 +9720,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,7 +9736,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>940</v>
@@ -9889,7 +9939,7 @@
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
@@ -9899,7 +9949,7 @@
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
@@ -10361,513 +10411,513 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -10887,522 +10937,522 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="10" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="10" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="10" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="10" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="10" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="10" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="10" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="10" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="10" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="10" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="10" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="10" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="10" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="10" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="10" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="10" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="10" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="10" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="10" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="10" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="10" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="10" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="10" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="10" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="10" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="10" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="10" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="10" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="10" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="10" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="10" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="10" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="10" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="10" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="10" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="10" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="10" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="10" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="10" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="10" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="10" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="10" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="10" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="10" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="10" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="10" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="10" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -11427,33 +11477,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="20" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>16</v>
@@ -12211,10 +12261,10 @@
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -12262,21 +12312,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12284,493 +12334,493 @@
         <v>967</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -12796,13 +12846,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCE8081-CF94-4305-A81B-86597F082222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C12322-725B-4998-B302-F023D0C0E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="2655" windowWidth="20160" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
-    <sheet name="Video Str." sheetId="17" r:id="rId2"/>
-    <sheet name="Audio Str." sheetId="18" r:id="rId3"/>
-    <sheet name="Browsing" sheetId="20" r:id="rId4"/>
-    <sheet name="Cloud" sheetId="21" r:id="rId5"/>
-    <sheet name="Download" sheetId="22" r:id="rId6"/>
-    <sheet name="Games" sheetId="23" r:id="rId7"/>
-    <sheet name="VOIP" sheetId="19" r:id="rId8"/>
+    <sheet name="Mail" sheetId="25" r:id="rId2"/>
+    <sheet name="Chat" sheetId="24" r:id="rId3"/>
+    <sheet name="Video Str." sheetId="17" r:id="rId4"/>
+    <sheet name="Audio Str." sheetId="18" r:id="rId5"/>
+    <sheet name="Browsing" sheetId="20" r:id="rId6"/>
+    <sheet name="Cloud" sheetId="21" r:id="rId7"/>
+    <sheet name="Download" sheetId="22" r:id="rId8"/>
+    <sheet name="Games" sheetId="23" r:id="rId9"/>
+    <sheet name="VOIP" sheetId="19" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1505">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3982,6 +3984,582 @@
   </si>
   <si>
     <t>sp_choice_type_11,play-icon</t>
+  </si>
+  <si>
+    <t>https://mail.google.com</t>
+  </si>
+  <si>
+    <t>https://outlook.live.com</t>
+  </si>
+  <si>
+    <t>https://mail.yahoo.com</t>
+  </si>
+  <si>
+    <t>https://mail.aol.com</t>
+  </si>
+  <si>
+    <t>https://mail.proton.me</t>
+  </si>
+  <si>
+    <t>https://mail.zoho.com</t>
+  </si>
+  <si>
+    <t>https://www.gmx.com</t>
+  </si>
+  <si>
+    <t>https://mail.yandex.com</t>
+  </si>
+  <si>
+    <t>https://www.icloud.com/mail</t>
+  </si>
+  <si>
+    <t>https://www.mail.com</t>
+  </si>
+  <si>
+    <t>https://mail.tutanota.com</t>
+  </si>
+  <si>
+    <t>https://mail.ru</t>
+  </si>
+  <si>
+    <t>https://email.seznam.cz</t>
+  </si>
+  <si>
+    <t>https://email.o2.pl</t>
+  </si>
+  <si>
+    <t>https://poczta.wp.pl</t>
+  </si>
+  <si>
+    <t>https://poczta.interia.pl</t>
+  </si>
+  <si>
+    <t>https://mail.libero.it</t>
+  </si>
+  <si>
+    <t>https://mail.virgilio.it</t>
+  </si>
+  <si>
+    <t>https://mail.tiscali.it</t>
+  </si>
+  <si>
+    <t>https://mail.sapo.pt</t>
+  </si>
+  <si>
+    <t>https://email.azet.sk</t>
+  </si>
+  <si>
+    <t>https://mail.abv.bg</t>
+  </si>
+  <si>
+    <t>https://mail.dir.bg</t>
+  </si>
+  <si>
+    <t>https://mail.bg</t>
+  </si>
+  <si>
+    <t>https://mail.ukr.net</t>
+  </si>
+  <si>
+    <t>https://i.ua</t>
+  </si>
+  <si>
+    <t>https://meta.ua</t>
+  </si>
+  <si>
+    <t>https://mail.rambler.ru</t>
+  </si>
+  <si>
+    <t>https://www.hushmail.com</t>
+  </si>
+  <si>
+    <t>https://mailbox.org</t>
+  </si>
+  <si>
+    <t>https://mailfence.com</t>
+  </si>
+  <si>
+    <t>https://mail.rediff.com</t>
+  </si>
+  <si>
+    <t>https://mail.lycos.com</t>
+  </si>
+  <si>
+    <t>https://mail.sina.com.cn</t>
+  </si>
+  <si>
+    <t>https://mail.163.com</t>
+  </si>
+  <si>
+    <t>https://www.126.com</t>
+  </si>
+  <si>
+    <t>https://mail.sohu.com</t>
+  </si>
+  <si>
+    <t>https://mail.tom.com</t>
+  </si>
+  <si>
+    <t>https://www.yeah.net</t>
+  </si>
+  <si>
+    <t>https://mail.qq.com</t>
+  </si>
+  <si>
+    <t>https://www.foxmail.com</t>
+  </si>
+  <si>
+    <t>https://mail.naver.com</t>
+  </si>
+  <si>
+    <t>https://mail.daum.net</t>
+  </si>
+  <si>
+    <t>https://mail.excite.com</t>
+  </si>
+  <si>
+    <t>https://bluewin.ch</t>
+  </si>
+  <si>
+    <t>https://poczta.onet.pl</t>
+  </si>
+  <si>
+    <t>https://email.cz</t>
+  </si>
+  <si>
+    <t>https://email.atlas.cz</t>
+  </si>
+  <si>
+    <t>https://email.volny.cz</t>
+  </si>
+  <si>
+    <t>https://mail.india.com</t>
+  </si>
+  <si>
+    <t>https://mail.zapak.com</t>
+  </si>
+  <si>
+    <t>https://webmail.bigpond.com</t>
+  </si>
+  <si>
+    <t>https://webmail.optusnet.com.au</t>
+  </si>
+  <si>
+    <t>https://www.mail2world.com</t>
+  </si>
+  <si>
+    <t>https://www.inbox.lv</t>
+  </si>
+  <si>
+    <t>https://disroot.org</t>
+  </si>
+  <si>
+    <t>https://riseup.net</t>
+  </si>
+  <si>
+    <t>https://autistici.org</t>
+  </si>
+  <si>
+    <t>https://temp-mail.org</t>
+  </si>
+  <si>
+    <t>https://www.guerrillamail.com</t>
+  </si>
+  <si>
+    <t>https://getnada.com</t>
+  </si>
+  <si>
+    <t>https://burnermail.io</t>
+  </si>
+  <si>
+    <t>https://www.trashmail.com</t>
+  </si>
+  <si>
+    <t>https://tempmail.net</t>
+  </si>
+  <si>
+    <t>https://www.bulc.club</t>
+  </si>
+  <si>
+    <t>https://manyme.com</t>
+  </si>
+  <si>
+    <t>https://moakt.com</t>
+  </si>
+  <si>
+    <t>https://emailondeck.com</t>
+  </si>
+  <si>
+    <t>https://generator.email</t>
+  </si>
+  <si>
+    <t>https://mail.tm</t>
+  </si>
+  <si>
+    <t>https://temp-mail.io</t>
+  </si>
+  <si>
+    <t>https://temp-mail.ru</t>
+  </si>
+  <si>
+    <t>https://temp-mail.de</t>
+  </si>
+  <si>
+    <t>https://temp-mail.fr</t>
+  </si>
+  <si>
+    <t>https://temp-mail.it</t>
+  </si>
+  <si>
+    <t>https://temp-mail.es</t>
+  </si>
+  <si>
+    <t>https://temp-mail.pl</t>
+  </si>
+  <si>
+    <t>https://temp-mail.co</t>
+  </si>
+  <si>
+    <t>https://temp-mail.app</t>
+  </si>
+  <si>
+    <t>https://temp-mail.online</t>
+  </si>
+  <si>
+    <t>https://temp-mail.xyz</t>
+  </si>
+  <si>
+    <t>https://temp-mail.pro</t>
+  </si>
+  <si>
+    <t>https://www.throwawaymail.com</t>
+  </si>
+  <si>
+    <t>https://www.fakemailgenerator.com</t>
+  </si>
+  <si>
+    <t>https://mytemp.email</t>
+  </si>
+  <si>
+    <t>https://tempmailaddress.com</t>
+  </si>
+  <si>
+    <t>https://0-mail.com</t>
+  </si>
+  <si>
+    <t>https://0815.ru</t>
+  </si>
+  <si>
+    <t>https://10minutemail.net</t>
+  </si>
+  <si>
+    <t>https://123-m.com</t>
+  </si>
+  <si>
+    <t>https://1ce.us</t>
+  </si>
+  <si>
+    <t>https://tempail.com</t>
+  </si>
+  <si>
+    <t>https://www.laposte.net</t>
+  </si>
+  <si>
+    <t>https://www.inbox.com</t>
+  </si>
+  <si>
+    <t>https://www.email.it</t>
+  </si>
+  <si>
+    <t>https://www.web.de</t>
+  </si>
+  <si>
+    <t>https://www.freenet.de</t>
+  </si>
+  <si>
+    <t>https://www.cock.li</t>
+  </si>
+  <si>
+    <t>https://mail.terra.com.br</t>
+  </si>
+  <si>
+    <t>https://www.mailbox.org</t>
+  </si>
+  <si>
+    <t>https://web.whatsapp.com</t>
+  </si>
+  <si>
+    <t>https://messenger.com</t>
+  </si>
+  <si>
+    <t>https://web.telegram.org</t>
+  </si>
+  <si>
+    <t>https://skype.com</t>
+  </si>
+  <si>
+    <t>https://slack.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com</t>
+  </si>
+  <si>
+    <t>https://chat.google.com</t>
+  </si>
+  <si>
+    <t>https://web.wechat.com</t>
+  </si>
+  <si>
+    <t>https://icq.com</t>
+  </si>
+  <si>
+    <t>https://matrix.org</t>
+  </si>
+  <si>
+    <t>https://jitsi.org</t>
+  </si>
+  <si>
+    <t>https://zulip.com</t>
+  </si>
+  <si>
+    <t>https://mattermost.com</t>
+  </si>
+  <si>
+    <t>https://flock.com</t>
+  </si>
+  <si>
+    <t>https://twist.com</t>
+  </si>
+  <si>
+    <t>https://chatzy.com</t>
+  </si>
+  <si>
+    <t>https://chatiw.com</t>
+  </si>
+  <si>
+    <t>https://321chat.com</t>
+  </si>
+  <si>
+    <t>https://talkwithstranger.com</t>
+  </si>
+  <si>
+    <t>https://strangermeetup.com</t>
+  </si>
+  <si>
+    <t>https://chatblink.com</t>
+  </si>
+  <si>
+    <t>https://emeraldchat.com</t>
+  </si>
+  <si>
+    <t>https://antichat.me</t>
+  </si>
+  <si>
+    <t>https://wireclub.com</t>
+  </si>
+  <si>
+    <t>https://teen-chat.org</t>
+  </si>
+  <si>
+    <t>https://kidschat.net</t>
+  </si>
+  <si>
+    <t>https://spinchat.com</t>
+  </si>
+  <si>
+    <t>https://yesichat.com</t>
+  </si>
+  <si>
+    <t>https://all4masti.com</t>
+  </si>
+  <si>
+    <t>https://chatogo.com</t>
+  </si>
+  <si>
+    <t>https://chatkaro.in</t>
+  </si>
+  <si>
+    <t>https://ukchat.com</t>
+  </si>
+  <si>
+    <t>https://usa-chat.com</t>
+  </si>
+  <si>
+    <t>https://india-chat.com</t>
+  </si>
+  <si>
+    <t>https://pakichat.net</t>
+  </si>
+  <si>
+    <t>https://chatliv.com</t>
+  </si>
+  <si>
+    <t>https://mnogochat.com</t>
+  </si>
+  <si>
+    <t>https://shagle.com</t>
+  </si>
+  <si>
+    <t>https://camfrog.com</t>
+  </si>
+  <si>
+    <t>https://tinychat.com</t>
+  </si>
+  <si>
+    <t>https://paltalk.com</t>
+  </si>
+  <si>
+    <t>https://badoo.com</t>
+  </si>
+  <si>
+    <t>https://meetme.com</t>
+  </si>
+  <si>
+    <t>https://hi5.com</t>
+  </si>
+  <si>
+    <t>https://tagged.com</t>
+  </si>
+  <si>
+    <t>https://myspace.com</t>
+  </si>
+  <si>
+    <t>https://vk.com</t>
+  </si>
+  <si>
+    <t>https://ok.ru</t>
+  </si>
+  <si>
+    <t>https://qzone.qq.com</t>
+  </si>
+  <si>
+    <t>https://renren.com</t>
+  </si>
+  <si>
+    <t>https://bebo.com</t>
+  </si>
+  <si>
+    <t>https://friendster.com</t>
+  </si>
+  <si>
+    <t>https://x.com</t>
+  </si>
+  <si>
+    <t>https://instagram.com</t>
+  </si>
+  <si>
+    <t>https://snapchat.com</t>
+  </si>
+  <si>
+    <t>https://reddit.com</t>
+  </si>
+  <si>
+    <t>https://tumblr.com</t>
+  </si>
+  <si>
+    <t>https://linkedin.com</t>
+  </si>
+  <si>
+    <t>https://quora.com</t>
+  </si>
+  <si>
+    <t>https://medium.com</t>
+  </si>
+  <si>
+    <t>https://pinterest.com</t>
+  </si>
+  <si>
+    <t>https://goodreads.com</t>
+  </si>
+  <si>
+    <t>https://deviantart.com</t>
+  </si>
+  <si>
+    <t>https://flickr.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com</t>
+  </si>
+  <si>
+    <t>https://twitch.tv</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com</t>
+  </si>
+  <si>
+    <t>https://epicgames.com</t>
+  </si>
+  <si>
+    <t>https://roblox.com</t>
+  </si>
+  <si>
+    <t>https://minecraft.net</t>
+  </si>
+  <si>
+    <t>https://battle.net</t>
+  </si>
+  <si>
+    <t>https://origin.com</t>
+  </si>
+  <si>
+    <t>https://playstation.com</t>
+  </si>
+  <si>
+    <t>https://xbox.com</t>
+  </si>
+  <si>
+    <t>https://guilded.gg</t>
+  </si>
+  <si>
+    <t>https://band.us</t>
+  </si>
+  <si>
+    <t>https://nextdoor.com</t>
+  </si>
+  <si>
+    <t>https://couchsurfing.com</t>
+  </si>
+  <si>
+    <t>https://meetup.com</t>
+  </si>
+  <si>
+    <t>https://interpals.net</t>
+  </si>
+  <si>
+    <t>https://penpalworld.com</t>
+  </si>
+  <si>
+    <t>https://lang-8.com</t>
+  </si>
+  <si>
+    <t>https://hellotalk.com</t>
+  </si>
+  <si>
+    <t>https://tandem.net</t>
+  </si>
+  <si>
+    <t>https://slowly.app</t>
+  </si>
+  <si>
+    <t>https://omegle.com</t>
+  </si>
+  <si>
+    <t>https://chatroulette.com</t>
+  </si>
+  <si>
+    <t>https://chathub.cam</t>
+  </si>
+  <si>
+    <t>https://coomeet.com</t>
+  </si>
+  <si>
+    <t>https://bazoo.cam</t>
+  </si>
+  <si>
+    <t>https://monkey.app</t>
+  </si>
+  <si>
+    <t>https://holla.world</t>
   </si>
 </sst>
 </file>
@@ -4196,14 +4774,14 @@
       <sheetName val="Cloud"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>mail.google.com</v>
@@ -4705,10 +5283,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5002,7 +5580,7 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9019,12 +9597,1576 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB5F57-9A03-4145-8201-5FC47AB315FD}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B00D6D-F8EE-49C3-8560-55C57AAB910F}">
+  <dimension ref="C2:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{646957ED-0A75-459A-99B7-3F1A0DCFE246}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1E4A5E-4F4A-42BF-A0ED-2DBBEBD83C84}">
+  <dimension ref="C2:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="5" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="5" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="5" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="5" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="5" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="5" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="5" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="5" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="5" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="5" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="5" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="5" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9708,7 +11850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C118"/>
   <sheetViews>
@@ -10399,7 +12541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A2EFD-A127-47E5-B375-5235669A0921}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -10925,7 +13067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
   <dimension ref="A1:C102"/>
   <sheetViews>
@@ -11465,7 +13607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:C158"/>
   <sheetViews>
@@ -12297,7 +14439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2D1A5-2BF6-4BAC-B823-F864749CEE0B}">
   <dimension ref="A1:C99"/>
   <sheetViews>
@@ -12827,535 +14969,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABB5F57-9A03-4145-8201-5FC47AB315FD}">
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="17" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="17" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C12322-725B-4998-B302-F023D0C0E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC31D83-D17E-40CC-A59C-B2756C5BAC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="3885" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1508">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3914,9 +3914,6 @@
     <t>app-btn-primary</t>
   </si>
   <si>
-    <t>css-19qwy7b</t>
-  </si>
-  <si>
     <t>קישור</t>
   </si>
   <si>
@@ -3959,15 +3956,9 @@
     <t>ud-custom-focus-visible</t>
   </si>
   <si>
-    <t>sp_choice_type_11</t>
-  </si>
-  <si>
     <t>didomi-notice-agree-button</t>
   </si>
   <si>
-    <t>cmptxt_btn_yes</t>
-  </si>
-  <si>
     <t>PlayButton-base</t>
   </si>
   <si>
@@ -4560,6 +4551,24 @@
   </si>
   <si>
     <t>https://holla.world</t>
+  </si>
+  <si>
+    <t>wobbly-bouncy</t>
+  </si>
+  <si>
+    <t>https://www.nick.co.il/brand/4</t>
+  </si>
+  <si>
+    <t>popup__close</t>
+  </si>
+  <si>
+    <t>https://www.pbs.org/newshour/show/what-to-know-about-the-start-of-negotiations-between-iran-and-the-u-s-under-trump</t>
+  </si>
+  <si>
+    <t>gdpr-btn-accept-all,css-19qwy7b</t>
+  </si>
+  <si>
+    <t>https://www.retrocrush.tv/watch/1000000012595/title1?vod_type=</t>
   </si>
 </sst>
 </file>
@@ -9614,13 +9623,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,515 +10141,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B00D6D-F8EE-49C3-8560-55C57AAB910F}">
   <dimension ref="C2:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{646957ED-0A75-459A-99B7-3F1A0DCFE246}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{51AF03CB-8730-4798-8C6C-9AD72FFC79D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10658,7 +10668,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
@@ -10668,42 +10678,42 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -10718,7 +10728,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -10728,12 +10738,12 @@
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -10743,417 +10753,417 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -11165,8 +11175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11178,13 +11188,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11226,7 +11236,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
-        <v>855</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11307,7 +11317,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>971</v>
@@ -11315,7 +11325,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>884</v>
@@ -11337,7 +11347,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>886</v>
@@ -11345,7 +11355,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>873</v>
@@ -11357,9 +11367,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="19" t="s">
+        <v>1504</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>875</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11377,7 +11389,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>881</v>
@@ -11406,10 +11418,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>897</v>
@@ -11417,7 +11429,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>898</v>
@@ -11425,7 +11437,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>899</v>
@@ -11438,7 +11450,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>901</v>
@@ -11455,283 +11467,281 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>1304</v>
+      <c r="B43" s="19" t="s">
+        <v>1303</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>1305</v>
-      </c>
+      <c r="B44" s="19"/>
       <c r="C44" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>1306</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>1304</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+      <c r="C52" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
         <v>1307</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="C53" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
-        <v>927</v>
-      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>1312</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>1311</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
-        <v>937</v>
+      <c r="C62" s="14" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="14" t="s">
-        <v>942</v>
+      <c r="C63" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
-        <v>577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="11" t="s">
-        <v>582</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="s">
-        <v>8</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="11" t="s">
-        <v>580</v>
+      <c r="C93" s="23" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -11781,33 +11791,33 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="C67" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="C68" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="C69" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="C70" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="C71" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="C72" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="C73" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="C74" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="C75" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="C76" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="C77" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="C78" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="C79" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="C80" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="C81" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="C82" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="C83" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="C90" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="C92" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="C93" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="C85" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="C86" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="C87" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="C88" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="C89" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="C91" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="C84" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="C66" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="C67" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="C68" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="C69" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="C70" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="C71" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="C72" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="C73" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="C74" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="C75" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="C76" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="C77" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="C78" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="C79" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="C80" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="C81" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="C82" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="C89" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="C91" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="C92" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="C84" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="C85" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="C86" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="C87" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="C88" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="C90" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="C83" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
     <hyperlink ref="C99" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
     <hyperlink ref="C96" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
     <hyperlink ref="C98" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
@@ -11818,275 +11828,277 @@
     <hyperlink ref="C28" r:id="rId37" xr:uid="{A909ADB7-CEAD-42D0-A603-27F0770BE8C3}"/>
     <hyperlink ref="C27" r:id="rId38" xr:uid="{F78CBC05-5B14-4AA7-B598-DD10E598E62C}"/>
     <hyperlink ref="C26" r:id="rId39" xr:uid="{64BB6B90-35D6-4257-B2DA-47F4C4A3F1A6}"/>
-    <hyperlink ref="C43" r:id="rId40" display="https://us.napster.com" xr:uid="{8D4CC52A-5608-4E3B-91EB-0108BFDB50DA}"/>
-    <hyperlink ref="C51" r:id="rId41" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
-    <hyperlink ref="C52" r:id="rId42" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
-    <hyperlink ref="C63" r:id="rId43" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
-    <hyperlink ref="C3" r:id="rId44" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
-    <hyperlink ref="C4" r:id="rId45" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
-    <hyperlink ref="C5" r:id="rId46" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
-    <hyperlink ref="C7" r:id="rId47" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
-    <hyperlink ref="C94" r:id="rId48" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
-    <hyperlink ref="C8" r:id="rId49" xr:uid="{7C313490-E377-4F1D-B99E-AA798B85C141}"/>
-    <hyperlink ref="C9" r:id="rId50" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
-    <hyperlink ref="C10" r:id="rId51" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
-    <hyperlink ref="C11" r:id="rId52" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
-    <hyperlink ref="C13" r:id="rId53" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
-    <hyperlink ref="C14" r:id="rId54" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
-    <hyperlink ref="C15" r:id="rId55" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
-    <hyperlink ref="C16" r:id="rId56" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
-    <hyperlink ref="C17" r:id="rId57" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C101" r:id="rId58" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
-    <hyperlink ref="C18" r:id="rId59" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
-    <hyperlink ref="C23" r:id="rId60" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="C19" r:id="rId61" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
-    <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C24" r:id="rId63" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="C30" r:id="rId64" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
-    <hyperlink ref="C12" r:id="rId65" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C50" r:id="rId40" display="https://www.qobuz.com" xr:uid="{CF85F663-80AF-4379-A9D4-E9C587191167}"/>
+    <hyperlink ref="C51" r:id="rId41" display="https://www.idagio.com" xr:uid="{2D48925F-EE1F-4C7D-919B-E473FEC0D720}"/>
+    <hyperlink ref="C62" r:id="rId42" display="https://calmradio.com" xr:uid="{BC594D33-E72A-4BA5-B0B0-E3E7A0CCFD31}"/>
+    <hyperlink ref="C3" r:id="rId43" xr:uid="{62E92066-B899-4BDD-A157-2DB8A685F38B}"/>
+    <hyperlink ref="C4" r:id="rId44" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
+    <hyperlink ref="C5" r:id="rId45" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
+    <hyperlink ref="C7" r:id="rId46" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
+    <hyperlink ref="C94" r:id="rId47" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
+    <hyperlink ref="C9" r:id="rId48" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
+    <hyperlink ref="C10" r:id="rId49" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
+    <hyperlink ref="C11" r:id="rId50" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
+    <hyperlink ref="C13" r:id="rId51" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
+    <hyperlink ref="C14" r:id="rId52" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
+    <hyperlink ref="C15" r:id="rId53" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
+    <hyperlink ref="C16" r:id="rId54" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
+    <hyperlink ref="C17" r:id="rId55" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
+    <hyperlink ref="C101" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C18" r:id="rId57" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
+    <hyperlink ref="C23" r:id="rId58" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
+    <hyperlink ref="C19" r:id="rId59" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
+    <hyperlink ref="C20" r:id="rId60" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="C24" r:id="rId61" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="C30" r:id="rId62" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="C12" r:id="rId63" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>1506</v>
+      </c>
       <c r="C2" s="10" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>1289</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
-        <v>957</v>
+      <c r="C20" s="2" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>923</v>
+      <c r="C21" s="10" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>961</v>
+      <c r="C25" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>929</v>
+        <v>882</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>868</v>
+      <c r="C42" s="16" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>970</v>
+      <c r="C43" s="10" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
@@ -12094,7 +12106,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>699</v>
       </c>
@@ -12459,9 +12471,14 @@
         <v>952</v>
       </c>
     </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
+    <hyperlink ref="C44" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
     <hyperlink ref="C108" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
     <hyperlink ref="C109" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
     <hyperlink ref="C110" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
@@ -12532,7 +12549,7 @@
     <hyperlink ref="C95" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
     <hyperlink ref="C96" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
     <hyperlink ref="C97" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="C21" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C20" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
     <hyperlink ref="C117" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
     <hyperlink ref="C116" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
   </hyperlinks>
@@ -12553,13 +12570,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13079,13 +13096,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13619,13 +13636,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14454,13 +14471,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C12322-725B-4998-B302-F023D0C0E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A666C-1988-4F9B-ACE5-69243EAF30AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1554">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3596,9 +3596,6 @@
     <t>https://sample-videos.com/download-sample-pdf.php</t>
   </si>
   <si>
-    <t>https://www.learningcontainer.com/sample-pdf-files-for-testing/</t>
-  </si>
-  <si>
     <t>https://docs.google.com/spreadsheets/d/1PD5OUnHWnEzhfPl4h1mZCReWYjJOCx34FqbZonOEgs4/export?format=pdf</t>
   </si>
   <si>
@@ -3608,9 +3605,6 @@
     <t>downloadButtonElement</t>
   </si>
   <si>
-    <t>https://file-examples.com/index.php/sample-documents-download/sample-pdf-download/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.crazygames.com/game/1v1-lol  </t>
   </si>
   <si>
@@ -4560,17 +4554,170 @@
   </si>
   <si>
     <t>https://holla.world</t>
+  </si>
+  <si>
+    <t>https://www.4s.io/video/ur3-GeYPge/SpacePowerFancom_Dragon_Ball_S.html</t>
+  </si>
+  <si>
+    <t>jsDownloadButtonNew</t>
+  </si>
+  <si>
+    <t>https://almalinux.org/get-almalinux/</t>
+  </si>
+  <si>
+    <t>itemAl_01</t>
+  </si>
+  <si>
+    <t>https://www.learningcontainer.com/download/sample-pdf-file-for-testing/</t>
+  </si>
+  <si>
+    <t>download-on-click</t>
+  </si>
+  <si>
+    <t>https://file-examples.com/index.php/sample-video-files/sample-avi-files-download/</t>
+  </si>
+  <si>
+    <t>download-button</t>
+  </si>
+  <si>
+    <t>https://apkpure.com/apkpure/com.apkpure.aegon/download?from=profile&amp;icn=aegon&amp;ici=image_profile&amp;refapk=com.footballlifesimulator&amp;utm_content=1017</t>
+  </si>
+  <si>
+    <t>btn download-start-btn</t>
+  </si>
+  <si>
+    <t>song-download</t>
+  </si>
+  <si>
+    <t>https://archiveofourown.org/works/14794619</t>
+  </si>
+  <si>
+    <t>https://www.chip.de/downloads/MEmu_92550678.html</t>
+  </si>
+  <si>
+    <t>Download Button</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>js-download-btn</t>
+  </si>
+  <si>
+    <t>https://download.cnet.com/ccleaner/3001-18512_4-10315544.html?dt=externalDownload</t>
+  </si>
+  <si>
+    <t>https://www.downloadcrew.com/article/25727/firefox_beta</t>
+  </si>
+  <si>
+    <t>Windows32</t>
+  </si>
+  <si>
+    <t>material-button</t>
+  </si>
+  <si>
+    <t>js-button-lag-text</t>
+  </si>
+  <si>
+    <t>https://filehippo.com/download_avast-secure-browser/#google_vignette</t>
+  </si>
+  <si>
+    <t>https://www.filehorse.com/download-lookeen/download/</t>
+  </si>
+  <si>
+    <t>btn_free_download</t>
+  </si>
+  <si>
+    <t>download_button</t>
+  </si>
+  <si>
+    <t>https://www.freeimages.com/download/chinese-dragon-zodiac-png-5690513</t>
+  </si>
+  <si>
+    <t>https://freesvg.org/lion-v</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>https://www.fosshub.com/1by1.html</t>
+  </si>
+  <si>
+    <t>https://gamejolt.com/app</t>
+  </si>
+  <si>
+    <t>jolticon</t>
+  </si>
+  <si>
+    <t>prc-ActionList-ItemLabel-TmBhn</t>
+  </si>
+  <si>
+    <t>https://github.com/google-gemini/gemini-fullstack-langgraph-quickstart</t>
+  </si>
+  <si>
+    <t>x9emld</t>
+  </si>
+  <si>
+    <t>https://www.google.co.il/books/edition/Laboratory_Animals/Gmz1UmK4RqgC?hl=iw&amp;gbpv=0&amp;kptab=overview</t>
+  </si>
+  <si>
+    <t>https://fonts.google.com/icons?selected=Material+Symbols+Outlined:close:FILL@0;wght@400;GRAD@0;opsz@24&amp;icon.size=24&amp;icon.color=%231f1f1f</t>
+  </si>
+  <si>
+    <t>side-nav-links__content</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>https://www.haiku-os.org/get-haiku/r1beta5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link </t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/ebooks/514</t>
+  </si>
+  <si>
+    <t>download_btn</t>
+  </si>
+  <si>
+    <t>https://itch.io/app</t>
+  </si>
+  <si>
+    <t>https://www.kali.org/get-kali/#kali-installer-images</t>
+  </si>
+  <si>
+    <t>download-card__downloads</t>
+  </si>
+  <si>
+    <t>yui_3_10_3_1_1749228500600_64</t>
+  </si>
+  <si>
+    <t>https://launchpad.net/openshot</t>
+  </si>
+  <si>
+    <t>https://capcut.en.lo4d.com/download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_version ext_version </t>
+  </si>
+  <si>
+    <t>Click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4578,7 +4725,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4586,7 +4733,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4594,7 +4741,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4608,7 +4755,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4630,8 +4777,50 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003300"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF660066"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4668,8 +4857,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE33D3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA365D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4677,12 +4896,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4715,9 +4949,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4730,16 +4961,61 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF66FF66"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFA365D1"/>
+      <color rgb="FFE33D3D"/>
+      <color rgb="FFFAA182"/>
+      <color rgb="FFCC3300"/>
+      <color rgb="FF0033CC"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF660066"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4774,14 +5050,14 @@
       <sheetName val="Cloud"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
             <v>mail.google.com</v>
@@ -5283,10 +5559,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5583,21 +5859,21 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
+    <col min="2" max="2" width="35.296875" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" customWidth="1"/>
+    <col min="6" max="6" width="22.296875" customWidth="1"/>
+    <col min="7" max="7" width="29.296875" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>681</v>
       </c>
@@ -7906,7 +8182,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>61</v>
       </c>
@@ -9605,22 +9881,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,510 +10408,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B00D6D-F8EE-49C3-8560-55C57AAB910F}">
   <dimension ref="C2:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -10654,11 +10930,11 @@
       <selection activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
@@ -10668,42 +10944,42 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -10718,7 +10994,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -10728,12 +11004,12 @@
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -10743,417 +11019,417 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
   </sheetData>
@@ -11169,22 +11445,22 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,7 +11568,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>979</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -11305,9 +11581,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="15" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>971</v>
@@ -11315,7 +11591,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>884</v>
@@ -11337,15 +11613,15 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>1295</v>
+      <c r="B26" s="18" t="s">
+        <v>1293</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>873</v>
@@ -11376,8 +11652,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>1296</v>
+      <c r="B31" s="18" t="s">
+        <v>1294</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>881</v>
@@ -11399,33 +11675,33 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>1298</v>
+      <c r="A36" s="18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>1296</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>1300</v>
+      <c r="B37" s="18" t="s">
+        <v>1298</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>1301</v>
+      <c r="B38" s="18" t="s">
+        <v>1299</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>899</v>
@@ -11437,8 +11713,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>1302</v>
+      <c r="B40" s="18" t="s">
+        <v>1300</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>901</v>
@@ -11456,23 +11732,23 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>1305</v>
+      <c r="B44" s="18" t="s">
+        <v>1303</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>1306</v>
+      <c r="B45" s="18" t="s">
+        <v>1304</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>907</v>
@@ -11489,8 +11765,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>1307</v>
+      <c r="B48" s="18" t="s">
+        <v>1305</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>912</v>
@@ -11502,8 +11778,8 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>1308</v>
+      <c r="B50" s="18" t="s">
+        <v>1306</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>916</v>
@@ -11515,22 +11791,22 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>1309</v>
+      <c r="B52" s="18" t="s">
+        <v>1307</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="3" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>1310</v>
+      <c r="B54" s="18" t="s">
+        <v>1308</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>924</v>
@@ -11542,11 +11818,11 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>1312</v>
+      <c r="B56" s="18" t="s">
+        <v>1310</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -11596,7 +11872,7 @@
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
@@ -11738,42 +12014,42 @@
       <c r="B94" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="22" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="23" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="23" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="23" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="23" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11858,17 +12134,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11877,8 +12153,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>1289</v>
+      <c r="B3" s="20" t="s">
+        <v>1287</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>940</v>
@@ -12549,17 +12825,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13071,31 +13347,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BFD25-E0B7-40BA-906E-CE7722166882}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A102" sqref="A101:XFD102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1181</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -13609,813 +13885,1029 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="144.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C1" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="20" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="34" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="C32" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="30" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="21"/>
+      <c r="C43" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="21"/>
+      <c r="C44" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="21"/>
+      <c r="C51" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="21"/>
+      <c r="C53" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="21"/>
+      <c r="C54" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C56" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="21"/>
+      <c r="C57" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
+      <c r="C58" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+      <c r="C59" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="21"/>
+      <c r="C60" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="21"/>
+      <c r="C61" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="21"/>
+      <c r="C62" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+      <c r="C63" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+      <c r="C65" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
+      <c r="C66" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="21"/>
+      <c r="C67" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
+      <c r="C68" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+      <c r="C69" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="21"/>
+      <c r="C71" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+      <c r="C72" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
+      <c r="C74" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
+      <c r="C75" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="21"/>
+      <c r="C76" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+      <c r="C77" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="21"/>
+      <c r="C78" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="21"/>
+      <c r="C79" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="21"/>
+      <c r="C80" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="21"/>
+      <c r="C81" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="21"/>
+      <c r="C82" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="21"/>
+      <c r="C83" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="21"/>
+      <c r="C84" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+      <c r="C85" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="21"/>
+      <c r="C86" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="21"/>
+      <c r="C87" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="21"/>
+      <c r="C88" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="21"/>
+      <c r="C89" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="21"/>
+      <c r="C90" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="21"/>
+      <c r="C91" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="21"/>
+      <c r="C92" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
+      <c r="C93" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="21"/>
+      <c r="C94" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="21"/>
+      <c r="C95" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="21"/>
+      <c r="C96" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="21"/>
+      <c r="C97" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="21"/>
+      <c r="C98" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="21"/>
+      <c r="C99" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="21"/>
+      <c r="C100" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="21"/>
+      <c r="C101" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="21"/>
+      <c r="C102" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="21"/>
+      <c r="C103" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="21"/>
+      <c r="C104" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="21"/>
+      <c r="C105" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="21"/>
+      <c r="C106" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="21"/>
+      <c r="C107" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="21"/>
+      <c r="C108" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="21"/>
+      <c r="C109" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="21"/>
+      <c r="C110" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="21"/>
+      <c r="C111" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="21"/>
+      <c r="C112" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="21"/>
+      <c r="C113" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="21"/>
+      <c r="C114" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="21"/>
+      <c r="C115" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="21"/>
+      <c r="C116" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="21"/>
+      <c r="C117" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="21"/>
+      <c r="C118" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="21"/>
+      <c r="C119" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="21"/>
+      <c r="C120" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="21"/>
+      <c r="C121" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="21"/>
+      <c r="C122" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="21"/>
+      <c r="C123" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="21"/>
+      <c r="C124" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="21"/>
+      <c r="C125" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="21"/>
+      <c r="C126" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="21"/>
+      <c r="C127" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="21"/>
+      <c r="C128" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="21"/>
+      <c r="C129" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="21"/>
+      <c r="C130" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="21"/>
+      <c r="C131" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="21"/>
+      <c r="C132" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="21"/>
+      <c r="C133" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="21"/>
+      <c r="C134" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="21"/>
+      <c r="C135" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="21"/>
+      <c r="C136" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="21"/>
+      <c r="C137" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="21"/>
+      <c r="C138" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="21"/>
+      <c r="C139" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="21"/>
+      <c r="C140" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="21"/>
+      <c r="C141" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="21"/>
+      <c r="C142" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="21"/>
+      <c r="C143" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="21"/>
+      <c r="C144" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="21"/>
+      <c r="C145" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="21"/>
+      <c r="C146" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="21"/>
+      <c r="C147" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="21"/>
+      <c r="C148" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="21"/>
+      <c r="C149" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="21"/>
+      <c r="C150" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="21"/>
+      <c r="C151" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="21"/>
+      <c r="C152" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="21"/>
+      <c r="C153" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="21"/>
+      <c r="C154" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="21"/>
+      <c r="C155" s="39" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C156" s="40" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="20" t="s">
+      <c r="B157" s="21"/>
+      <c r="C157" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="20" t="s">
+      <c r="B158" s="21"/>
+      <c r="C158" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14428,12 +14920,56 @@
     <hyperlink ref="C5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
     <hyperlink ref="C158" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
     <hyperlink ref="C157" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
-    <hyperlink ref="C156" r:id="rId13" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
+    <hyperlink ref="C156" r:id="rId9" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{2FC526BD-C17D-437A-89AD-2FE28D6023C2}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{795EF266-492D-4C9F-A273-BD6048CB91FF}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{B78E1107-D09B-41CD-9A06-AF7C646D7F34}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{C9C027E3-C537-4F76-8B9F-FC7F498413E7}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{BD32B382-FF07-4779-84A0-8BF88791EE61}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{48ABC56C-60F8-4031-AE13-229847B91E92}"/>
+    <hyperlink ref="C18" r:id="rId20" xr:uid="{DB6A5354-22C6-40D5-9F50-9114BCFEF34E}"/>
+    <hyperlink ref="C19" r:id="rId21" xr:uid="{B5ABA31D-6FB7-4BA6-967E-923B838BEEA4}"/>
+    <hyperlink ref="C20" r:id="rId22" xr:uid="{6800F8E5-2104-4862-8630-2B6A1DE67597}"/>
+    <hyperlink ref="C21" r:id="rId23" xr:uid="{B5DA938E-D079-4252-94EE-937E3423F762}"/>
+    <hyperlink ref="C22" r:id="rId24" xr:uid="{8D647959-9418-4455-ACD2-918F5446F8B0}"/>
+    <hyperlink ref="C25" r:id="rId25" xr:uid="{0D35BE23-3125-44DF-AA15-BC9A13DAD4E0}"/>
+    <hyperlink ref="C23" r:id="rId26" xr:uid="{169E3BA7-6164-4A7F-9A88-84FF97BD02D6}"/>
+    <hyperlink ref="C24" r:id="rId27" xr:uid="{47D2533C-CE22-4504-A95C-D5DAC4A41415}"/>
+    <hyperlink ref="C27" r:id="rId28" xr:uid="{71F93FA1-617F-412E-9DFF-6E0D7405FB30}"/>
+    <hyperlink ref="C26" r:id="rId29" xr:uid="{064D4F68-8AE7-489F-A1CF-C7BFC9D2241D}"/>
+    <hyperlink ref="C28" r:id="rId30" xr:uid="{19B5E5DC-7AAC-4FCE-992A-E33AB214DA65}"/>
+    <hyperlink ref="C29" r:id="rId31" xr:uid="{350F50E6-C4D9-4F3A-B53D-144690D03D5A}"/>
+    <hyperlink ref="C30" r:id="rId32" location="google_vignette" xr:uid="{3754E26C-D7C6-40D3-B586-6975F6F56209}"/>
+    <hyperlink ref="C31" r:id="rId33" xr:uid="{537E3572-23A5-4B1C-94E7-1F64C6EB61B9}"/>
+    <hyperlink ref="C32" r:id="rId34" xr:uid="{B4520193-AB5F-40C5-9A4B-26529026A72E}"/>
+    <hyperlink ref="C33" r:id="rId35" xr:uid="{A9D65C0A-24AE-4D5B-BD49-0C336C536161}"/>
+    <hyperlink ref="C34" r:id="rId36" xr:uid="{18649552-0041-4234-A3EB-DFC8EC413712}"/>
+    <hyperlink ref="C35" r:id="rId37" xr:uid="{35032743-80F9-4C55-9D67-F35944398F85}"/>
+    <hyperlink ref="C36" r:id="rId38" xr:uid="{4F606619-1E1C-41D9-B617-DA116A1C0CA3}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{B6F7B2EB-02A0-4D9E-A822-8BDA8286FC10}"/>
+    <hyperlink ref="C38" r:id="rId40" xr:uid="{74EB49E7-58BC-4E6C-B75B-265813B243D2}"/>
+    <hyperlink ref="C39" r:id="rId41" xr:uid="{4257C921-4F81-44E4-B6CA-183BE662305F}"/>
+    <hyperlink ref="C40" r:id="rId42" xr:uid="{A65B2ECB-F8D3-4FF6-8201-C7D0EBD6A9F1}"/>
+    <hyperlink ref="C41" r:id="rId43" xr:uid="{C8A70CAD-E2DA-4809-B1D1-2F662B3D0486}"/>
+    <hyperlink ref="C42" r:id="rId44" xr:uid="{2F69EF8D-C6D5-44FB-A957-5FAD77F891F0}"/>
+    <hyperlink ref="C43" r:id="rId45" xr:uid="{B9939436-D276-4A35-B3B5-8E625EBA6037}"/>
+    <hyperlink ref="C44" r:id="rId46" xr:uid="{E8D3DF2E-D6BC-47CA-AF40-8D1C537A5571}"/>
+    <hyperlink ref="C45" r:id="rId47" xr:uid="{5C1BD0FA-31B0-4F22-981A-667C6150C2E6}"/>
+    <hyperlink ref="C46" r:id="rId48" xr:uid="{814E9C6C-074D-4418-829E-E1F3359B338F}"/>
+    <hyperlink ref="C50" r:id="rId49" location="kali-installer-images" xr:uid="{E1BCFBC9-0B68-431D-90DA-0369C5382AD4}"/>
+    <hyperlink ref="C47" r:id="rId50" xr:uid="{EC716333-E69B-4EFE-BE63-E604B21F9EBF}"/>
+    <hyperlink ref="C48" r:id="rId51" xr:uid="{743525DA-D392-4530-8242-1F48B502FA4E}"/>
+    <hyperlink ref="C49" r:id="rId52" xr:uid="{A38A5E98-F896-46B4-8A2E-3E80D787816F}"/>
+    <hyperlink ref="C51" r:id="rId53" xr:uid="{823493CB-2620-4D09-AA8F-7A9857E24D01}"/>
+    <hyperlink ref="C53" r:id="rId54" xr:uid="{8183C350-9FC9-4B12-BAD5-4152FEE6040A}"/>
+    <hyperlink ref="C54" r:id="rId55" xr:uid="{8FDE9EF9-40DB-4296-9945-146497DF033A}"/>
+    <hyperlink ref="C55" r:id="rId56" xr:uid="{1E30EDA7-8A17-490D-89DD-F09092EF3230}"/>
+    <hyperlink ref="C56" r:id="rId57" display="https://www.majorgeeks.com/mg/get/patch_my_pc,1.html" xr:uid="{7D60A2E9-1459-4CC0-A3D8-3F8B6D24EDD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14447,28 +14983,28 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14476,493 +15012,493 @@
         <v>967</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>1287</v>
+      <c r="B4" s="18" t="s">
+        <v>1285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A666C-1988-4F9B-ACE5-69243EAF30AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47BB04-54D7-41A3-8821-2296ED512AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1567">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4707,6 +4707,45 @@
   </si>
   <si>
     <t>Click</t>
+  </si>
+  <si>
+    <t>https://www.majorgeeks.com/mg/get/patch_my_pc,1.html</t>
+  </si>
+  <si>
+    <t>https://utorrent.malavida.com/windows/descargar</t>
+  </si>
+  <si>
+    <t>mvicon-download</t>
+  </si>
+  <si>
+    <t>https://manybooks.net/ebook/the-cat-guardian</t>
+  </si>
+  <si>
+    <t>https://mixkit.co/free-stock-video/going-down-a-curved-highway-through-a-mountain-range-41576/</t>
+  </si>
+  <si>
+    <t>https://www.moddb.com/games/countless-army/downloads/countless-army-110</t>
+  </si>
+  <si>
+    <t>buttonfull</t>
+  </si>
+  <si>
+    <t>zipped</t>
+  </si>
+  <si>
+    <t>https://www.mutopiaproject.org/cgibin/make-table.cgi?Style=Modern</t>
+  </si>
+  <si>
+    <t>btn-primary</t>
+  </si>
+  <si>
+    <t>https://ninite.com/chrome/</t>
+  </si>
+  <si>
+    <t>_blank</t>
+  </si>
+  <si>
+    <t>https://www.oldergeeks.com/downloads/file.php?id=4573</t>
   </si>
 </sst>
 </file>
@@ -4916,7 +4955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4987,9 +5026,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -13887,12 +13923,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
     <col min="2" max="2" width="26.19921875" customWidth="1"/>
     <col min="3" max="3" width="144.8984375" customWidth="1"/>
   </cols>
@@ -14002,7 +14039,7 @@
       <c r="B14" s="18" t="s">
         <v>1513</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14021,7 +14058,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -14107,7 +14144,7 @@
       <c r="B30" s="21" t="s">
         <v>1523</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="40" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -14115,7 +14152,7 @@
       <c r="B31" s="21" t="s">
         <v>1526</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="40" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -14211,7 +14248,7 @@
       <c r="B45" s="21" t="s">
         <v>1537</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>1538</v>
       </c>
     </row>
@@ -14219,7 +14256,7 @@
       <c r="B46" s="21" t="s">
         <v>1540</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -14235,7 +14272,7 @@
       <c r="B48" s="21" t="s">
         <v>1543</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="40" t="s">
         <v>1544</v>
       </c>
     </row>
@@ -14285,7 +14322,7 @@
       <c r="B55" s="21" t="s">
         <v>1552</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="40" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -14293,109 +14330,121 @@
       <c r="B56" s="21" t="s">
         <v>1553</v>
       </c>
-      <c r="C56" s="37">
-        <v>5</v>
+      <c r="C56" s="32" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="21"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
-      <c r="C58" s="36" t="s">
-        <v>70</v>
+      <c r="B58" s="21" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
-      <c r="C59" s="36" t="s">
-        <v>71</v>
+      <c r="C59" s="31" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="21"/>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="21"/>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="21"/>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="21"/>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="21"/>
-      <c r="C64" s="36" t="s">
-        <v>76</v>
+      <c r="B64" s="21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="21"/>
-      <c r="C65" s="36" t="s">
-        <v>77</v>
+      <c r="B65" s="21" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="21"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="21"/>
-      <c r="C67" s="36" t="s">
-        <v>79</v>
+      <c r="B67" s="21" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="21"/>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="21"/>
-      <c r="C69" s="36" t="s">
-        <v>81</v>
+      <c r="B69" s="21" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="21"/>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="21"/>
-      <c r="C71" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="21"/>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="21"/>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14887,7 +14936,7 @@
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="21"/>
-      <c r="C155" s="39" t="s">
+      <c r="C155" s="38" t="s">
         <v>920</v>
       </c>
     </row>
@@ -14895,7 +14944,7 @@
       <c r="B156" s="21" t="s">
         <v>1184</v>
       </c>
-      <c r="C156" s="40" t="s">
+      <c r="C156" s="39" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -14969,7 +15018,18 @@
     <hyperlink ref="C53" r:id="rId54" xr:uid="{8183C350-9FC9-4B12-BAD5-4152FEE6040A}"/>
     <hyperlink ref="C54" r:id="rId55" xr:uid="{8FDE9EF9-40DB-4296-9945-146497DF033A}"/>
     <hyperlink ref="C55" r:id="rId56" xr:uid="{1E30EDA7-8A17-490D-89DD-F09092EF3230}"/>
-    <hyperlink ref="C56" r:id="rId57" display="https://www.majorgeeks.com/mg/get/patch_my_pc,1.html" xr:uid="{7D60A2E9-1459-4CC0-A3D8-3F8B6D24EDD7}"/>
+    <hyperlink ref="C56" r:id="rId57" xr:uid="{7D60A2E9-1459-4CC0-A3D8-3F8B6D24EDD7}"/>
+    <hyperlink ref="C57" r:id="rId58" xr:uid="{9FB30596-CDD4-47A8-AE6B-CAC81B53BAC0}"/>
+    <hyperlink ref="C58" r:id="rId59" xr:uid="{D0CFA84A-4EB8-4E3A-854E-9AFE4E3FDA16}"/>
+    <hyperlink ref="C64" r:id="rId60" xr:uid="{A9D99C97-92B1-4979-B86E-32BC99DCF5D6}"/>
+    <hyperlink ref="C65" r:id="rId61" xr:uid="{123E1AAE-E0F6-4625-8F67-8146F97BB4E1}"/>
+    <hyperlink ref="C67" r:id="rId62" xr:uid="{B91B8090-78B6-48FF-A863-E1651AB8D7CF}"/>
+    <hyperlink ref="C66" r:id="rId63" xr:uid="{7048EAAD-48CA-4B1B-A3F7-F4F1EA614A73}"/>
+    <hyperlink ref="C68" r:id="rId64" xr:uid="{354DCF7C-3DC5-4A83-A807-C4E207675DF1}"/>
+    <hyperlink ref="C69" r:id="rId65" xr:uid="{D3246893-3FB0-40DF-8B20-1686D9D450DA}"/>
+    <hyperlink ref="C70" r:id="rId66" xr:uid="{231A8279-B117-4F92-A2E2-F06FBB83AF2A}"/>
+    <hyperlink ref="C71" r:id="rId67" xr:uid="{5D2770CE-1672-4FDE-8D9E-6D86E70E88D7}"/>
+    <hyperlink ref="C73" r:id="rId68" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47BB04-54D7-41A3-8821-2296ED512AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F52486-BE63-44AD-8B4B-FB4E4E364344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1579">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4746,6 +4746,42 @@
   </si>
   <si>
     <t>https://www.oldergeeks.com/downloads/file.php?id=4573</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/psx-style-medieval-house</t>
+  </si>
+  <si>
+    <t>psx_medieval_house.zip</t>
+  </si>
+  <si>
+    <t>ds-icon-download</t>
+  </si>
+  <si>
+    <t>https://www.latrobe.edu.au/library/open-scholarship/ebureau/publications/how-to-do-science</t>
+  </si>
+  <si>
+    <t>https://www.opensubtitles.org/he/subtitles/13123726/sinners-he</t>
+  </si>
+  <si>
+    <t>bt-dwl</t>
+  </si>
+  <si>
+    <t>Button_text__Yp1Qo</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/video/woman-skateboarding-on-scenic-mountain-road-32144507/</t>
+  </si>
+  <si>
+    <t>download-box</t>
+  </si>
+  <si>
+    <t>https://portableapps.com/download</t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/ebooks/2701</t>
+  </si>
+  <si>
+    <t>application/zip</t>
   </si>
 </sst>
 </file>
@@ -4955,7 +4991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5031,6 +5067,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13923,8 +13962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14450,68 +14489,80 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="21"/>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="21"/>
-      <c r="C75" s="36" t="s">
-        <v>86</v>
+      <c r="B75" s="21" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="21"/>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="21"/>
-      <c r="C77" s="36" t="s">
-        <v>88</v>
+      <c r="B77" s="21" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="21"/>
-      <c r="C78" s="36" t="s">
-        <v>89</v>
+      <c r="B78" s="21" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="21"/>
-      <c r="C79" s="36" t="s">
-        <v>90</v>
+      <c r="B79" s="21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="21"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="21"/>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="21"/>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="21"/>
-      <c r="C83" s="36" t="s">
-        <v>94</v>
+      <c r="B83" s="21" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="21"/>
-      <c r="C84" s="36" t="s">
-        <v>95</v>
+      <c r="B84" s="21" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -15030,6 +15081,17 @@
     <hyperlink ref="C70" r:id="rId66" xr:uid="{231A8279-B117-4F92-A2E2-F06FBB83AF2A}"/>
     <hyperlink ref="C71" r:id="rId67" xr:uid="{5D2770CE-1672-4FDE-8D9E-6D86E70E88D7}"/>
     <hyperlink ref="C73" r:id="rId68" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
+    <hyperlink ref="C74" r:id="rId69" xr:uid="{0ACB5CBE-8908-4471-A689-373CE8DEB745}"/>
+    <hyperlink ref="C75" r:id="rId70" xr:uid="{FD609230-2D31-4E2E-B524-87A25007B12F}"/>
+    <hyperlink ref="C76" r:id="rId71" xr:uid="{C0AE8560-BE27-415A-AD0A-14E3797E5B20}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{4868C4DD-96B1-44D7-8B96-F9295A5A0DCD}"/>
+    <hyperlink ref="C78" r:id="rId73" xr:uid="{25E5301F-61E6-43D2-A641-2F6026FF1480}"/>
+    <hyperlink ref="C79" r:id="rId74" xr:uid="{CBE9D00B-0CC6-4D93-8C7E-9C10BAAC47EE}"/>
+    <hyperlink ref="C80" r:id="rId75" xr:uid="{4D5A2527-8BE9-4F08-9D4C-87D6491402AB}"/>
+    <hyperlink ref="C81" r:id="rId76" xr:uid="{28E2B9FC-AB8B-44C7-8B21-0E1E522F10F7}"/>
+    <hyperlink ref="C82" r:id="rId77" xr:uid="{FA281B91-D05B-4C2B-B507-034DB0460365}"/>
+    <hyperlink ref="C83" r:id="rId78" xr:uid="{89740D7E-60F5-4477-B0F5-482D59C91D1D}"/>
+    <hyperlink ref="C84" r:id="rId79" xr:uid="{2EE40B56-5EA1-421E-863D-EBB257790F35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC31D83-D17E-40CC-A59C-B2756C5BAC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890452F-D17F-4875-A609-8C19FBAB1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="3885" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15885" yWindow="1290" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1536">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -2984,9 +2984,6 @@
     <t>x92rtbv</t>
   </si>
   <si>
-    <t>fmMYD</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.amazon.com  </t>
   </si>
   <si>
@@ -3941,9 +3938,6 @@
     <t>video-page-jwplayer-wrapper</t>
   </si>
   <si>
-    <t>videoAdUiSkipButton</t>
-  </si>
-  <si>
     <t>iconKnsPlay</t>
   </si>
   <si>
@@ -4553,15 +4547,9 @@
     <t>https://holla.world</t>
   </si>
   <si>
-    <t>wobbly-bouncy</t>
-  </si>
-  <si>
     <t>https://www.nick.co.il/brand/4</t>
   </si>
   <si>
-    <t>popup__close</t>
-  </si>
-  <si>
     <t>https://www.pbs.org/newshour/show/what-to-know-about-the-start-of-negotiations-between-iran-and-the-u-s-under-trump</t>
   </si>
   <si>
@@ -4569,6 +4557,102 @@
   </si>
   <si>
     <t>https://www.retrocrush.tv/watch/1000000012595/title1?vod_type=</t>
+  </si>
+  <si>
+    <t>e1q0vtau0</t>
+  </si>
+  <si>
+    <t>detailHeaderButton1</t>
+  </si>
+  <si>
+    <t>onetrust-accept-btn-handler,sc-button-xxlarge</t>
+  </si>
+  <si>
+    <t>playbutton</t>
+  </si>
+  <si>
+    <t>dWWVle</t>
+  </si>
+  <si>
+    <t>play-pause-button</t>
+  </si>
+  <si>
+    <t>player-play-button</t>
+  </si>
+  <si>
+    <t>ChannelHeading__ImageContainer-sc-17o11wq-2</t>
+  </si>
+  <si>
+    <t>close-button-module__button___nu_np,tune-button-module__solid___vhIa1</t>
+  </si>
+  <si>
+    <t>button_ok,duration-200</t>
+  </si>
+  <si>
+    <t>play-track</t>
+  </si>
+  <si>
+    <t>rounded-2xl</t>
+  </si>
+  <si>
+    <t>song-player__play-pause-button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio_play </t>
+  </si>
+  <si>
+    <t>list-item,moplayer-play</t>
+  </si>
+  <si>
+    <t>track-audio</t>
+  </si>
+  <si>
+    <t>vjs-big-play-button</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/videos/2485552246</t>
+  </si>
+  <si>
+    <t>bg-full-ep</t>
+  </si>
+  <si>
+    <t>iconochive-play</t>
+  </si>
+  <si>
+    <t>play-button</t>
+  </si>
+  <si>
+    <t>playpause-button</t>
+  </si>
+  <si>
+    <t>:Play</t>
+  </si>
+  <si>
+    <t>https://app.redcircle.com/shows/64a89f88-a245-4098-8d8d-496325ec4f74/exclusive-content?_gl=1*1n6qlev*_gcl_au*MTEyMDc1NTU2OS4xNzUwMTE5MzE5*_ga*MTkxMzk1NzA2LjE3NTAxMTkzMTk.*_ga_KVZ47LYJWW*czE3NTAxMTkzMTkkbzEkZzAkdDE3NTAxMTkzMjIkajU3JGwwJGgw</t>
+  </si>
+  <si>
+    <t>episode-list-item,media-player__play-pause_wrapper</t>
+  </si>
+  <si>
+    <t>index-module_focus-visible-highlight__j1o45</t>
+  </si>
+  <si>
+    <t>svelte-yk984v</t>
+  </si>
+  <si>
+    <t>Player__play-btn</t>
+  </si>
+  <si>
+    <t>sp_choice_type_11,dcr-md2xfn</t>
+  </si>
+  <si>
+    <t>control-play-pause</t>
+  </si>
+  <si>
+    <t>#playpause</t>
+  </si>
+  <si>
+    <t>.outline</t>
   </si>
 </sst>
 </file>
@@ -4718,7 +4802,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4739,6 +4822,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7047,7 +7131,7 @@
       <c r="G44" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>970</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -7080,7 +7164,7 @@
       <c r="G45" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>972</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -9623,392 +9707,392 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>545</v>
       </c>
     </row>
@@ -10149,502 +10233,502 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -10668,7 +10752,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
@@ -10678,42 +10762,42 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -10728,7 +10812,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -10738,12 +10822,12 @@
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -10753,417 +10837,417 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -11173,10 +11257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11188,13 +11272,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11203,7 +11287,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>965</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -11226,7 +11310,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>966</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -11234,13 +11318,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>968</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -11248,7 +11332,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>969</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -11266,13 +11350,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>861</v>
       </c>
@@ -11288,7 +11372,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14" t="s">
+        <v>1520</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>864</v>
       </c>
@@ -11302,11 +11388,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>979</v>
-      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>872</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11315,24 +11399,24 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>1293</v>
+      <c r="A21" s="21"/>
+      <c r="B21" s="14" t="s">
+        <v>1292</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>1292</v>
+      <c r="B22" s="14" t="s">
+        <v>1291</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>973</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -11340,22 +11424,22 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>1302</v>
+      <c r="B25" s="14" t="s">
+        <v>1300</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>1294</v>
+      <c r="B26" s="18" t="s">
+        <v>1293</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>873</v>
@@ -11367,11 +11451,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>1504</v>
+      <c r="B28" s="18" t="s">
+        <v>1520</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11380,7 +11464,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>974</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -11388,8 +11472,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>1295</v>
+      <c r="B31" s="18" t="s">
+        <v>1294</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>881</v>
@@ -11411,33 +11495,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
         <v>1297</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>1299</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>1300</v>
+      <c r="B38" s="18" t="s">
+        <v>1298</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>899</v>
@@ -11449,8 +11531,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>1301</v>
+      <c r="B40" s="18" t="s">
+        <v>1299</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>901</v>
@@ -11467,15 +11549,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>1303</v>
+      <c r="B43" s="18" t="s">
+        <v>1301</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="3" t="s">
         <v>907</v>
       </c>
@@ -11491,8 +11573,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>1304</v>
+      <c r="B47" s="18" t="s">
+        <v>1302</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>912</v>
@@ -11504,8 +11586,8 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>1305</v>
+      <c r="B49" s="18" t="s">
+        <v>1303</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>916</v>
@@ -11517,22 +11599,22 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>1306</v>
+      <c r="B51" s="18" t="s">
+        <v>1304</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="3" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>1307</v>
+      <c r="B53" s="18" t="s">
+        <v>1305</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>924</v>
@@ -11544,64 +11626,64 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>1308</v>
+      <c r="B55" s="18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="24" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>1503</v>
+      <c r="B65" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -11740,50 +11822,45 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="23" t="s">
-        <v>1296</v>
+      <c r="C93" s="22" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="22" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="24" t="s">
-        <v>925</v>
+      <c r="C95" s="23" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
-        <v>888</v>
+      <c r="C96" s="23" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
-        <v>921</v>
+      <c r="C97" s="23" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="24" t="s">
-        <v>889</v>
+      <c r="C98" s="23" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="24" t="s">
-        <v>869</v>
+      <c r="C99" s="23" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="24" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11818,9 +11895,9 @@
     <hyperlink ref="C88" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
     <hyperlink ref="C90" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
     <hyperlink ref="C83" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="C99" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="C96" r:id="rId31" display="https://eco99fm.maariv.co.il/" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="C98" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="C98" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="C95" r:id="rId31" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="C97" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
     <hyperlink ref="C25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
     <hyperlink ref="C22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
     <hyperlink ref="C31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
@@ -11844,14 +11921,14 @@
     <hyperlink ref="C15" r:id="rId53" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
     <hyperlink ref="C16" r:id="rId54" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
     <hyperlink ref="C17" r:id="rId55" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C101" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C100" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
     <hyperlink ref="C18" r:id="rId57" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
     <hyperlink ref="C23" r:id="rId58" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="C19" r:id="rId59" xr:uid="{10FC5AF9-9BE7-47D2-887E-5D58C6E8FABC}"/>
-    <hyperlink ref="C20" r:id="rId60" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C24" r:id="rId61" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="C30" r:id="rId62" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
-    <hyperlink ref="C12" r:id="rId63" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C24" r:id="rId59" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="C30" r:id="rId60" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="C12" r:id="rId61" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="C93" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId64"/>
@@ -11860,701 +11937,784 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>1506</v>
+      <c r="B2" s="20" t="s">
+        <v>1502</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>1504</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>1505</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1506</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1507</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1508</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>1509</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>1510</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>1511</v>
+      </c>
       <c r="C10" s="10" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>1512</v>
+      </c>
       <c r="C11" s="10" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>1513</v>
+      </c>
       <c r="C12" s="10" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>1514</v>
+      </c>
       <c r="C13" s="10" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1515</v>
+      </c>
       <c r="C14" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>1516</v>
+      </c>
       <c r="C15" s="10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>1517</v>
+      </c>
       <c r="C16" s="10" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>1518</v>
+      </c>
       <c r="C17" s="10" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1519</v>
+      </c>
       <c r="C18" s="10" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>1525</v>
+      </c>
       <c r="C21" s="10" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>1526</v>
+      </c>
       <c r="C22" s="10" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>1528</v>
+      </c>
       <c r="C23" s="10" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C24" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>1530</v>
+      </c>
       <c r="C25" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>1531</v>
+      </c>
       <c r="C26" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>1532</v>
+      </c>
       <c r="C28" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>1533</v>
+      </c>
       <c r="C29" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>910</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>865</v>
+      <c r="C40" s="15" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>868</v>
+      <c r="C41" s="10" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
-        <v>970</v>
+      <c r="C42" s="10" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
-        <v>938</v>
+      <c r="C43" s="15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="9" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="9" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="9" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="9" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="9" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="9" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="9" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="9" t="s">
-        <v>749</v>
+      <c r="C106" s="12" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="9" t="s">
-        <v>691</v>
+      <c r="C107" s="12" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="12" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="12" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="12" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="12" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="12" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="12" t="s">
-        <v>695</v>
+      <c r="C116" s="13" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="12" t="s">
-        <v>696</v>
+      <c r="C117" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="13" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>875</v>
+      <c r="C118" s="23" t="s">
+        <v>888</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C44" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
-    <hyperlink ref="C108" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
-    <hyperlink ref="C109" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
-    <hyperlink ref="C110" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
-    <hyperlink ref="C111" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
-    <hyperlink ref="C112" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
-    <hyperlink ref="C113" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
-    <hyperlink ref="C115" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
-    <hyperlink ref="C114" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
-    <hyperlink ref="C46" r:id="rId10" xr:uid="{CACF3F4B-FD60-4F5D-80DE-4F989827283B}"/>
-    <hyperlink ref="C47" r:id="rId11" xr:uid="{B621D8DE-A767-4BBD-BE22-640A75CA5D91}"/>
-    <hyperlink ref="C48" r:id="rId12" xr:uid="{E343DF28-D7C6-487D-8890-421CD37C42EB}"/>
-    <hyperlink ref="C49" r:id="rId13" xr:uid="{393CD1D9-6D85-43AC-847D-1BF2CF74E366}"/>
-    <hyperlink ref="C50" r:id="rId14" xr:uid="{E118AE26-9368-4DE4-9299-26E63628339C}"/>
-    <hyperlink ref="C51" r:id="rId15" xr:uid="{D0393A7E-EC42-4E0E-A98F-C8F2B2386DB9}"/>
-    <hyperlink ref="C52" r:id="rId16" xr:uid="{45CA9E57-58A2-4669-B92E-D18354127A7A}"/>
-    <hyperlink ref="C53" r:id="rId17" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
-    <hyperlink ref="C54" r:id="rId18" xr:uid="{04F0B8E6-39DE-4116-A66A-09152BBF7CA1}"/>
-    <hyperlink ref="C55" r:id="rId19" xr:uid="{0042D724-A44C-49DB-8C11-798623C9F02E}"/>
-    <hyperlink ref="C56" r:id="rId20" xr:uid="{82C2869E-FB63-4D88-8258-85F9BF076209}"/>
-    <hyperlink ref="C57" r:id="rId21" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
-    <hyperlink ref="C58" r:id="rId22" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
-    <hyperlink ref="C59" r:id="rId23" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="C60" r:id="rId24" xr:uid="{7F7B17FD-BE50-4A04-835D-927E484FB8E1}"/>
-    <hyperlink ref="C61" r:id="rId25" xr:uid="{6C5A4EE0-E514-4B33-BA2B-26BB5453FE55}"/>
-    <hyperlink ref="C62" r:id="rId26" xr:uid="{9F0AA92C-C581-4FB2-88BD-43045313725E}"/>
-    <hyperlink ref="C63" r:id="rId27" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
-    <hyperlink ref="C64" r:id="rId28" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
-    <hyperlink ref="C65" r:id="rId29" xr:uid="{CE17CEF1-9490-446E-A22A-B4C8A5DB656A}"/>
-    <hyperlink ref="C66" r:id="rId30" xr:uid="{E1A24C18-823A-4306-8077-9A5DC1EA092E}"/>
-    <hyperlink ref="C67" r:id="rId31" xr:uid="{2F0B5BB0-87DC-43D1-BACB-384A98AFF5C1}"/>
-    <hyperlink ref="C68" r:id="rId32" xr:uid="{89FB00D7-0299-4541-AD03-9354C18AE10A}"/>
-    <hyperlink ref="C69" r:id="rId33" xr:uid="{D101A818-34FE-4E2E-B70F-64BB3B0AA327}"/>
-    <hyperlink ref="C70" r:id="rId34" xr:uid="{768B14C4-770A-4C55-8FA2-AC356966313C}"/>
-    <hyperlink ref="C71" r:id="rId35" xr:uid="{DA258324-2BCB-404B-8CAD-1C4F7D9C69F0}"/>
-    <hyperlink ref="C72" r:id="rId36" xr:uid="{4E66D9A3-1977-49B0-8CE0-D772D9935E89}"/>
-    <hyperlink ref="C73" r:id="rId37" xr:uid="{37AC3147-1434-402A-AE31-2D0AE7521865}"/>
-    <hyperlink ref="C107" r:id="rId38" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
-    <hyperlink ref="C106" r:id="rId39" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
-    <hyperlink ref="C105" r:id="rId40" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
-    <hyperlink ref="C104" r:id="rId41" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
-    <hyperlink ref="C103" r:id="rId42" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
-    <hyperlink ref="C102" r:id="rId43" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
-    <hyperlink ref="C101" r:id="rId44" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
-    <hyperlink ref="C100" r:id="rId45" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
-    <hyperlink ref="C99" r:id="rId46" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
-    <hyperlink ref="C98" r:id="rId47" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
-    <hyperlink ref="C74" r:id="rId48" xr:uid="{EC7E067B-B344-4215-B67F-066FFF3BB015}"/>
-    <hyperlink ref="C75" r:id="rId49" xr:uid="{3064A639-44E8-462A-B8B8-199B2145DA6A}"/>
-    <hyperlink ref="C76" r:id="rId50" xr:uid="{5F90A03D-704E-4363-B6C5-77E374A4C34C}"/>
-    <hyperlink ref="C77" r:id="rId51" xr:uid="{B2669C5D-06DE-4B76-9ED8-B7AD33812FAB}"/>
-    <hyperlink ref="C78" r:id="rId52" xr:uid="{EB935972-5A53-4EFE-B2ED-28DB075FF785}"/>
-    <hyperlink ref="C79" r:id="rId53" xr:uid="{82F21A45-69D3-4AFD-BAB6-F70E65634772}"/>
-    <hyperlink ref="C80" r:id="rId54" xr:uid="{3FE44C2B-044D-487D-99C7-CC11FD84EC70}"/>
-    <hyperlink ref="C81" r:id="rId55" xr:uid="{91662DE5-36FC-426A-BE97-2CF289DAA7E8}"/>
-    <hyperlink ref="C82" r:id="rId56" xr:uid="{F80B58BD-AE57-4872-8B78-9642CC138842}"/>
-    <hyperlink ref="C83" r:id="rId57" xr:uid="{EB15B0CA-38C8-4F63-AB4B-E2DCF42B030F}"/>
-    <hyperlink ref="C84" r:id="rId58" xr:uid="{209C6D8B-8EEF-4D33-A631-7B5200F2A7BC}"/>
-    <hyperlink ref="C85" r:id="rId59" xr:uid="{40C460FF-5039-45A0-9990-F58B898CC5D2}"/>
-    <hyperlink ref="C86" r:id="rId60" xr:uid="{D5C94AA2-457D-4EB3-9757-17E119BED846}"/>
-    <hyperlink ref="C87" r:id="rId61" xr:uid="{9A475341-5F99-4792-9D5B-EDE04D483C0F}"/>
-    <hyperlink ref="C88" r:id="rId62" xr:uid="{8E7485E5-7083-4D39-B2B8-82FB0DEFD5D3}"/>
-    <hyperlink ref="C89" r:id="rId63" xr:uid="{AF5B7AEA-2C18-4DCB-8319-296AF51ABD74}"/>
-    <hyperlink ref="C90" r:id="rId64" xr:uid="{F4F44B7B-7022-4C8C-A971-B9C7F106916A}"/>
-    <hyperlink ref="C91" r:id="rId65" xr:uid="{A4D574C0-F69B-47B4-B6BE-24BD59B1F37E}"/>
-    <hyperlink ref="C92" r:id="rId66" xr:uid="{725F13E7-12CF-42E8-B98B-9EA63EB5FE2D}"/>
-    <hyperlink ref="C93" r:id="rId67" xr:uid="{98547F72-A493-4133-8857-2EC85CD29A2D}"/>
-    <hyperlink ref="C94" r:id="rId68" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
-    <hyperlink ref="C95" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
-    <hyperlink ref="C96" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
-    <hyperlink ref="C97" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="C20" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="C117" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
-    <hyperlink ref="C116" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
+    <hyperlink ref="C106" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
+    <hyperlink ref="C107" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
+    <hyperlink ref="C108" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
+    <hyperlink ref="C109" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
+    <hyperlink ref="C110" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
+    <hyperlink ref="C111" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
+    <hyperlink ref="C113" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
+    <hyperlink ref="C112" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
+    <hyperlink ref="C44" r:id="rId10" xr:uid="{CACF3F4B-FD60-4F5D-80DE-4F989827283B}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{B621D8DE-A767-4BBD-BE22-640A75CA5D91}"/>
+    <hyperlink ref="C46" r:id="rId12" xr:uid="{E343DF28-D7C6-487D-8890-421CD37C42EB}"/>
+    <hyperlink ref="C47" r:id="rId13" xr:uid="{393CD1D9-6D85-43AC-847D-1BF2CF74E366}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{E118AE26-9368-4DE4-9299-26E63628339C}"/>
+    <hyperlink ref="C49" r:id="rId15" xr:uid="{D0393A7E-EC42-4E0E-A98F-C8F2B2386DB9}"/>
+    <hyperlink ref="C50" r:id="rId16" xr:uid="{45CA9E57-58A2-4669-B92E-D18354127A7A}"/>
+    <hyperlink ref="C51" r:id="rId17" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
+    <hyperlink ref="C52" r:id="rId18" xr:uid="{04F0B8E6-39DE-4116-A66A-09152BBF7CA1}"/>
+    <hyperlink ref="C53" r:id="rId19" xr:uid="{0042D724-A44C-49DB-8C11-798623C9F02E}"/>
+    <hyperlink ref="C54" r:id="rId20" xr:uid="{82C2869E-FB63-4D88-8258-85F9BF076209}"/>
+    <hyperlink ref="C55" r:id="rId21" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
+    <hyperlink ref="C56" r:id="rId22" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
+    <hyperlink ref="C57" r:id="rId23" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C58" r:id="rId24" xr:uid="{7F7B17FD-BE50-4A04-835D-927E484FB8E1}"/>
+    <hyperlink ref="C59" r:id="rId25" xr:uid="{6C5A4EE0-E514-4B33-BA2B-26BB5453FE55}"/>
+    <hyperlink ref="C60" r:id="rId26" xr:uid="{9F0AA92C-C581-4FB2-88BD-43045313725E}"/>
+    <hyperlink ref="C61" r:id="rId27" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
+    <hyperlink ref="C62" r:id="rId28" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
+    <hyperlink ref="C63" r:id="rId29" xr:uid="{CE17CEF1-9490-446E-A22A-B4C8A5DB656A}"/>
+    <hyperlink ref="C64" r:id="rId30" xr:uid="{E1A24C18-823A-4306-8077-9A5DC1EA092E}"/>
+    <hyperlink ref="C65" r:id="rId31" xr:uid="{2F0B5BB0-87DC-43D1-BACB-384A98AFF5C1}"/>
+    <hyperlink ref="C66" r:id="rId32" xr:uid="{89FB00D7-0299-4541-AD03-9354C18AE10A}"/>
+    <hyperlink ref="C67" r:id="rId33" xr:uid="{D101A818-34FE-4E2E-B70F-64BB3B0AA327}"/>
+    <hyperlink ref="C68" r:id="rId34" xr:uid="{768B14C4-770A-4C55-8FA2-AC356966313C}"/>
+    <hyperlink ref="C69" r:id="rId35" xr:uid="{DA258324-2BCB-404B-8CAD-1C4F7D9C69F0}"/>
+    <hyperlink ref="C70" r:id="rId36" xr:uid="{4E66D9A3-1977-49B0-8CE0-D772D9935E89}"/>
+    <hyperlink ref="C71" r:id="rId37" xr:uid="{37AC3147-1434-402A-AE31-2D0AE7521865}"/>
+    <hyperlink ref="C105" r:id="rId38" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
+    <hyperlink ref="C104" r:id="rId39" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
+    <hyperlink ref="C103" r:id="rId40" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
+    <hyperlink ref="C102" r:id="rId41" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
+    <hyperlink ref="C101" r:id="rId42" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
+    <hyperlink ref="C100" r:id="rId43" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
+    <hyperlink ref="C99" r:id="rId44" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
+    <hyperlink ref="C98" r:id="rId45" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
+    <hyperlink ref="C97" r:id="rId46" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
+    <hyperlink ref="C96" r:id="rId47" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
+    <hyperlink ref="C72" r:id="rId48" xr:uid="{EC7E067B-B344-4215-B67F-066FFF3BB015}"/>
+    <hyperlink ref="C73" r:id="rId49" xr:uid="{3064A639-44E8-462A-B8B8-199B2145DA6A}"/>
+    <hyperlink ref="C74" r:id="rId50" xr:uid="{5F90A03D-704E-4363-B6C5-77E374A4C34C}"/>
+    <hyperlink ref="C75" r:id="rId51" xr:uid="{B2669C5D-06DE-4B76-9ED8-B7AD33812FAB}"/>
+    <hyperlink ref="C76" r:id="rId52" xr:uid="{EB935972-5A53-4EFE-B2ED-28DB075FF785}"/>
+    <hyperlink ref="C77" r:id="rId53" xr:uid="{82F21A45-69D3-4AFD-BAB6-F70E65634772}"/>
+    <hyperlink ref="C78" r:id="rId54" xr:uid="{3FE44C2B-044D-487D-99C7-CC11FD84EC70}"/>
+    <hyperlink ref="C79" r:id="rId55" xr:uid="{91662DE5-36FC-426A-BE97-2CF289DAA7E8}"/>
+    <hyperlink ref="C80" r:id="rId56" xr:uid="{F80B58BD-AE57-4872-8B78-9642CC138842}"/>
+    <hyperlink ref="C81" r:id="rId57" xr:uid="{EB15B0CA-38C8-4F63-AB4B-E2DCF42B030F}"/>
+    <hyperlink ref="C82" r:id="rId58" xr:uid="{209C6D8B-8EEF-4D33-A631-7B5200F2A7BC}"/>
+    <hyperlink ref="C83" r:id="rId59" xr:uid="{40C460FF-5039-45A0-9990-F58B898CC5D2}"/>
+    <hyperlink ref="C84" r:id="rId60" xr:uid="{D5C94AA2-457D-4EB3-9757-17E119BED846}"/>
+    <hyperlink ref="C85" r:id="rId61" xr:uid="{9A475341-5F99-4792-9D5B-EDE04D483C0F}"/>
+    <hyperlink ref="C86" r:id="rId62" xr:uid="{8E7485E5-7083-4D39-B2B8-82FB0DEFD5D3}"/>
+    <hyperlink ref="C87" r:id="rId63" xr:uid="{AF5B7AEA-2C18-4DCB-8319-296AF51ABD74}"/>
+    <hyperlink ref="C88" r:id="rId64" xr:uid="{F4F44B7B-7022-4C8C-A971-B9C7F106916A}"/>
+    <hyperlink ref="C89" r:id="rId65" xr:uid="{A4D574C0-F69B-47B4-B6BE-24BD59B1F37E}"/>
+    <hyperlink ref="C90" r:id="rId66" xr:uid="{725F13E7-12CF-42E8-B98B-9EA63EB5FE2D}"/>
+    <hyperlink ref="C91" r:id="rId67" xr:uid="{98547F72-A493-4133-8857-2EC85CD29A2D}"/>
+    <hyperlink ref="C92" r:id="rId68" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
+    <hyperlink ref="C93" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
+    <hyperlink ref="C94" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
+    <hyperlink ref="C95" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
+    <hyperlink ref="C19" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C115" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
+    <hyperlink ref="C114" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
+    <hyperlink ref="C6" r:id="rId75" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
+    <hyperlink ref="C7" r:id="rId76" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
+    <hyperlink ref="C118" r:id="rId77" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -12570,513 +12730,513 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -13096,522 +13256,522 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -13636,60 +13796,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="18" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13704,712 +13864,712 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -14420,19 +14580,19 @@
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14471,21 +14631,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14493,493 +14653,493 @@
         <v>967</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>1287</v>
+      <c r="B4" s="18" t="s">
+        <v>1286</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
   </sheetData>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890452F-D17F-4875-A609-8C19FBAB1B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5A7C4-95A6-4AEC-BBFE-2F9DDC9BC585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15885" yWindow="1290" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1539">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4653,6 +4653,15 @@
   </si>
   <si>
     <t>.outline</t>
+  </si>
+  <si>
+    <t>onetrust-accept-btn-handler,play-pause</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>sp_choice_type_11,button_play</t>
   </si>
 </sst>
 </file>
@@ -11939,8 +11948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12189,16 +12198,25 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>1536</v>
+      </c>
       <c r="C30" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>1537</v>
+      </c>
       <c r="C31" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>1538</v>
+      </c>
       <c r="C32" t="s">
         <v>904</v>
       </c>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5A7C4-95A6-4AEC-BBFE-2F9DDC9BC585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F600DFE1-A802-4B72-A327-2524C20DEBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15885" yWindow="1290" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="975" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1546">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4662,6 +4662,27 @@
   </si>
   <si>
     <t>sp_choice_type_11,button_play</t>
+  </si>
+  <si>
+    <t>shadowRoot</t>
+  </si>
+  <si>
+    <t>https://www.bar-geffen.com/post/%D7%94%D7%96%D7%9E%D7%A0%D7%94-%D7%9C%D7%9C%D7%9E%D7%95%D7%93-%D7%9C%D7%A7%D7%95%D7%9D</t>
+  </si>
+  <si>
+    <t>https://news.sky.com/story/the-wargame-episode-three-wheres-the-war-book-13384471</t>
+  </si>
+  <si>
+    <t>react-player__shadow</t>
+  </si>
+  <si>
+    <t>.cmptxt_btn_yes</t>
+  </si>
+  <si>
+    <t>css-1ktxck2</t>
+  </si>
+  <si>
+    <t>play-pause</t>
   </si>
 </sst>
 </file>
@@ -11266,10 +11287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11696,180 +11717,188 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="11" t="s">
-        <v>570</v>
+      <c r="B66" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="11" t="s">
-        <v>4</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>571</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>3</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
-        <v>573</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
-        <v>2</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
-        <v>577</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
-        <v>1</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="s">
-        <v>581</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="11" t="s">
-        <v>8</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="s">
-        <v>583</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" s="11" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="22" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="22" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C95" s="22" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="23" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C96" s="23" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="23" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="23" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="23" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="23" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11877,36 +11906,36 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="C66" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="C67" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="C68" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="C69" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="C70" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="C71" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="C72" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="C73" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="C74" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="C75" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="C76" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="C77" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="C78" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="C79" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="C80" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="C81" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="C82" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="C89" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="C91" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="C92" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="C84" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="C85" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="C86" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="C87" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="C88" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="C90" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="C83" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="C98" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="C95" r:id="rId31" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="C97" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="C67" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="C68" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="C69" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="C70" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="C71" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="C72" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="C73" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="C74" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="C75" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="C76" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="C77" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="C78" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="C79" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="C80" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="C81" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="C82" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="C83" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="C90" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="C92" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="C93" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="C85" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="C86" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="C87" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="C88" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="C89" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="C91" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="C84" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="C99" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="C96" r:id="rId31" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="C98" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
     <hyperlink ref="C25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
     <hyperlink ref="C22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
     <hyperlink ref="C31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
@@ -11921,7 +11950,7 @@
     <hyperlink ref="C4" r:id="rId44" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
     <hyperlink ref="C5" r:id="rId45" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
     <hyperlink ref="C7" r:id="rId46" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
-    <hyperlink ref="C94" r:id="rId47" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
+    <hyperlink ref="C95" r:id="rId47" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
     <hyperlink ref="C9" r:id="rId48" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
     <hyperlink ref="C10" r:id="rId49" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
     <hyperlink ref="C11" r:id="rId50" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
@@ -11930,14 +11959,14 @@
     <hyperlink ref="C15" r:id="rId53" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
     <hyperlink ref="C16" r:id="rId54" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
     <hyperlink ref="C17" r:id="rId55" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C100" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C101" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
     <hyperlink ref="C18" r:id="rId57" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
     <hyperlink ref="C23" r:id="rId58" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
     <hyperlink ref="C24" r:id="rId59" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
     <hyperlink ref="C30" r:id="rId60" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
     <hyperlink ref="C12" r:id="rId61" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
     <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C93" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
+    <hyperlink ref="C94" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId64"/>
@@ -11948,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11961,7 +11990,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1539</v>
       </c>
       <c r="B1" t="s">
         <v>1289</v>
@@ -12218,85 +12247,97 @@
         <v>1538</v>
       </c>
       <c r="C32" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>1524</v>
+      </c>
       <c r="C33" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>1544</v>
+      </c>
       <c r="C34" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>1545</v>
+      </c>
       <c r="C35" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="15" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>703</v>
       </c>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F600DFE1-A802-4B72-A327-2524C20DEBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD23023A-4746-4594-91E3-0B0BDBB9889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="975" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1585">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4661,9 +4661,6 @@
     <t>play</t>
   </si>
   <si>
-    <t>sp_choice_type_11,button_play</t>
-  </si>
-  <si>
     <t>shadowRoot</t>
   </si>
   <si>
@@ -4683,13 +4680,133 @@
   </si>
   <si>
     <t>play-pause</t>
+  </si>
+  <si>
+    <t>vjs-play-control</t>
+  </si>
+  <si>
+    <t>shoutcast779playbutton</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/show/6TMepIcA0MjQm96IFzvK08</t>
+  </si>
+  <si>
+    <t>e-9960-button-icon-only--small</t>
+  </si>
+  <si>
+    <t>episode-play-button</t>
+  </si>
+  <si>
+    <t>sp_choice_type_11,PlayButton_buttonWrapper___CMG4</t>
+  </si>
+  <si>
+    <t>https://www.kan.org.il/content/kan/podcasts/p-8127/922873/</t>
+  </si>
+  <si>
+    <t>audio-player-play-btn</t>
+  </si>
+  <si>
+    <t>https://1045fm.maariv.co.il/programs/media.aspx?ZrqvnVq=IMKHLE&amp;c41t4nzVQ=EFGM</t>
+  </si>
+  <si>
+    <t>mouthjs-playbutton</t>
+  </si>
+  <si>
+    <t>https://1075.fm/popup-player/?curtrack=552</t>
+  </si>
+  <si>
+    <t>radio-play-btn</t>
+  </si>
+  <si>
+    <t>radio-play-pause</t>
+  </si>
+  <si>
+    <t>qw-playerbutton</t>
+  </si>
+  <si>
+    <t>menu-item-406</t>
+  </si>
+  <si>
+    <t>https://www.emess.co.il/audio/program/525</t>
+  </si>
+  <si>
+    <t>icon-play</t>
+  </si>
+  <si>
+    <t>https://radio.streamgates.net/stream/101fm</t>
+  </si>
+  <si>
+    <t>http://live1.co.il/jrs101fm/</t>
+  </si>
+  <si>
+    <t>play-button-container</t>
+  </si>
+  <si>
+    <t>https://gly.co.il/item?id=39462</t>
+  </si>
+  <si>
+    <t>popup_close,seg_play</t>
+  </si>
+  <si>
+    <t>noSelect</t>
+  </si>
+  <si>
+    <t>iconWrapper</t>
+  </si>
+  <si>
+    <t>https://eco99fm.maariv.co.il/live-radio</t>
+  </si>
+  <si>
+    <t>play-btn</t>
+  </si>
+  <si>
+    <t>https://103fm.maariv.co.il/programs/media.aspx?ZrqvnVq=JMKGDJ&amp;c41t4nzVQ=JKF</t>
+  </si>
+  <si>
+    <t>css-18o0txe</t>
+  </si>
+  <si>
+    <t>https://www.995.co.il/popup-player</t>
+  </si>
+  <si>
+    <t>jp-play</t>
+  </si>
+  <si>
+    <t>https://glz.co.il/%D7%92%D7%9C%D7%A6/%D7%AA%D7%95%D7%9B%D7%A0%D7%99%D7%95%D7%AA/%D7%97%D7%99%D7%99%D7%9D-%D7%A9%D7%9C-%D7%90%D7%97%D7%A8%D7%99%D7%9D</t>
+  </si>
+  <si>
+    <t>btn_234613</t>
+  </si>
+  <si>
+    <t>https://www.100fm.co.il/program/%d7%a4%d7%a8%d7%99%d7%a9%d7%94-%d7%91%d7%a7%d7%9c%d7%99%d7%a7/</t>
+  </si>
+  <si>
+    <t>https://www.1036kh.com/podcast/episode/2f091908</t>
+  </si>
+  <si>
+    <t>s__3b64FT</t>
+  </si>
+  <si>
+    <t>mejs__overlay-button</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/sounds/play/live/bbc_radio_one</t>
+  </si>
+  <si>
+    <t>p_audioui_playpause</t>
+  </si>
+  <si>
+    <t>onetrust-accept-btn-handler,pn-modal__button,audio-module-listen</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2025/06/18/1254350237/the-npr-politics-podcast-iran-israel-trump-maga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4753,6 +4870,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4805,7 +4929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4853,6 +4977,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11718,10 +11844,10 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -11975,10 +12101,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11990,7 +12116,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1" t="s">
         <v>1289</v>
@@ -12003,7 +12129,7 @@
       <c r="B2" s="20" t="s">
         <v>1502</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>940</v>
       </c>
     </row>
@@ -12011,7 +12137,7 @@
       <c r="B3" s="18" t="s">
         <v>1504</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>941</v>
       </c>
     </row>
@@ -12019,7 +12145,7 @@
       <c r="B4" s="18" t="s">
         <v>1505</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>943</v>
       </c>
     </row>
@@ -12027,7 +12153,7 @@
       <c r="B5" t="s">
         <v>1506</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>944</v>
       </c>
     </row>
@@ -12038,7 +12164,7 @@
       <c r="B6" s="18" t="s">
         <v>1507</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>945</v>
       </c>
     </row>
@@ -12046,7 +12172,7 @@
       <c r="B7" t="s">
         <v>1508</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>946</v>
       </c>
     </row>
@@ -12054,7 +12180,7 @@
       <c r="B8" s="18" t="s">
         <v>1509</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>947</v>
       </c>
     </row>
@@ -12062,7 +12188,7 @@
       <c r="B9" s="18" t="s">
         <v>1510</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>948</v>
       </c>
     </row>
@@ -12070,7 +12196,7 @@
       <c r="B10" s="18" t="s">
         <v>1511</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>949</v>
       </c>
     </row>
@@ -12078,7 +12204,7 @@
       <c r="B11" s="18" t="s">
         <v>1512</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>950</v>
       </c>
     </row>
@@ -12086,7 +12212,7 @@
       <c r="B12" s="18" t="s">
         <v>1513</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>951</v>
       </c>
     </row>
@@ -12094,7 +12220,7 @@
       <c r="B13" s="18" t="s">
         <v>1514</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>953</v>
       </c>
     </row>
@@ -12102,7 +12228,7 @@
       <c r="B14" t="s">
         <v>1515</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>954</v>
       </c>
     </row>
@@ -12110,7 +12236,7 @@
       <c r="B15" s="18" t="s">
         <v>1516</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>955</v>
       </c>
     </row>
@@ -12118,7 +12244,7 @@
       <c r="B16" s="18" t="s">
         <v>1517</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>963</v>
       </c>
     </row>
@@ -12126,7 +12252,7 @@
       <c r="B17" s="18" t="s">
         <v>1518</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>956</v>
       </c>
     </row>
@@ -12134,7 +12260,7 @@
       <c r="B18" t="s">
         <v>1519</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>957</v>
       </c>
     </row>
@@ -12142,7 +12268,7 @@
       <c r="B19" s="18" t="s">
         <v>1523</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>923</v>
       </c>
     </row>
@@ -12150,7 +12276,7 @@
       <c r="B20" s="18" t="s">
         <v>1524</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>958</v>
       </c>
     </row>
@@ -12158,7 +12284,7 @@
       <c r="B21" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12166,7 +12292,7 @@
       <c r="B22" s="18" t="s">
         <v>1526</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>960</v>
       </c>
     </row>
@@ -12174,7 +12300,7 @@
       <c r="B23" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -12182,7 +12308,7 @@
       <c r="B24" s="18" t="s">
         <v>1529</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>931</v>
       </c>
     </row>
@@ -12190,7 +12316,7 @@
       <c r="B25" s="18" t="s">
         <v>1530</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>933</v>
       </c>
     </row>
@@ -12198,12 +12324,12 @@
       <c r="B26" s="18" t="s">
         <v>1531</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>918</v>
       </c>
     </row>
@@ -12211,7 +12337,7 @@
       <c r="B28" s="18" t="s">
         <v>1532</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>929</v>
       </c>
     </row>
@@ -12222,7 +12348,7 @@
       <c r="B29" s="18" t="s">
         <v>1533</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>882</v>
       </c>
     </row>
@@ -12230,7 +12356,7 @@
       <c r="B30" s="18" t="s">
         <v>1536</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>887</v>
       </c>
     </row>
@@ -12238,542 +12364,421 @@
       <c r="B31" s="18" t="s">
         <v>1537</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1541</v>
+        <v>1550</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>1524</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C34" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
         <v>1545</v>
       </c>
-      <c r="C35" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>878</v>
+      <c r="C36" s="5" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>879</v>
+      <c r="B37" s="18" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>865</v>
+      <c r="B38" s="18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>868</v>
+      <c r="B39" s="18" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="15" t="s">
-        <v>970</v>
+      <c r="B40" s="18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
-        <v>939</v>
+      <c r="B41" s="18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="9" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="12" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="13" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
         <v>938</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="15" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="9" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="9" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="9" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="9" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="9" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="9" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="9" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="9" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="12" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="12" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="13" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="23" t="s">
-        <v>888</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
-    <hyperlink ref="C106" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
-    <hyperlink ref="C107" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
-    <hyperlink ref="C108" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
-    <hyperlink ref="C109" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
-    <hyperlink ref="C110" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
-    <hyperlink ref="C111" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
-    <hyperlink ref="C113" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
-    <hyperlink ref="C112" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
-    <hyperlink ref="C44" r:id="rId10" xr:uid="{CACF3F4B-FD60-4F5D-80DE-4F989827283B}"/>
-    <hyperlink ref="C45" r:id="rId11" xr:uid="{B621D8DE-A767-4BBD-BE22-640A75CA5D91}"/>
-    <hyperlink ref="C46" r:id="rId12" xr:uid="{E343DF28-D7C6-487D-8890-421CD37C42EB}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{393CD1D9-6D85-43AC-847D-1BF2CF74E366}"/>
-    <hyperlink ref="C48" r:id="rId14" xr:uid="{E118AE26-9368-4DE4-9299-26E63628339C}"/>
-    <hyperlink ref="C49" r:id="rId15" xr:uid="{D0393A7E-EC42-4E0E-A98F-C8F2B2386DB9}"/>
-    <hyperlink ref="C50" r:id="rId16" xr:uid="{45CA9E57-58A2-4669-B92E-D18354127A7A}"/>
-    <hyperlink ref="C51" r:id="rId17" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
-    <hyperlink ref="C52" r:id="rId18" xr:uid="{04F0B8E6-39DE-4116-A66A-09152BBF7CA1}"/>
-    <hyperlink ref="C53" r:id="rId19" xr:uid="{0042D724-A44C-49DB-8C11-798623C9F02E}"/>
-    <hyperlink ref="C54" r:id="rId20" xr:uid="{82C2869E-FB63-4D88-8258-85F9BF076209}"/>
-    <hyperlink ref="C55" r:id="rId21" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
-    <hyperlink ref="C56" r:id="rId22" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
-    <hyperlink ref="C57" r:id="rId23" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="C58" r:id="rId24" xr:uid="{7F7B17FD-BE50-4A04-835D-927E484FB8E1}"/>
-    <hyperlink ref="C59" r:id="rId25" xr:uid="{6C5A4EE0-E514-4B33-BA2B-26BB5453FE55}"/>
-    <hyperlink ref="C60" r:id="rId26" xr:uid="{9F0AA92C-C581-4FB2-88BD-43045313725E}"/>
-    <hyperlink ref="C61" r:id="rId27" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
-    <hyperlink ref="C62" r:id="rId28" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
-    <hyperlink ref="C63" r:id="rId29" xr:uid="{CE17CEF1-9490-446E-A22A-B4C8A5DB656A}"/>
-    <hyperlink ref="C64" r:id="rId30" xr:uid="{E1A24C18-823A-4306-8077-9A5DC1EA092E}"/>
-    <hyperlink ref="C65" r:id="rId31" xr:uid="{2F0B5BB0-87DC-43D1-BACB-384A98AFF5C1}"/>
-    <hyperlink ref="C66" r:id="rId32" xr:uid="{89FB00D7-0299-4541-AD03-9354C18AE10A}"/>
-    <hyperlink ref="C67" r:id="rId33" xr:uid="{D101A818-34FE-4E2E-B70F-64BB3B0AA327}"/>
-    <hyperlink ref="C68" r:id="rId34" xr:uid="{768B14C4-770A-4C55-8FA2-AC356966313C}"/>
-    <hyperlink ref="C69" r:id="rId35" xr:uid="{DA258324-2BCB-404B-8CAD-1C4F7D9C69F0}"/>
-    <hyperlink ref="C70" r:id="rId36" xr:uid="{4E66D9A3-1977-49B0-8CE0-D772D9935E89}"/>
-    <hyperlink ref="C71" r:id="rId37" xr:uid="{37AC3147-1434-402A-AE31-2D0AE7521865}"/>
-    <hyperlink ref="C105" r:id="rId38" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
-    <hyperlink ref="C104" r:id="rId39" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
-    <hyperlink ref="C103" r:id="rId40" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
-    <hyperlink ref="C102" r:id="rId41" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
-    <hyperlink ref="C101" r:id="rId42" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
-    <hyperlink ref="C100" r:id="rId43" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
-    <hyperlink ref="C99" r:id="rId44" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
-    <hyperlink ref="C98" r:id="rId45" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
-    <hyperlink ref="C97" r:id="rId46" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
-    <hyperlink ref="C96" r:id="rId47" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
-    <hyperlink ref="C72" r:id="rId48" xr:uid="{EC7E067B-B344-4215-B67F-066FFF3BB015}"/>
-    <hyperlink ref="C73" r:id="rId49" xr:uid="{3064A639-44E8-462A-B8B8-199B2145DA6A}"/>
-    <hyperlink ref="C74" r:id="rId50" xr:uid="{5F90A03D-704E-4363-B6C5-77E374A4C34C}"/>
-    <hyperlink ref="C75" r:id="rId51" xr:uid="{B2669C5D-06DE-4B76-9ED8-B7AD33812FAB}"/>
-    <hyperlink ref="C76" r:id="rId52" xr:uid="{EB935972-5A53-4EFE-B2ED-28DB075FF785}"/>
-    <hyperlink ref="C77" r:id="rId53" xr:uid="{82F21A45-69D3-4AFD-BAB6-F70E65634772}"/>
-    <hyperlink ref="C78" r:id="rId54" xr:uid="{3FE44C2B-044D-487D-99C7-CC11FD84EC70}"/>
-    <hyperlink ref="C79" r:id="rId55" xr:uid="{91662DE5-36FC-426A-BE97-2CF289DAA7E8}"/>
-    <hyperlink ref="C80" r:id="rId56" xr:uid="{F80B58BD-AE57-4872-8B78-9642CC138842}"/>
-    <hyperlink ref="C81" r:id="rId57" xr:uid="{EB15B0CA-38C8-4F63-AB4B-E2DCF42B030F}"/>
-    <hyperlink ref="C82" r:id="rId58" xr:uid="{209C6D8B-8EEF-4D33-A631-7B5200F2A7BC}"/>
-    <hyperlink ref="C83" r:id="rId59" xr:uid="{40C460FF-5039-45A0-9990-F58B898CC5D2}"/>
-    <hyperlink ref="C84" r:id="rId60" xr:uid="{D5C94AA2-457D-4EB3-9757-17E119BED846}"/>
-    <hyperlink ref="C85" r:id="rId61" xr:uid="{9A475341-5F99-4792-9D5B-EDE04D483C0F}"/>
-    <hyperlink ref="C86" r:id="rId62" xr:uid="{8E7485E5-7083-4D39-B2B8-82FB0DEFD5D3}"/>
-    <hyperlink ref="C87" r:id="rId63" xr:uid="{AF5B7AEA-2C18-4DCB-8319-296AF51ABD74}"/>
-    <hyperlink ref="C88" r:id="rId64" xr:uid="{F4F44B7B-7022-4C8C-A971-B9C7F106916A}"/>
-    <hyperlink ref="C89" r:id="rId65" xr:uid="{A4D574C0-F69B-47B4-B6BE-24BD59B1F37E}"/>
-    <hyperlink ref="C90" r:id="rId66" xr:uid="{725F13E7-12CF-42E8-B98B-9EA63EB5FE2D}"/>
-    <hyperlink ref="C91" r:id="rId67" xr:uid="{98547F72-A493-4133-8857-2EC85CD29A2D}"/>
-    <hyperlink ref="C92" r:id="rId68" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
-    <hyperlink ref="C93" r:id="rId69" xr:uid="{455178C1-F175-4580-B052-8E6DE4D7ECAD}"/>
-    <hyperlink ref="C94" r:id="rId70" xr:uid="{E287708F-2FC6-4C0F-B23B-FC0F1609F7A0}"/>
-    <hyperlink ref="C95" r:id="rId71" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="C19" r:id="rId72" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="C115" r:id="rId73" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
-    <hyperlink ref="C114" r:id="rId74" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
-    <hyperlink ref="C6" r:id="rId75" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
-    <hyperlink ref="C7" r:id="rId76" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
-    <hyperlink ref="C118" r:id="rId77" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
+    <hyperlink ref="C86" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
+    <hyperlink ref="C73" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
+    <hyperlink ref="C74" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
+    <hyperlink ref="C75" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
+    <hyperlink ref="C76" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
+    <hyperlink ref="C77" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
+    <hyperlink ref="C78" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
+    <hyperlink ref="C80" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
+    <hyperlink ref="C79" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
+    <hyperlink ref="C43" r:id="rId10" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
+    <hyperlink ref="C45" r:id="rId12" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
+    <hyperlink ref="C51" r:id="rId13" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
+    <hyperlink ref="C52" r:id="rId14" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
+    <hyperlink ref="C72" r:id="rId15" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
+    <hyperlink ref="C71" r:id="rId16" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
+    <hyperlink ref="C70" r:id="rId17" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
+    <hyperlink ref="C69" r:id="rId18" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
+    <hyperlink ref="C68" r:id="rId19" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
+    <hyperlink ref="C67" r:id="rId20" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
+    <hyperlink ref="C66" r:id="rId21" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
+    <hyperlink ref="C65" r:id="rId22" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
+    <hyperlink ref="C64" r:id="rId23" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
+    <hyperlink ref="C63" r:id="rId24" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
+    <hyperlink ref="C59" r:id="rId25" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
+    <hyperlink ref="C62" r:id="rId26" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
+    <hyperlink ref="C19" r:id="rId27" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C82" r:id="rId28" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
+    <hyperlink ref="C81" r:id="rId29" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
+    <hyperlink ref="C6" r:id="rId30" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
+    <hyperlink ref="C7" r:id="rId31" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
+    <hyperlink ref="C85" r:id="rId32" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
+    <hyperlink ref="C41" r:id="rId34" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
+    <hyperlink ref="C46" r:id="rId35" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C48" r:id="rId36" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
+    <hyperlink ref="C50" r:id="rId37" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
+    <hyperlink ref="C55" r:id="rId38" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
+    <hyperlink ref="C42" r:id="rId39" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
+    <hyperlink ref="C60" r:id="rId40" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD23023A-4746-4594-91E3-0B0BDBB9889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909BC19-AB46-4F94-A65C-0204A0E725E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="390" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1584">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4583,9 +4583,6 @@
     <t>ChannelHeading__ImageContainer-sc-17o11wq-2</t>
   </si>
   <si>
-    <t>close-button-module__button___nu_np,tune-button-module__solid___vhIa1</t>
-  </si>
-  <si>
     <t>button_ok,duration-200</t>
   </si>
   <si>
@@ -4682,9 +4679,6 @@
     <t>play-pause</t>
   </si>
   <si>
-    <t>vjs-play-control</t>
-  </si>
-  <si>
     <t>shoutcast779playbutton</t>
   </si>
   <si>
@@ -4775,9 +4769,6 @@
     <t>https://glz.co.il/%D7%92%D7%9C%D7%A6/%D7%AA%D7%95%D7%9B%D7%A0%D7%99%D7%95%D7%AA/%D7%97%D7%99%D7%99%D7%9D-%D7%A9%D7%9C-%D7%90%D7%97%D7%A8%D7%99%D7%9D</t>
   </si>
   <si>
-    <t>btn_234613</t>
-  </si>
-  <si>
     <t>https://www.100fm.co.il/program/%d7%a4%d7%a8%d7%99%d7%a9%d7%94-%d7%91%d7%a7%d7%9c%d7%99%d7%a7/</t>
   </si>
   <si>
@@ -4793,13 +4784,19 @@
     <t>https://www.bbc.co.uk/sounds/play/live/bbc_radio_one</t>
   </si>
   <si>
-    <t>p_audioui_playpause</t>
-  </si>
-  <si>
-    <t>onetrust-accept-btn-handler,pn-modal__button,audio-module-listen</t>
-  </si>
-  <si>
     <t>https://www.npr.org/2025/06/18/1254350237/the-npr-politics-podcast-iran-israel-trump-maga</t>
+  </si>
+  <si>
+    <t>playSvgIcon</t>
+  </si>
+  <si>
+    <t>popupCloseLink,vjs-play-control</t>
+  </si>
+  <si>
+    <t>onetrust-accept-btn-handler,pn-modal__close,audio-module-listen</t>
+  </si>
+  <si>
+    <t>close-button-module__button___nu_np</t>
   </si>
 </sst>
 </file>
@@ -11529,7 +11526,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>864</v>
@@ -11546,7 +11543,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11608,7 +11605,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1501</v>
@@ -11836,7 +11833,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1500</v>
@@ -11844,10 +11841,10 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -12103,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12116,7 +12113,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1" t="s">
         <v>1289</v>
@@ -12159,7 +12156,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>1507</v>
@@ -12202,7 +12199,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>1512</v>
+        <v>1583</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>950</v>
@@ -12210,7 +12207,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>951</v>
@@ -12218,7 +12215,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>953</v>
@@ -12226,7 +12223,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>954</v>
@@ -12234,7 +12231,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>955</v>
@@ -12242,7 +12239,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>963</v>
@@ -12250,7 +12247,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>956</v>
@@ -12258,7 +12255,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>957</v>
@@ -12266,7 +12263,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>923</v>
@@ -12274,7 +12271,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>958</v>
@@ -12282,7 +12279,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>959</v>
@@ -12290,7 +12287,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>960</v>
@@ -12298,15 +12295,15 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>931</v>
@@ -12314,7 +12311,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>933</v>
@@ -12322,7 +12319,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>915</v>
@@ -12335,7 +12332,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>929</v>
@@ -12343,10 +12340,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>882</v>
@@ -12354,7 +12351,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>887</v>
@@ -12362,7 +12359,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>893</v>
@@ -12370,18 +12367,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>908</v>
@@ -12389,7 +12386,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>910</v>
@@ -12397,7 +12394,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>913</v>
@@ -12405,7 +12402,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>1545</v>
+        <v>1581</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>865</v>
@@ -12413,7 +12410,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>970</v>
@@ -12421,15 +12418,15 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>972</v>
@@ -12437,31 +12434,29 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="9" t="s">
         <v>1553</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>706</v>
@@ -12469,7 +12464,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>710</v>
@@ -12477,7 +12472,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>711</v>
@@ -12485,7 +12480,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>712</v>
@@ -12493,37 +12488,37 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="9" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>716</v>
@@ -12531,7 +12526,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>717</v>
@@ -12539,74 +12534,72 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
-        <v>1582</v>
-      </c>
+      <c r="B60" s="18"/>
       <c r="C60" s="9" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F52486-BE63-44AD-8B4B-FB4E4E364344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEFF26-6050-42E6-B76B-CCE73ADD7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1659">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3599,9 +3599,6 @@
     <t>https://docs.google.com/spreadsheets/d/1PD5OUnHWnEzhfPl4h1mZCReWYjJOCx34FqbZonOEgs4/export?format=pdf</t>
   </si>
   <si>
-    <t>instant</t>
-  </si>
-  <si>
     <t>downloadButtonElement</t>
   </si>
   <si>
@@ -4782,6 +4779,249 @@
   </si>
   <si>
     <t>application/zip</t>
+  </si>
+  <si>
+    <t>https://audionautix.com/new_stuff.php</t>
+  </si>
+  <si>
+    <t>label--Ngqjq</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/urban-fashion-denim-outfit-9639853/</t>
+  </si>
+  <si>
+    <t>sa-icon-windows</t>
+  </si>
+  <si>
+    <t>https://send-anywhere.com/file-transfer</t>
+  </si>
+  <si>
+    <t>https://www.softpedia.com/get/Others/Home-Education/MCDM-Suite.shtml#download</t>
+  </si>
+  <si>
+    <t>spdlflag2</t>
+  </si>
+  <si>
+    <t>https://google-photos-desktop-uploader.en.softonic.com/download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js-download-btn-file </t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/xampp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download </t>
+  </si>
+  <si>
+    <t>dOeZz</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/uALOu8Rdv9M</t>
+  </si>
+  <si>
+    <t>detail-download-button</t>
+  </si>
+  <si>
+    <t>https://plants-vs-zombies.en.uptodown.com/windows/download</t>
+  </si>
+  <si>
+    <t>https://www.videvo.net/video/raindrops-in-super-slow-motion/3313/</t>
+  </si>
+  <si>
+    <t>toollink</t>
+  </si>
+  <si>
+    <t>https://www.videohelp.com/software/Free-Download-Manager-</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/Category:3D_city_models#/media/File:2019_City_of_London_3D_model.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikisource.org/wiki/A_Pipe_of_Tobacco</t>
+  </si>
+  <si>
+    <t>ui.compact.mini.button</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15711412</t>
+  </si>
+  <si>
+    <t>download-pill</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lmc-8.4-r-8</t>
+  </si>
+  <si>
+    <t>download-btn</t>
+  </si>
+  <si>
+    <t>https://librivox.org/author/5940?primary_key=5940&amp;search_category=author&amp;search_page=1&amp;search_form=get_results&amp;search_order=alpha</t>
+  </si>
+  <si>
+    <t>https://openlibrary.org/</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com/free-photo/young-woman-teacher-wearing-glasses-explaining-lesson-holding-stack-books-looking-confident-standing-school-desk-front-blackboard-classroom_26397314.htm#fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher</t>
+  </si>
+  <si>
+    <t>flex.items-center.gap-2.p-2.text-surface-foreground-3.hover:text-surface-foreground-1.shrink-0.font-semibold.text-sm.cursor-pointer</t>
+  </si>
+  <si>
+    <t>https://www.vecteezy.com/png/35672431-ai-generated-dog-on-transparent-background</t>
+  </si>
+  <si>
+    <t>.ez-btn.ez-btn--primary</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/</t>
+  </si>
+  <si>
+    <t>https://www.jamendo.com/</t>
+  </si>
+  <si>
+    <t>https://bandcamp.com/</t>
+  </si>
+  <si>
+    <t>https://datpiff.com/</t>
+  </si>
+  <si>
+    <t>https://whymusicmatters.com/</t>
+  </si>
+  <si>
+    <t>sm-app-url-block-btn</t>
+  </si>
+  <si>
+    <t>https://www.checkappsreviews.com/app.php?app=com.tubemp3.music.musicdownload.downloader&amp;utm_source=google&amp;utm_content=173492081938&amp;utm_campaign=22045817991&amp;gclid=EAIaIQobChMIyfH5vf-EjgMV8p6DBx0R9jNzEAAYAyAAEgI_yPD_BwE&amp;gad_source=5</t>
+  </si>
+  <si>
+    <t>world_WorldPost__link__HBqEt</t>
+  </si>
+  <si>
+    <t>https://audiomack.com/world/post/jorjiana-shark-challenge</t>
+  </si>
+  <si>
+    <t>https://musopen.org/music/?composer=ludwig-van-beethoven</t>
+  </si>
+  <si>
+    <t>https://freesound.org/</t>
+  </si>
+  <si>
+    <t>track-audio</t>
+  </si>
+  <si>
+    <t>https://ccmixter.org/files/mindmapthat/69837</t>
+  </si>
+  <si>
+    <t>downloadButton</t>
+  </si>
+  <si>
+    <t>https://freepd.com/#google_vignette</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/pixelantasy</t>
+  </si>
+  <si>
+    <t>PIxelantasy</t>
+  </si>
+  <si>
+    <t>https://gametextures.com/freebies</t>
+  </si>
+  <si>
+    <t>https://www.textures.com/download/free-3d-scanned-stone-wall-2x2-3x3-4x4-meters/133264</t>
+  </si>
+  <si>
+    <t>https://elements.envato.com/stock-video/3d+models?adposition=&amp;gad_source=5&amp;gad_campaignid=760817198&amp;gclid=EAIaIQobChMInr6wiIaFjgMVupSDBx1h-hwxEAAYAiAAEgLnq_D_BwE</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/3d-models?date=week&amp;features=downloadable&amp;sort_by=-likeCount&amp;cursor=bz0xJnA9MzI%3D</t>
+  </si>
+  <si>
+    <t>.hds-featured-link-list-button.margin-left-auto.margin-right-0</t>
+  </si>
+  <si>
+    <t>https://www.nasa.gov/history/history-publications-and-resources/nasa-history-series/archaeology-anthropology-and-interstellar-communication/</t>
+  </si>
+  <si>
+    <t>.btn.btn-secondary.btn-block</t>
+  </si>
+  <si>
+    <t>https://www.cgtrader.com/free-3d-print-models/miniatures/vehicles/volkswagen-beetle-1963-a3f66bdc-04dc-42d3-9741-16038dc61a0a</t>
+  </si>
+  <si>
+    <t>https://free3d.com/3d-model/rigged-male-human-442626.html</t>
+  </si>
+  <si>
+    <t>https://blendswap.com/blend/5733</t>
+  </si>
+  <si>
+    <t>.btn.btn-success.btn-block</t>
+  </si>
+  <si>
+    <t>https://openclipart.org/detail/351987/only-love</t>
+  </si>
+  <si>
+    <t>http://www.clker.com/</t>
+  </si>
+  <si>
+    <t>.btn.btn-green.btn-lg</t>
+  </si>
+  <si>
+    <t>https://publicdomainvectors.org/en/free-clipart/Man-holds-a-white-flag/92122.html</t>
+  </si>
+  <si>
+    <t>https://www.turbosquid.com/3d-models/wooden-barrel-2371986</t>
+  </si>
+  <si>
+    <t>https://grabcad.com/library/sparco-steering-wheel-2</t>
+  </si>
+  <si>
+    <t>https://www.freevectors.net/a-boy-open-a-book-with-his-magic-172129</t>
+  </si>
+  <si>
+    <t>.nowrap.py2.center.block.fit.btn.btn-primary</t>
+  </si>
+  <si>
+    <t>https://www.vectorstock.com/royalty-free-vector/retro-mens-beards-mustaches-vector-2347825</t>
+  </si>
+  <si>
+    <t>https://all-free-download.com/free-vector/download/logo_courier_sign_icon_flat_truck_outline_6922343.html</t>
+  </si>
+  <si>
+    <t>.btn.btn-success.download-button</t>
+  </si>
+  <si>
+    <t>https://freepsdfiles.net/download?id=10978</t>
+  </si>
+  <si>
+    <t>https://www.brusheezy.com/brushes/12765-watercolor-splatters-drips-brushes</t>
+  </si>
+  <si>
+    <t>download-resource-link.download-btn.btn.flat.ez-icon-download</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/meraxys/art/Zephyr-1199569890</t>
+  </si>
+  <si>
+    <t>dropdown__item</t>
+  </si>
+  <si>
+    <t>https://www.esa.int/ESA_Multimedia/Videos/2023/11/The_power_of_Earth_observation</t>
+  </si>
+  <si>
+    <t>https://xender.pro/app-download/</t>
+  </si>
+  <si>
+    <t>mb-text</t>
+  </si>
+  <si>
+    <t>https://100-downloads.com/programs/internet/opera/</t>
+  </si>
+  <si>
+    <t>text-contentCorePrimary</t>
+  </si>
+  <si>
+    <t>https://licensing.jamendo.com/en</t>
   </si>
 </sst>
 </file>
@@ -4991,7 +5231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5058,18 +5298,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9965,13 +10202,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,502 +10728,502 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -11009,7 +11246,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
@@ -11019,42 +11256,42 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -11069,7 +11306,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -11079,12 +11316,12 @@
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -11094,417 +11331,417 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -11529,13 +11766,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11658,7 +11895,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>971</v>
@@ -11666,7 +11903,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>884</v>
@@ -11688,7 +11925,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>886</v>
@@ -11696,7 +11933,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>873</v>
@@ -11728,7 +11965,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>881</v>
@@ -11757,10 +11994,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>897</v>
@@ -11768,7 +12005,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>898</v>
@@ -11776,7 +12013,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>899</v>
@@ -11789,7 +12026,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>901</v>
@@ -11807,7 +12044,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>905</v>
@@ -11815,7 +12052,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>906</v>
@@ -11823,7 +12060,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>907</v>
@@ -11841,7 +12078,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>912</v>
@@ -11854,7 +12091,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>916</v>
@@ -11867,7 +12104,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>919</v>
@@ -11881,7 +12118,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>924</v>
@@ -11894,10 +12131,10 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -11947,7 +12184,7 @@
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
@@ -12206,20 +12443,20 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12229,7 +12466,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>940</v>
@@ -12904,13 +13141,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13430,13 +13667,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13960,10 +14197,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13975,13 +14212,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13991,24 +14228,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>16</v>
@@ -14016,18 +14253,18 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H7" s="27"/>
     </row>
@@ -14047,10 +14284,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -14064,7 +14301,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="34" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E12" s="26"/>
     </row>
@@ -14076,10 +14313,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>25</v>
+        <v>1512</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14097,21 +14334,21 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>30</v>
@@ -14131,18 +14368,18 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>1518</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -14153,7 +14390,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>36</v>
@@ -14181,18 +14418,18 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>1523</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C31" s="40" t="s">
         <v>1525</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -14215,7 +14452,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>46</v>
@@ -14230,23 +14467,23 @@
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="30" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>1531</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -14257,18 +14494,18 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>1535</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -14285,50 +14522,50 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>1537</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C46" s="40" t="s">
         <v>1539</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>1541</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C48" s="36" t="s">
         <v>1543</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>1545</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -14339,10 +14576,10 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>1549</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -14359,18 +14596,18 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C55" s="40" t="s">
         <v>1551</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>1553</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -14381,16 +14618,16 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C58" s="40" t="s">
         <v>1555</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
-      <c r="C59" s="31" t="s">
-        <v>1557</v>
+      <c r="C59" s="38" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -14419,18 +14656,18 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C65" s="40" t="s">
         <v>1559</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -14441,10 +14678,10 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>1561</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -14455,10 +14692,10 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>1563</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -14469,49 +14706,51 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C71" s="32" t="s">
         <v>1565</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="21"/>
-      <c r="C72" s="33" t="s">
-        <v>61</v>
+      <c r="C72" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="21"/>
-      <c r="C73" s="34" t="s">
-        <v>84</v>
+      <c r="C73" s="33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="21"/>
-      <c r="C74" s="33" t="s">
-        <v>85</v>
+      <c r="B74" s="21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="21" t="s">
         <v>1568</v>
       </c>
-      <c r="C75" s="30" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="21"/>
-      <c r="C76" s="32" t="s">
-        <v>87</v>
+      <c r="C76" s="30" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C77" s="30" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>1570</v>
       </c>
     </row>
@@ -14519,496 +14758,530 @@
       <c r="B78" s="21" t="s">
         <v>1572</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>1571</v>
+      <c r="C78" s="37" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>1574</v>
+        <v>1579</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="21"/>
-      <c r="C80" s="35" t="s">
-        <v>91</v>
+      <c r="C80" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="21"/>
-      <c r="C81" s="33" t="s">
-        <v>92</v>
+      <c r="C81" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="21"/>
-      <c r="C82" s="34" t="s">
-        <v>93</v>
+      <c r="B82" s="21" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C83" s="30" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
-        <v>1578</v>
-      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="32" t="s">
-        <v>1577</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="21"/>
-      <c r="C85" s="36" t="s">
-        <v>96</v>
+      <c r="C85" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="21"/>
-      <c r="C86" s="36" t="s">
-        <v>97</v>
+      <c r="C86" s="33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="21"/>
-      <c r="C87" s="36" t="s">
-        <v>98</v>
+      <c r="C87" s="32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="21"/>
-      <c r="C88" s="36" t="s">
-        <v>99</v>
+      <c r="B88" s="21" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="21"/>
-      <c r="C89" s="36" t="s">
-        <v>100</v>
+      <c r="C89" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="21"/>
-      <c r="C90" s="36" t="s">
-        <v>101</v>
+      <c r="C90" s="33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="21"/>
-      <c r="C91" s="36" t="s">
-        <v>102</v>
+      <c r="C91" s="33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="21"/>
-      <c r="C92" s="36" t="s">
-        <v>103</v>
+      <c r="C92" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="21"/>
-      <c r="C93" s="36" t="s">
-        <v>104</v>
+      <c r="B93" s="21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="21"/>
-      <c r="C94" s="36" t="s">
-        <v>105</v>
+      <c r="B94" s="21" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="21"/>
-      <c r="C95" s="36" t="s">
-        <v>106</v>
+      <c r="C95" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="21"/>
-      <c r="C96" s="36" t="s">
-        <v>107</v>
+      <c r="B96" s="21" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="21"/>
-      <c r="C97" s="36" t="s">
-        <v>108</v>
+      <c r="C97" s="33" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="21"/>
-      <c r="C98" s="36" t="s">
-        <v>109</v>
+      <c r="C98" s="40" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="21"/>
-      <c r="C99" s="36" t="s">
-        <v>110</v>
+      <c r="C99" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="21"/>
-      <c r="C100" s="36" t="s">
-        <v>111</v>
+      <c r="C100" s="33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="21"/>
-      <c r="C101" s="36" t="s">
-        <v>112</v>
+      <c r="C101" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="21"/>
-      <c r="C102" s="36" t="s">
-        <v>113</v>
+      <c r="C102" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="21"/>
-      <c r="C103" s="36" t="s">
-        <v>114</v>
+      <c r="B103" s="21" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="21"/>
-      <c r="C104" s="36" t="s">
-        <v>115</v>
+      <c r="B104" s="21" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="21"/>
-      <c r="C105" s="36" t="s">
-        <v>116</v>
+      <c r="B105" s="21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="21"/>
-      <c r="C106" s="36" t="s">
-        <v>117</v>
+      <c r="B106" s="21" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="21"/>
-      <c r="C107" s="36" t="s">
-        <v>118</v>
+      <c r="C107" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="21"/>
-      <c r="C108" s="36" t="s">
-        <v>119</v>
+      <c r="C108" s="33" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="21"/>
-      <c r="C109" s="36" t="s">
-        <v>120</v>
+      <c r="C109" s="39" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="21"/>
-      <c r="C110" s="36" t="s">
-        <v>121</v>
+      <c r="C110" s="33" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="21"/>
-      <c r="C111" s="36" t="s">
-        <v>122</v>
+      <c r="B111" s="21" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="21"/>
-      <c r="C112" s="36" t="s">
-        <v>123</v>
+      <c r="B112" s="21" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="21"/>
-      <c r="C113" s="36" t="s">
-        <v>152</v>
+      <c r="C113" s="38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="21"/>
-      <c r="C114" s="36" t="s">
-        <v>147</v>
+      <c r="C114" s="40" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="21"/>
-      <c r="C115" s="36" t="s">
-        <v>150</v>
+      <c r="B115" s="21" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="21"/>
-      <c r="C116" s="36" t="s">
-        <v>161</v>
+      <c r="B116" s="21" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="21"/>
-      <c r="C117" s="36" t="s">
-        <v>149</v>
+      <c r="B117" s="21" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="21"/>
-      <c r="C118" s="36" t="s">
-        <v>148</v>
+      <c r="C118" s="33" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="21"/>
-      <c r="C119" s="36" t="s">
-        <v>153</v>
+      <c r="C119" s="38" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="21"/>
-      <c r="C120" s="36" t="s">
-        <v>154</v>
+      <c r="C120" s="40" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="21"/>
-      <c r="C121" s="36" t="s">
-        <v>155</v>
+      <c r="C121" s="40" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="21"/>
-      <c r="C122" s="36" t="s">
-        <v>168</v>
+      <c r="C122" s="40" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="21"/>
-      <c r="C123" s="36" t="s">
-        <v>169</v>
+      <c r="B123" s="21" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="21"/>
-      <c r="C124" s="36" t="s">
-        <v>157</v>
+      <c r="B124" s="21" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="21"/>
-      <c r="C125" s="36" t="s">
-        <v>159</v>
+      <c r="C125" s="38" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="21"/>
-      <c r="C126" s="36" t="s">
-        <v>158</v>
+      <c r="C126" s="38" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="21"/>
-      <c r="C127" s="36" t="s">
-        <v>170</v>
+      <c r="B127" s="21" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="21"/>
-      <c r="C128" s="36" t="s">
-        <v>171</v>
+      <c r="B128" s="21" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="21"/>
-      <c r="C129" s="36" t="s">
-        <v>172</v>
+      <c r="B129" s="21" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="21"/>
-      <c r="C130" s="36" t="s">
-        <v>160</v>
+      <c r="C130" s="38" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="21"/>
-      <c r="C131" s="36" t="s">
-        <v>173</v>
+      <c r="C131" s="38" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="21"/>
-      <c r="C132" s="36" t="s">
-        <v>151</v>
+      <c r="C132" s="38" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="21"/>
-      <c r="C133" s="36" t="s">
-        <v>174</v>
+      <c r="C133" s="38" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="21"/>
-      <c r="C134" s="36" t="s">
-        <v>175</v>
+      <c r="C134" s="38" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="21"/>
-      <c r="C135" s="36" t="s">
-        <v>176</v>
+      <c r="C135" s="38" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="21"/>
-      <c r="C136" s="36" t="s">
-        <v>177</v>
+      <c r="B136" s="21" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="21"/>
-      <c r="C137" s="36" t="s">
-        <v>178</v>
+      <c r="B137" s="21" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="21"/>
-      <c r="C138" s="36" t="s">
-        <v>179</v>
+      <c r="C138" s="39" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="21"/>
-      <c r="C139" s="36" t="s">
-        <v>180</v>
+      <c r="C139" s="38" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="21"/>
-      <c r="C140" s="36" t="s">
-        <v>181</v>
+      <c r="B140" s="21" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="21"/>
-      <c r="C141" s="36" t="s">
-        <v>182</v>
+      <c r="C141" s="40" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="21"/>
-      <c r="C142" s="36" t="s">
-        <v>183</v>
+      <c r="B142" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="21"/>
-      <c r="C143" s="36" t="s">
-        <v>184</v>
+      <c r="B143" s="21" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="21"/>
-      <c r="C144" s="36" t="s">
-        <v>185</v>
+      <c r="C144" s="39" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="21"/>
-      <c r="C145" s="36" t="s">
-        <v>186</v>
+      <c r="B145" s="21" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="21"/>
-      <c r="C146" s="36" t="s">
-        <v>156</v>
+      <c r="B146" s="21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="21"/>
-      <c r="C147" s="36" t="s">
-        <v>187</v>
+      <c r="B147" s="21" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="21"/>
-      <c r="C148" s="36" t="s">
-        <v>188</v>
+      <c r="C148" s="38" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="21"/>
-      <c r="C149" s="36" t="s">
-        <v>189</v>
+      <c r="B149" s="21" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="21"/>
-      <c r="C150" s="36" t="s">
-        <v>190</v>
+      <c r="C150" s="33" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="21"/>
-      <c r="C151" s="36" t="s">
-        <v>191</v>
+      <c r="C151" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="21"/>
-      <c r="C152" s="36" t="s">
-        <v>192</v>
+      <c r="B152" s="21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="21"/>
-      <c r="C153" s="36" t="s">
-        <v>193</v>
+      <c r="B153" s="21" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="21"/>
-      <c r="C154" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="21"/>
-      <c r="C155" s="38" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="21" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C156" s="39" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="21"/>
-      <c r="C157" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="21"/>
-      <c r="C158" s="37" t="s">
-        <v>15</v>
+      <c r="B154" s="21" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>1654</v>
       </c>
     </row>
   </sheetData>
@@ -15018,10 +15291,10 @@
     <hyperlink ref="C2" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
-    <hyperlink ref="C158" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
-    <hyperlink ref="C157" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
+    <hyperlink ref="C152" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
+    <hyperlink ref="C151" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
-    <hyperlink ref="C156" r:id="rId9" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="C150" r:id="rId9" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
@@ -15080,18 +15353,86 @@
     <hyperlink ref="C69" r:id="rId65" xr:uid="{D3246893-3FB0-40DF-8B20-1686D9D450DA}"/>
     <hyperlink ref="C70" r:id="rId66" xr:uid="{231A8279-B117-4F92-A2E2-F06FBB83AF2A}"/>
     <hyperlink ref="C71" r:id="rId67" xr:uid="{5D2770CE-1672-4FDE-8D9E-6D86E70E88D7}"/>
-    <hyperlink ref="C73" r:id="rId68" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
-    <hyperlink ref="C74" r:id="rId69" xr:uid="{0ACB5CBE-8908-4471-A689-373CE8DEB745}"/>
-    <hyperlink ref="C75" r:id="rId70" xr:uid="{FD609230-2D31-4E2E-B524-87A25007B12F}"/>
-    <hyperlink ref="C76" r:id="rId71" xr:uid="{C0AE8560-BE27-415A-AD0A-14E3797E5B20}"/>
-    <hyperlink ref="C77" r:id="rId72" xr:uid="{4868C4DD-96B1-44D7-8B96-F9295A5A0DCD}"/>
-    <hyperlink ref="C78" r:id="rId73" xr:uid="{25E5301F-61E6-43D2-A641-2F6026FF1480}"/>
-    <hyperlink ref="C79" r:id="rId74" xr:uid="{CBE9D00B-0CC6-4D93-8C7E-9C10BAAC47EE}"/>
-    <hyperlink ref="C80" r:id="rId75" xr:uid="{4D5A2527-8BE9-4F08-9D4C-87D6491402AB}"/>
-    <hyperlink ref="C81" r:id="rId76" xr:uid="{28E2B9FC-AB8B-44C7-8B21-0E1E522F10F7}"/>
-    <hyperlink ref="C82" r:id="rId77" xr:uid="{FA281B91-D05B-4C2B-B507-034DB0460365}"/>
-    <hyperlink ref="C83" r:id="rId78" xr:uid="{89740D7E-60F5-4477-B0F5-482D59C91D1D}"/>
-    <hyperlink ref="C84" r:id="rId79" xr:uid="{2EE40B56-5EA1-421E-863D-EBB257790F35}"/>
+    <hyperlink ref="C72" r:id="rId68" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
+    <hyperlink ref="C73" r:id="rId69" xr:uid="{0ACB5CBE-8908-4471-A689-373CE8DEB745}"/>
+    <hyperlink ref="C74" r:id="rId70" xr:uid="{FD609230-2D31-4E2E-B524-87A25007B12F}"/>
+    <hyperlink ref="C75" r:id="rId71" xr:uid="{C0AE8560-BE27-415A-AD0A-14E3797E5B20}"/>
+    <hyperlink ref="C76" r:id="rId72" xr:uid="{4868C4DD-96B1-44D7-8B96-F9295A5A0DCD}"/>
+    <hyperlink ref="C77" r:id="rId73" xr:uid="{25E5301F-61E6-43D2-A641-2F6026FF1480}"/>
+    <hyperlink ref="C78" r:id="rId74" xr:uid="{CBE9D00B-0CC6-4D93-8C7E-9C10BAAC47EE}"/>
+    <hyperlink ref="C79" r:id="rId75" xr:uid="{4D5A2527-8BE9-4F08-9D4C-87D6491402AB}"/>
+    <hyperlink ref="C80" r:id="rId76" xr:uid="{28E2B9FC-AB8B-44C7-8B21-0E1E522F10F7}"/>
+    <hyperlink ref="C81" r:id="rId77" xr:uid="{FA281B91-D05B-4C2B-B507-034DB0460365}"/>
+    <hyperlink ref="C82" r:id="rId78" xr:uid="{89740D7E-60F5-4477-B0F5-482D59C91D1D}"/>
+    <hyperlink ref="C83" r:id="rId79" xr:uid="{2EE40B56-5EA1-421E-863D-EBB257790F35}"/>
+    <hyperlink ref="C59" r:id="rId80" xr:uid="{0D69ECB9-6D5C-431C-80C2-EAF05F31B7F4}"/>
+    <hyperlink ref="C84" r:id="rId81" xr:uid="{D95162B2-AB17-430D-A4AA-59E72D376090}"/>
+    <hyperlink ref="C85" r:id="rId82" xr:uid="{3A8F3135-C2E5-42BB-B039-BC7B4D4CEB46}"/>
+    <hyperlink ref="C86" r:id="rId83" xr:uid="{33811B59-87F3-45DD-9166-C307BAC98B35}"/>
+    <hyperlink ref="C87" r:id="rId84" xr:uid="{BB4F0EFA-A1E0-4AAA-91C7-8886F4840C66}"/>
+    <hyperlink ref="C88" r:id="rId85" xr:uid="{0F18BA5D-0A7A-442D-AD02-F2C623AEA04F}"/>
+    <hyperlink ref="C89" r:id="rId86" xr:uid="{77B195E5-961B-4E0C-989E-BCAB90FE6D5A}"/>
+    <hyperlink ref="C90" r:id="rId87" xr:uid="{B98A95F5-8F2A-4445-ABDC-34E189C133C5}"/>
+    <hyperlink ref="C91" r:id="rId88" xr:uid="{5D7D8938-B362-47C3-9537-12308E080143}"/>
+    <hyperlink ref="C92" r:id="rId89" xr:uid="{592DA57C-A13F-43E9-8B81-3AECF9B3E245}"/>
+    <hyperlink ref="C93" r:id="rId90" location="download" xr:uid="{6A65D0F3-344D-43BA-9B91-9B0E06D8E2E6}"/>
+    <hyperlink ref="C94" r:id="rId91" xr:uid="{79F56FA6-8F91-4B9F-8B40-ECB07CED87AE}"/>
+    <hyperlink ref="C95" r:id="rId92" xr:uid="{F8BC4287-42BB-4D7F-BCC2-C5970212A8B7}"/>
+    <hyperlink ref="C96" r:id="rId93" xr:uid="{7D5221D7-7E6A-4274-B4CE-B5E04F892D2F}"/>
+    <hyperlink ref="C97" r:id="rId94" xr:uid="{D8A46ABB-98D1-422B-AE92-E9295766C282}"/>
+    <hyperlink ref="C98" r:id="rId95" xr:uid="{48415821-BF59-45C0-B636-B15716A8AFBE}"/>
+    <hyperlink ref="C99" r:id="rId96" xr:uid="{3F881E20-3181-4372-B4E2-6B3AF72EB3A5}"/>
+    <hyperlink ref="C100" r:id="rId97" xr:uid="{0444AA34-7704-4F15-B46C-22C38E0B5309}"/>
+    <hyperlink ref="C101" r:id="rId98" xr:uid="{F87C2EA2-D052-4A96-AB0D-42085AF2F6EA}"/>
+    <hyperlink ref="C102" r:id="rId99" xr:uid="{7E914BAB-4F68-4D85-BC6B-92D5DE40739C}"/>
+    <hyperlink ref="C103" r:id="rId100" xr:uid="{9BDF66C9-25BE-449E-828E-2EC717720208}"/>
+    <hyperlink ref="C104" r:id="rId101" xr:uid="{D0E8F201-9C1A-4BF1-8DA2-95046CD31165}"/>
+    <hyperlink ref="C105" r:id="rId102" xr:uid="{DC34E626-90BC-4E82-AC86-B39CDA345EC2}"/>
+    <hyperlink ref="C106" r:id="rId103" xr:uid="{E430BC28-7E12-486D-B301-68AA34A492DD}"/>
+    <hyperlink ref="C107" r:id="rId104" xr:uid="{C3115C55-EC7B-45E3-8662-226D73A716DD}"/>
+    <hyperlink ref="C108" r:id="rId105" xr:uid="{16E59904-31C8-48FB-A058-33975EA173F1}"/>
+    <hyperlink ref="C109" r:id="rId106" location="/media/File:2019_City_of_London_3D_model.jpg" xr:uid="{D8008C1B-63BB-4DAB-ADCD-C3A71D666E7C}"/>
+    <hyperlink ref="C110" r:id="rId107" xr:uid="{D1CCBCC4-9A44-4453-98DE-989C25F78BC3}"/>
+    <hyperlink ref="C111" r:id="rId108" xr:uid="{7F0DA02A-2A72-4557-9412-46FB6F76C781}"/>
+    <hyperlink ref="C112" r:id="rId109" xr:uid="{53A4E879-856F-436F-A8DC-3257683B02B1}"/>
+    <hyperlink ref="C115" r:id="rId110" xr:uid="{9F0C7A20-F85A-4FB3-B05E-58FBD30122EE}"/>
+    <hyperlink ref="C113" r:id="rId111" xr:uid="{4F49A94A-FCA6-46DC-B727-A9BEBBD65D84}"/>
+    <hyperlink ref="C114" r:id="rId112" xr:uid="{205D2E03-E232-42E5-B438-A6BC4AF79C03}"/>
+    <hyperlink ref="C116" r:id="rId113" location="fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" display="https://www.freepik.com/free-photo/young-woman-teacher-wearing-glasses-explaining-lesson-holding-stack-books-looking-confident-standing-school-desk-front-blackboard-classroom_26397314.htm#fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" xr:uid="{63CB67EA-23F9-45B4-9DC7-8FD2FB007797}"/>
+    <hyperlink ref="C117" r:id="rId114" xr:uid="{A52B4FAE-450E-4385-B259-61D9DDBF9587}"/>
+    <hyperlink ref="C118" r:id="rId115" xr:uid="{4879ACB0-AB3E-4858-9477-768BD1BC3B6F}"/>
+    <hyperlink ref="C153" r:id="rId116" xr:uid="{27F4667C-E73F-4D70-A01A-4C4795729965}"/>
+    <hyperlink ref="C119" r:id="rId117" xr:uid="{4A8F39D5-A16F-4A0B-8166-BB7AE8B590F1}"/>
+    <hyperlink ref="C120" r:id="rId118" xr:uid="{E729AAFB-923C-4752-9548-677B4A0CBCB1}"/>
+    <hyperlink ref="C121" r:id="rId119" xr:uid="{8602DFAA-7B01-4481-AA3B-F6EAE34449C9}"/>
+    <hyperlink ref="C122" r:id="rId120" xr:uid="{8EEDA427-C69D-4C39-8F43-58262A593AFE}"/>
+    <hyperlink ref="C123" r:id="rId121" xr:uid="{AB39E989-5BE0-483C-9750-97DBF6733693}"/>
+    <hyperlink ref="C124" r:id="rId122" xr:uid="{75694668-2FF0-43B0-BFF3-1F2C90B9B74A}"/>
+    <hyperlink ref="C125" r:id="rId123" xr:uid="{A5202F31-89AE-4187-BD14-11BC381A35E0}"/>
+    <hyperlink ref="C126" r:id="rId124" xr:uid="{BD8F8097-6FDD-48AF-8E0E-63FBF4EAEF19}"/>
+    <hyperlink ref="C127" r:id="rId125" xr:uid="{ABE75258-5BF6-44E1-8CA4-305E9FD2216F}"/>
+    <hyperlink ref="C128" r:id="rId126" location="google_vignette" xr:uid="{2A87507C-829A-410D-B0C6-309D4E3A2BD3}"/>
+    <hyperlink ref="C129" r:id="rId127" xr:uid="{625B0886-C44A-4063-8A39-4883D1980498}"/>
+    <hyperlink ref="C130" r:id="rId128" xr:uid="{CEE57B0B-A828-4DD4-83A8-A9C38D9D8DBE}"/>
+    <hyperlink ref="C131" r:id="rId129" xr:uid="{ADB11BDE-27E8-423F-AFDB-5FAAA3892804}"/>
+    <hyperlink ref="C132" r:id="rId130" xr:uid="{DE3934B6-FED0-4609-A6E0-986ABAC1CE69}"/>
+    <hyperlink ref="C134" r:id="rId131" xr:uid="{4156FCA5-20E1-4801-A3EB-FB1100E2354A}"/>
+    <hyperlink ref="C136" r:id="rId132" xr:uid="{1B83D7CB-D69B-498C-9CAC-4BB8F195C9F4}"/>
+    <hyperlink ref="C137" r:id="rId133" xr:uid="{ED7E2358-B5A9-4DA1-89AC-42221E44451D}"/>
+    <hyperlink ref="C138" r:id="rId134" xr:uid="{00B2CF8C-A349-46F9-99D0-73A40EAC8BCD}"/>
+    <hyperlink ref="C139" r:id="rId135" xr:uid="{0168C140-1EBD-4635-A27B-A1F6DB707B99}"/>
+    <hyperlink ref="C140" r:id="rId136" xr:uid="{32E59C3E-FA98-4923-8EE6-5E998F112CE1}"/>
+    <hyperlink ref="C141" r:id="rId137" xr:uid="{98D84775-7F44-47A9-BD91-2984B1DD5E7A}"/>
+    <hyperlink ref="C142" r:id="rId138" xr:uid="{50CF528A-B2AD-4844-863A-ED656E183E4D}"/>
+    <hyperlink ref="C133" r:id="rId139" xr:uid="{F6802C6B-31C7-43A4-9758-44BBE446B47A}"/>
+    <hyperlink ref="C135" r:id="rId140" xr:uid="{0E7140E4-72ED-43C7-9ACB-E28E8B6AEBA4}"/>
+    <hyperlink ref="C143" r:id="rId141" xr:uid="{B58922D1-EFBD-4E0F-B032-F3D207B54A16}"/>
+    <hyperlink ref="C145" r:id="rId142" xr:uid="{25F446AC-A40C-4543-890F-2EFC06F6FC1E}"/>
+    <hyperlink ref="C146" r:id="rId143" xr:uid="{3B322F6E-7E7F-4DE7-95E7-C3DBF7ABB633}"/>
+    <hyperlink ref="C147" r:id="rId144" xr:uid="{3ED732A0-1BE2-420B-93EC-8C04838DC24D}"/>
+    <hyperlink ref="C148" r:id="rId145" xr:uid="{6E223FF5-B6CD-4E57-8DBA-4F47D5A4544F}"/>
+    <hyperlink ref="C149" r:id="rId146" xr:uid="{8BA115F0-9A73-4E7E-8C04-39FF7AABC875}"/>
+    <hyperlink ref="C154" r:id="rId147" xr:uid="{C8852A29-E984-41D6-865B-C7F453D536FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15112,21 +15453,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15134,493 +15475,493 @@
         <v>967</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEFF26-6050-42E6-B76B-CCE73ADD7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E08FEF-820D-4F23-9912-991E83B9482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1696">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4562,9 +4562,6 @@
     <t>https://almalinux.org/get-almalinux/</t>
   </si>
   <si>
-    <t>itemAl_01</t>
-  </si>
-  <si>
     <t>https://www.learningcontainer.com/download/sample-pdf-file-for-testing/</t>
   </si>
   <si>
@@ -4640,9 +4637,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>https://www.fosshub.com/1by1.html</t>
-  </si>
-  <si>
     <t>https://gamejolt.com/app</t>
   </si>
   <si>
@@ -4838,9 +4832,6 @@
     <t>https://commons.wikimedia.org/wiki/Category:3D_city_models#/media/File:2019_City_of_London_3D_model.jpg</t>
   </si>
   <si>
-    <t>https://en.wikisource.org/wiki/A_Pipe_of_Tobacco</t>
-  </si>
-  <si>
     <t>ui.compact.mini.button</t>
   </si>
   <si>
@@ -4853,15 +4844,6 @@
     <t>https://archive.org/details/lmc-8.4-r-8</t>
   </si>
   <si>
-    <t>download-btn</t>
-  </si>
-  <si>
-    <t>https://librivox.org/author/5940?primary_key=5940&amp;search_category=author&amp;search_page=1&amp;search_form=get_results&amp;search_order=alpha</t>
-  </si>
-  <si>
-    <t>https://openlibrary.org/</t>
-  </si>
-  <si>
     <t>https://www.freepik.com/free-photo/young-woman-teacher-wearing-glasses-explaining-lesson-holding-stack-books-looking-confident-standing-school-desk-front-blackboard-classroom_26397314.htm#fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher</t>
   </si>
   <si>
@@ -4880,9 +4862,6 @@
     <t>https://www.jamendo.com/</t>
   </si>
   <si>
-    <t>https://bandcamp.com/</t>
-  </si>
-  <si>
     <t>https://datpiff.com/</t>
   </si>
   <si>
@@ -4961,9 +4940,6 @@
     <t>https://openclipart.org/detail/351987/only-love</t>
   </si>
   <si>
-    <t>http://www.clker.com/</t>
-  </si>
-  <si>
     <t>.btn.btn-green.btn-lg</t>
   </si>
   <si>
@@ -5022,6 +4998,141 @@
   </si>
   <si>
     <t>https://licensing.jamendo.com/en</t>
+  </si>
+  <si>
+    <t>book-download-btn</t>
+  </si>
+  <si>
+    <t>https://librivox.org/transient-by-ward-moore/</t>
+  </si>
+  <si>
+    <t>https://www.fosshub.com/3uTools.html</t>
+  </si>
+  <si>
+    <t>downloadButtonSubtitle</t>
+  </si>
+  <si>
+    <t>https://www.apkmirror.com/apk/google-inc/maps/google-maps-25-26-01-774458481-release/google-maps-25-26-01-774458481-android-apk-download/</t>
+  </si>
+  <si>
+    <t>.nav-link.btn.btn.al-download-button</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>https://www.7-zip.org/</t>
+  </si>
+  <si>
+    <t>https://archlinux.org/download/</t>
+  </si>
+  <si>
+    <t>Download.torrent</t>
+  </si>
+  <si>
+    <t>https://www.win-rar.com/download.html?&amp;L=0</t>
+  </si>
+  <si>
+    <t>dwn-btn</t>
+  </si>
+  <si>
+    <t>https://www.python.org/downloads/</t>
+  </si>
+  <si>
+    <t>download-buttons</t>
+  </si>
+  <si>
+    <t>.btn.btn-primary.btn-sm</t>
+  </si>
+  <si>
+    <t>https://incompetech.com/music/royalty-free/index.html?isrc=USUAN1200067&amp;Search=Search</t>
+  </si>
+  <si>
+    <t>.format-summary.download-pill</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/dn2025-0625_vid</t>
+  </si>
+  <si>
+    <t>https://ocw.mit.edu/courses/res-18-010-a-2020-vision-of-linear-algebra-spring-2020/download/</t>
+  </si>
+  <si>
+    <t>download-course-button.p-2</t>
+  </si>
+  <si>
+    <t>https://www.fontspace.com/dangernight-font-f86845</t>
+  </si>
+  <si>
+    <t>.button.rounded-large.rounded-gradient.large.icon-left</t>
+  </si>
+  <si>
+    <t>https://www.vidsplay.com/fall-foliage-aerial/</t>
+  </si>
+  <si>
+    <t>main-button.section--one__article__left__main-button</t>
+  </si>
+  <si>
+    <t>https://www.freedownloadmanager.org/</t>
+  </si>
+  <si>
+    <t>btn_text</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/download/</t>
+  </si>
+  <si>
+    <t>wporg-modal__toggle wp-block-button__link</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>https://www.neatdownloadmanager.com/index.php/en/</t>
+  </si>
+  <si>
+    <t>https://mattel163-limited-uno.en.uptodown.com/android/download</t>
+  </si>
+  <si>
+    <t>.button.download.active</t>
+  </si>
+  <si>
+    <t>btn-text</t>
+  </si>
+  <si>
+    <t>https://www.nvidia.com/en-eu/software/nvidia-app/</t>
+  </si>
+  <si>
+    <t>https://dotnet.microsoft.com/en-us/download</t>
+  </si>
+  <si>
+    <t>btn-magenta</t>
+  </si>
+  <si>
+    <t>https://www.webex.com/downloads.html</t>
+  </si>
+  <si>
+    <t>https://www.elastic.co/downloads/elasticsearch</t>
+  </si>
+  <si>
+    <t>button.icon-left.btn-primary.icon</t>
+  </si>
+  <si>
+    <t>https://www.postman.com/downloads/</t>
+  </si>
+  <si>
+    <t>.BaseButtonStyles-sc-18tp7ed-0.BaseButtonStyles__Primary-sc-18tp7ed-1.hSAEqA.hjMGj.mx-auto.w-100.mb-4</t>
+  </si>
+  <si>
+    <t>cmp-button</t>
+  </si>
+  <si>
+    <t>https://www.teamviewer.com/en-mea/download/windows/</t>
+  </si>
+  <si>
+    <t>https://www.viber.com/en/download/</t>
+  </si>
+  <si>
+    <t>global-btn</t>
   </si>
 </sst>
 </file>
@@ -14199,8 +14310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E72B0-2073-4444-9809-60DAAE64F1E8}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14228,18 +14339,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -14261,7 +14372,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>1505</v>
+        <v>1656</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>1504</v>
@@ -14269,54 +14380,62 @@
       <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="33" t="s">
-        <v>19</v>
+      <c r="B8" s="21" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="34" t="s">
-        <v>20</v>
+      <c r="B9" s="21" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1655</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="33" t="s">
-        <v>22</v>
+      <c r="B11" s="21" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1659</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="34" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
+      <c r="B13" s="21" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14326,9 +14445,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="33" t="s">
-        <v>27</v>
+      <c r="B16" s="21" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1663</v>
       </c>
       <c r="G16" s="26"/>
     </row>
@@ -14340,15 +14461,15 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>30</v>
@@ -14368,18 +14489,18 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>1517</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -14390,7 +14511,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>36</v>
@@ -14418,18 +14539,18 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>1522</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -14452,7 +14573,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>46</v>
@@ -14467,51 +14588,55 @@
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="30" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>1531</v>
+        <v>1529</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="33" t="s">
-        <v>51</v>
+      <c r="B40" s="21" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="33" t="s">
-        <v>54</v>
+      <c r="B43" s="21" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -14522,50 +14647,50 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -14576,16 +14701,18 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
-      <c r="C53" s="33" t="s">
-        <v>65</v>
+      <c r="B53" s="21" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -14596,18 +14723,18 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -14618,16 +14745,16 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
       <c r="C59" s="38" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -14649,25 +14776,27 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="21"/>
-      <c r="C63" s="33" t="s">
-        <v>75</v>
+      <c r="B63" s="21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -14678,10 +14807,10 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -14692,24 +14821,26 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="21"/>
-      <c r="C70" s="33" t="s">
-        <v>82</v>
+      <c r="B70" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -14719,17 +14850,19 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="21"/>
-      <c r="C73" s="33" t="s">
-        <v>85</v>
+      <c r="B73" s="21" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="21" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -14740,40 +14873,42 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="21"/>
-      <c r="C80" s="33" t="s">
-        <v>92</v>
+      <c r="B80" s="21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -14784,18 +14919,18 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -14805,15 +14940,19 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
-      <c r="C85" s="33" t="s">
-        <v>97</v>
+      <c r="B85" s="21" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="21"/>
-      <c r="C86" s="33" t="s">
-        <v>98</v>
+      <c r="B86" s="21" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -14824,10 +14963,10 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -14856,38 +14995,42 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="21"/>
-      <c r="C95" s="33" t="s">
-        <v>107</v>
+      <c r="B95" s="21" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="21" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="21"/>
-      <c r="C97" s="33" t="s">
-        <v>109</v>
+      <c r="B97" s="21" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -14922,34 +15065,34 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -14959,37 +15102,41 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="21"/>
-      <c r="C108" s="33" t="s">
-        <v>120</v>
+      <c r="B108" s="21" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="21"/>
       <c r="C109" s="39" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="21"/>
-      <c r="C110" s="33" t="s">
-        <v>1597</v>
+      <c r="B110" s="21" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -14999,253 +15146,259 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="21"/>
-      <c r="C114" s="40" t="s">
-        <v>1604</v>
+      <c r="B114" s="21" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="21" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C115" s="39" t="s">
-        <v>1603</v>
+        <v>1651</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="21" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="21"/>
       <c r="C118" s="33" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="21"/>
       <c r="C119" s="38" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="21"/>
-      <c r="C120" s="40" t="s">
-        <v>1611</v>
+      <c r="B120" s="21" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="21"/>
       <c r="C121" s="40" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="21"/>
       <c r="C122" s="40" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="21"/>
       <c r="C125" s="38" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="21"/>
       <c r="C126" s="38" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="21"/>
       <c r="C130" s="38" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="21"/>
       <c r="C131" s="38" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="21"/>
       <c r="C132" s="38" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="21"/>
       <c r="C133" s="38" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="21"/>
       <c r="C134" s="38" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="21"/>
       <c r="C135" s="38" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="21"/>
       <c r="C138" s="39" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="21"/>
       <c r="C139" s="38" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="21" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="21"/>
-      <c r="C141" s="40" t="s">
-        <v>1638</v>
+      <c r="B141" s="21" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="21" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="21" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="21"/>
       <c r="C144" s="39" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="21" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="21" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="21"/>
       <c r="C148" s="38" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="21" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -15262,177 +15415,177 @@
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="21" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="21" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="21" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{DF92E3AF-87D7-4B60-9BCE-C8679249E5F3}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
-    <hyperlink ref="C152" r:id="rId6" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
-    <hyperlink ref="C151" r:id="rId7" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
-    <hyperlink ref="C150" r:id="rId9" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
-    <hyperlink ref="C6" r:id="rId13" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{2FC526BD-C17D-437A-89AD-2FE28D6023C2}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{795EF266-492D-4C9F-A273-BD6048CB91FF}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{B78E1107-D09B-41CD-9A06-AF7C646D7F34}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{C9C027E3-C537-4F76-8B9F-FC7F498413E7}"/>
-    <hyperlink ref="C16" r:id="rId18" xr:uid="{BD32B382-FF07-4779-84A0-8BF88791EE61}"/>
-    <hyperlink ref="C17" r:id="rId19" xr:uid="{48ABC56C-60F8-4031-AE13-229847B91E92}"/>
-    <hyperlink ref="C18" r:id="rId20" xr:uid="{DB6A5354-22C6-40D5-9F50-9114BCFEF34E}"/>
-    <hyperlink ref="C19" r:id="rId21" xr:uid="{B5ABA31D-6FB7-4BA6-967E-923B838BEEA4}"/>
-    <hyperlink ref="C20" r:id="rId22" xr:uid="{6800F8E5-2104-4862-8630-2B6A1DE67597}"/>
-    <hyperlink ref="C21" r:id="rId23" xr:uid="{B5DA938E-D079-4252-94EE-937E3423F762}"/>
-    <hyperlink ref="C22" r:id="rId24" xr:uid="{8D647959-9418-4455-ACD2-918F5446F8B0}"/>
-    <hyperlink ref="C25" r:id="rId25" xr:uid="{0D35BE23-3125-44DF-AA15-BC9A13DAD4E0}"/>
-    <hyperlink ref="C23" r:id="rId26" xr:uid="{169E3BA7-6164-4A7F-9A88-84FF97BD02D6}"/>
-    <hyperlink ref="C24" r:id="rId27" xr:uid="{47D2533C-CE22-4504-A95C-D5DAC4A41415}"/>
-    <hyperlink ref="C27" r:id="rId28" xr:uid="{71F93FA1-617F-412E-9DFF-6E0D7405FB30}"/>
-    <hyperlink ref="C26" r:id="rId29" xr:uid="{064D4F68-8AE7-489F-A1CF-C7BFC9D2241D}"/>
-    <hyperlink ref="C28" r:id="rId30" xr:uid="{19B5E5DC-7AAC-4FCE-992A-E33AB214DA65}"/>
-    <hyperlink ref="C29" r:id="rId31" xr:uid="{350F50E6-C4D9-4F3A-B53D-144690D03D5A}"/>
-    <hyperlink ref="C30" r:id="rId32" location="google_vignette" xr:uid="{3754E26C-D7C6-40D3-B586-6975F6F56209}"/>
-    <hyperlink ref="C31" r:id="rId33" xr:uid="{537E3572-23A5-4B1C-94E7-1F64C6EB61B9}"/>
-    <hyperlink ref="C32" r:id="rId34" xr:uid="{B4520193-AB5F-40C5-9A4B-26529026A72E}"/>
-    <hyperlink ref="C33" r:id="rId35" xr:uid="{A9D65C0A-24AE-4D5B-BD49-0C336C536161}"/>
-    <hyperlink ref="C34" r:id="rId36" xr:uid="{18649552-0041-4234-A3EB-DFC8EC413712}"/>
-    <hyperlink ref="C35" r:id="rId37" xr:uid="{35032743-80F9-4C55-9D67-F35944398F85}"/>
-    <hyperlink ref="C36" r:id="rId38" xr:uid="{4F606619-1E1C-41D9-B617-DA116A1C0CA3}"/>
-    <hyperlink ref="C37" r:id="rId39" xr:uid="{B6F7B2EB-02A0-4D9E-A822-8BDA8286FC10}"/>
-    <hyperlink ref="C38" r:id="rId40" xr:uid="{74EB49E7-58BC-4E6C-B75B-265813B243D2}"/>
-    <hyperlink ref="C39" r:id="rId41" xr:uid="{4257C921-4F81-44E4-B6CA-183BE662305F}"/>
-    <hyperlink ref="C40" r:id="rId42" xr:uid="{A65B2ECB-F8D3-4FF6-8201-C7D0EBD6A9F1}"/>
-    <hyperlink ref="C41" r:id="rId43" xr:uid="{C8A70CAD-E2DA-4809-B1D1-2F662B3D0486}"/>
-    <hyperlink ref="C42" r:id="rId44" xr:uid="{2F69EF8D-C6D5-44FB-A957-5FAD77F891F0}"/>
-    <hyperlink ref="C43" r:id="rId45" xr:uid="{B9939436-D276-4A35-B3B5-8E625EBA6037}"/>
-    <hyperlink ref="C44" r:id="rId46" xr:uid="{E8D3DF2E-D6BC-47CA-AF40-8D1C537A5571}"/>
-    <hyperlink ref="C45" r:id="rId47" xr:uid="{5C1BD0FA-31B0-4F22-981A-667C6150C2E6}"/>
-    <hyperlink ref="C46" r:id="rId48" xr:uid="{814E9C6C-074D-4418-829E-E1F3359B338F}"/>
-    <hyperlink ref="C50" r:id="rId49" location="kali-installer-images" xr:uid="{E1BCFBC9-0B68-431D-90DA-0369C5382AD4}"/>
-    <hyperlink ref="C47" r:id="rId50" xr:uid="{EC716333-E69B-4EFE-BE63-E604B21F9EBF}"/>
-    <hyperlink ref="C48" r:id="rId51" xr:uid="{743525DA-D392-4530-8242-1F48B502FA4E}"/>
-    <hyperlink ref="C49" r:id="rId52" xr:uid="{A38A5E98-F896-46B4-8A2E-3E80D787816F}"/>
-    <hyperlink ref="C51" r:id="rId53" xr:uid="{823493CB-2620-4D09-AA8F-7A9857E24D01}"/>
-    <hyperlink ref="C53" r:id="rId54" xr:uid="{8183C350-9FC9-4B12-BAD5-4152FEE6040A}"/>
-    <hyperlink ref="C54" r:id="rId55" xr:uid="{8FDE9EF9-40DB-4296-9945-146497DF033A}"/>
-    <hyperlink ref="C55" r:id="rId56" xr:uid="{1E30EDA7-8A17-490D-89DD-F09092EF3230}"/>
-    <hyperlink ref="C56" r:id="rId57" xr:uid="{7D60A2E9-1459-4CC0-A3D8-3F8B6D24EDD7}"/>
-    <hyperlink ref="C57" r:id="rId58" xr:uid="{9FB30596-CDD4-47A8-AE6B-CAC81B53BAC0}"/>
-    <hyperlink ref="C58" r:id="rId59" xr:uid="{D0CFA84A-4EB8-4E3A-854E-9AFE4E3FDA16}"/>
-    <hyperlink ref="C64" r:id="rId60" xr:uid="{A9D99C97-92B1-4979-B86E-32BC99DCF5D6}"/>
-    <hyperlink ref="C65" r:id="rId61" xr:uid="{123E1AAE-E0F6-4625-8F67-8146F97BB4E1}"/>
-    <hyperlink ref="C67" r:id="rId62" xr:uid="{B91B8090-78B6-48FF-A863-E1651AB8D7CF}"/>
-    <hyperlink ref="C66" r:id="rId63" xr:uid="{7048EAAD-48CA-4B1B-A3F7-F4F1EA614A73}"/>
-    <hyperlink ref="C68" r:id="rId64" xr:uid="{354DCF7C-3DC5-4A83-A807-C4E207675DF1}"/>
-    <hyperlink ref="C69" r:id="rId65" xr:uid="{D3246893-3FB0-40DF-8B20-1686D9D450DA}"/>
-    <hyperlink ref="C70" r:id="rId66" xr:uid="{231A8279-B117-4F92-A2E2-F06FBB83AF2A}"/>
-    <hyperlink ref="C71" r:id="rId67" xr:uid="{5D2770CE-1672-4FDE-8D9E-6D86E70E88D7}"/>
-    <hyperlink ref="C72" r:id="rId68" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
-    <hyperlink ref="C73" r:id="rId69" xr:uid="{0ACB5CBE-8908-4471-A689-373CE8DEB745}"/>
-    <hyperlink ref="C74" r:id="rId70" xr:uid="{FD609230-2D31-4E2E-B524-87A25007B12F}"/>
-    <hyperlink ref="C75" r:id="rId71" xr:uid="{C0AE8560-BE27-415A-AD0A-14E3797E5B20}"/>
-    <hyperlink ref="C76" r:id="rId72" xr:uid="{4868C4DD-96B1-44D7-8B96-F9295A5A0DCD}"/>
-    <hyperlink ref="C77" r:id="rId73" xr:uid="{25E5301F-61E6-43D2-A641-2F6026FF1480}"/>
-    <hyperlink ref="C78" r:id="rId74" xr:uid="{CBE9D00B-0CC6-4D93-8C7E-9C10BAAC47EE}"/>
-    <hyperlink ref="C79" r:id="rId75" xr:uid="{4D5A2527-8BE9-4F08-9D4C-87D6491402AB}"/>
-    <hyperlink ref="C80" r:id="rId76" xr:uid="{28E2B9FC-AB8B-44C7-8B21-0E1E522F10F7}"/>
-    <hyperlink ref="C81" r:id="rId77" xr:uid="{FA281B91-D05B-4C2B-B507-034DB0460365}"/>
-    <hyperlink ref="C82" r:id="rId78" xr:uid="{89740D7E-60F5-4477-B0F5-482D59C91D1D}"/>
-    <hyperlink ref="C83" r:id="rId79" xr:uid="{2EE40B56-5EA1-421E-863D-EBB257790F35}"/>
-    <hyperlink ref="C59" r:id="rId80" xr:uid="{0D69ECB9-6D5C-431C-80C2-EAF05F31B7F4}"/>
-    <hyperlink ref="C84" r:id="rId81" xr:uid="{D95162B2-AB17-430D-A4AA-59E72D376090}"/>
-    <hyperlink ref="C85" r:id="rId82" xr:uid="{3A8F3135-C2E5-42BB-B039-BC7B4D4CEB46}"/>
-    <hyperlink ref="C86" r:id="rId83" xr:uid="{33811B59-87F3-45DD-9166-C307BAC98B35}"/>
-    <hyperlink ref="C87" r:id="rId84" xr:uid="{BB4F0EFA-A1E0-4AAA-91C7-8886F4840C66}"/>
-    <hyperlink ref="C88" r:id="rId85" xr:uid="{0F18BA5D-0A7A-442D-AD02-F2C623AEA04F}"/>
-    <hyperlink ref="C89" r:id="rId86" xr:uid="{77B195E5-961B-4E0C-989E-BCAB90FE6D5A}"/>
-    <hyperlink ref="C90" r:id="rId87" xr:uid="{B98A95F5-8F2A-4445-ABDC-34E189C133C5}"/>
-    <hyperlink ref="C91" r:id="rId88" xr:uid="{5D7D8938-B362-47C3-9537-12308E080143}"/>
-    <hyperlink ref="C92" r:id="rId89" xr:uid="{592DA57C-A13F-43E9-8B81-3AECF9B3E245}"/>
-    <hyperlink ref="C93" r:id="rId90" location="download" xr:uid="{6A65D0F3-344D-43BA-9B91-9B0E06D8E2E6}"/>
-    <hyperlink ref="C94" r:id="rId91" xr:uid="{79F56FA6-8F91-4B9F-8B40-ECB07CED87AE}"/>
-    <hyperlink ref="C95" r:id="rId92" xr:uid="{F8BC4287-42BB-4D7F-BCC2-C5970212A8B7}"/>
-    <hyperlink ref="C96" r:id="rId93" xr:uid="{7D5221D7-7E6A-4274-B4CE-B5E04F892D2F}"/>
-    <hyperlink ref="C97" r:id="rId94" xr:uid="{D8A46ABB-98D1-422B-AE92-E9295766C282}"/>
-    <hyperlink ref="C98" r:id="rId95" xr:uid="{48415821-BF59-45C0-B636-B15716A8AFBE}"/>
-    <hyperlink ref="C99" r:id="rId96" xr:uid="{3F881E20-3181-4372-B4E2-6B3AF72EB3A5}"/>
-    <hyperlink ref="C100" r:id="rId97" xr:uid="{0444AA34-7704-4F15-B46C-22C38E0B5309}"/>
-    <hyperlink ref="C101" r:id="rId98" xr:uid="{F87C2EA2-D052-4A96-AB0D-42085AF2F6EA}"/>
-    <hyperlink ref="C102" r:id="rId99" xr:uid="{7E914BAB-4F68-4D85-BC6B-92D5DE40739C}"/>
-    <hyperlink ref="C103" r:id="rId100" xr:uid="{9BDF66C9-25BE-449E-828E-2EC717720208}"/>
-    <hyperlink ref="C104" r:id="rId101" xr:uid="{D0E8F201-9C1A-4BF1-8DA2-95046CD31165}"/>
-    <hyperlink ref="C105" r:id="rId102" xr:uid="{DC34E626-90BC-4E82-AC86-B39CDA345EC2}"/>
-    <hyperlink ref="C106" r:id="rId103" xr:uid="{E430BC28-7E12-486D-B301-68AA34A492DD}"/>
-    <hyperlink ref="C107" r:id="rId104" xr:uid="{C3115C55-EC7B-45E3-8662-226D73A716DD}"/>
-    <hyperlink ref="C108" r:id="rId105" xr:uid="{16E59904-31C8-48FB-A058-33975EA173F1}"/>
-    <hyperlink ref="C109" r:id="rId106" location="/media/File:2019_City_of_London_3D_model.jpg" xr:uid="{D8008C1B-63BB-4DAB-ADCD-C3A71D666E7C}"/>
-    <hyperlink ref="C110" r:id="rId107" xr:uid="{D1CCBCC4-9A44-4453-98DE-989C25F78BC3}"/>
-    <hyperlink ref="C111" r:id="rId108" xr:uid="{7F0DA02A-2A72-4557-9412-46FB6F76C781}"/>
-    <hyperlink ref="C112" r:id="rId109" xr:uid="{53A4E879-856F-436F-A8DC-3257683B02B1}"/>
-    <hyperlink ref="C115" r:id="rId110" xr:uid="{9F0C7A20-F85A-4FB3-B05E-58FBD30122EE}"/>
-    <hyperlink ref="C113" r:id="rId111" xr:uid="{4F49A94A-FCA6-46DC-B727-A9BEBBD65D84}"/>
-    <hyperlink ref="C114" r:id="rId112" xr:uid="{205D2E03-E232-42E5-B438-A6BC4AF79C03}"/>
-    <hyperlink ref="C116" r:id="rId113" location="fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" display="https://www.freepik.com/free-photo/young-woman-teacher-wearing-glasses-explaining-lesson-holding-stack-books-looking-confident-standing-school-desk-front-blackboard-classroom_26397314.htm#fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" xr:uid="{63CB67EA-23F9-45B4-9DC7-8FD2FB007797}"/>
-    <hyperlink ref="C117" r:id="rId114" xr:uid="{A52B4FAE-450E-4385-B259-61D9DDBF9587}"/>
-    <hyperlink ref="C118" r:id="rId115" xr:uid="{4879ACB0-AB3E-4858-9477-768BD1BC3B6F}"/>
-    <hyperlink ref="C153" r:id="rId116" xr:uid="{27F4667C-E73F-4D70-A01A-4C4795729965}"/>
-    <hyperlink ref="C119" r:id="rId117" xr:uid="{4A8F39D5-A16F-4A0B-8166-BB7AE8B590F1}"/>
-    <hyperlink ref="C120" r:id="rId118" xr:uid="{E729AAFB-923C-4752-9548-677B4A0CBCB1}"/>
-    <hyperlink ref="C121" r:id="rId119" xr:uid="{8602DFAA-7B01-4481-AA3B-F6EAE34449C9}"/>
-    <hyperlink ref="C122" r:id="rId120" xr:uid="{8EEDA427-C69D-4C39-8F43-58262A593AFE}"/>
-    <hyperlink ref="C123" r:id="rId121" xr:uid="{AB39E989-5BE0-483C-9750-97DBF6733693}"/>
-    <hyperlink ref="C124" r:id="rId122" xr:uid="{75694668-2FF0-43B0-BFF3-1F2C90B9B74A}"/>
-    <hyperlink ref="C125" r:id="rId123" xr:uid="{A5202F31-89AE-4187-BD14-11BC381A35E0}"/>
-    <hyperlink ref="C126" r:id="rId124" xr:uid="{BD8F8097-6FDD-48AF-8E0E-63FBF4EAEF19}"/>
-    <hyperlink ref="C127" r:id="rId125" xr:uid="{ABE75258-5BF6-44E1-8CA4-305E9FD2216F}"/>
-    <hyperlink ref="C128" r:id="rId126" location="google_vignette" xr:uid="{2A87507C-829A-410D-B0C6-309D4E3A2BD3}"/>
-    <hyperlink ref="C129" r:id="rId127" xr:uid="{625B0886-C44A-4063-8A39-4883D1980498}"/>
-    <hyperlink ref="C130" r:id="rId128" xr:uid="{CEE57B0B-A828-4DD4-83A8-A9C38D9D8DBE}"/>
-    <hyperlink ref="C131" r:id="rId129" xr:uid="{ADB11BDE-27E8-423F-AFDB-5FAAA3892804}"/>
-    <hyperlink ref="C132" r:id="rId130" xr:uid="{DE3934B6-FED0-4609-A6E0-986ABAC1CE69}"/>
-    <hyperlink ref="C134" r:id="rId131" xr:uid="{4156FCA5-20E1-4801-A3EB-FB1100E2354A}"/>
-    <hyperlink ref="C136" r:id="rId132" xr:uid="{1B83D7CB-D69B-498C-9CAC-4BB8F195C9F4}"/>
-    <hyperlink ref="C137" r:id="rId133" xr:uid="{ED7E2358-B5A9-4DA1-89AC-42221E44451D}"/>
-    <hyperlink ref="C138" r:id="rId134" xr:uid="{00B2CF8C-A349-46F9-99D0-73A40EAC8BCD}"/>
-    <hyperlink ref="C139" r:id="rId135" xr:uid="{0168C140-1EBD-4635-A27B-A1F6DB707B99}"/>
-    <hyperlink ref="C140" r:id="rId136" xr:uid="{32E59C3E-FA98-4923-8EE6-5E998F112CE1}"/>
-    <hyperlink ref="C141" r:id="rId137" xr:uid="{98D84775-7F44-47A9-BD91-2984B1DD5E7A}"/>
-    <hyperlink ref="C142" r:id="rId138" xr:uid="{50CF528A-B2AD-4844-863A-ED656E183E4D}"/>
-    <hyperlink ref="C133" r:id="rId139" xr:uid="{F6802C6B-31C7-43A4-9758-44BBE446B47A}"/>
-    <hyperlink ref="C135" r:id="rId140" xr:uid="{0E7140E4-72ED-43C7-9ACB-E28E8B6AEBA4}"/>
-    <hyperlink ref="C143" r:id="rId141" xr:uid="{B58922D1-EFBD-4E0F-B032-F3D207B54A16}"/>
-    <hyperlink ref="C145" r:id="rId142" xr:uid="{25F446AC-A40C-4543-890F-2EFC06F6FC1E}"/>
-    <hyperlink ref="C146" r:id="rId143" xr:uid="{3B322F6E-7E7F-4DE7-95E7-C3DBF7ABB633}"/>
-    <hyperlink ref="C147" r:id="rId144" xr:uid="{3ED732A0-1BE2-420B-93EC-8C04838DC24D}"/>
-    <hyperlink ref="C148" r:id="rId145" xr:uid="{6E223FF5-B6CD-4E57-8DBA-4F47D5A4544F}"/>
-    <hyperlink ref="C149" r:id="rId146" xr:uid="{8BA115F0-9A73-4E7E-8C04-39FF7AABC875}"/>
-    <hyperlink ref="C154" r:id="rId147" xr:uid="{C8852A29-E984-41D6-865B-C7F453D536FB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{7DD31960-0368-4A27-9647-D08A1C574C38}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{E8018AD4-E1C3-4AAC-ADCD-179D91C5AB7B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{574173E5-7719-43AD-B5BD-2043C15F8735}"/>
+    <hyperlink ref="C152" r:id="rId5" xr:uid="{68ECBF20-0D7B-437E-B689-4B068A1DB181}"/>
+    <hyperlink ref="C151" r:id="rId6" xr:uid="{16DA03B6-EC14-4CC2-907D-D5481694FAB8}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{658462DC-D7E6-4931-A29E-C1A36593D1CB}"/>
+    <hyperlink ref="C150" r:id="rId8" xr:uid="{97C32394-AF94-4F0E-8A13-2FD594CD552E}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{DD1E667C-49A1-43E2-9F3E-3A31DCE14D48}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{9AF270F6-05FD-4ED2-BC8D-F08B5D664E41}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{1BE1FD76-2B59-40AE-845C-447C6343496A}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{2FC526BD-C17D-437A-89AD-2FE28D6023C2}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{795EF266-492D-4C9F-A273-BD6048CB91FF}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{B78E1107-D09B-41CD-9A06-AF7C646D7F34}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{C9C027E3-C537-4F76-8B9F-FC7F498413E7}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{BD32B382-FF07-4779-84A0-8BF88791EE61}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{48ABC56C-60F8-4031-AE13-229847B91E92}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{DB6A5354-22C6-40D5-9F50-9114BCFEF34E}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{B5ABA31D-6FB7-4BA6-967E-923B838BEEA4}"/>
+    <hyperlink ref="C20" r:id="rId20" xr:uid="{6800F8E5-2104-4862-8630-2B6A1DE67597}"/>
+    <hyperlink ref="C21" r:id="rId21" xr:uid="{B5DA938E-D079-4252-94EE-937E3423F762}"/>
+    <hyperlink ref="C22" r:id="rId22" xr:uid="{8D647959-9418-4455-ACD2-918F5446F8B0}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{0D35BE23-3125-44DF-AA15-BC9A13DAD4E0}"/>
+    <hyperlink ref="C23" r:id="rId24" xr:uid="{169E3BA7-6164-4A7F-9A88-84FF97BD02D6}"/>
+    <hyperlink ref="C24" r:id="rId25" xr:uid="{47D2533C-CE22-4504-A95C-D5DAC4A41415}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{71F93FA1-617F-412E-9DFF-6E0D7405FB30}"/>
+    <hyperlink ref="C26" r:id="rId27" xr:uid="{064D4F68-8AE7-489F-A1CF-C7BFC9D2241D}"/>
+    <hyperlink ref="C28" r:id="rId28" xr:uid="{19B5E5DC-7AAC-4FCE-992A-E33AB214DA65}"/>
+    <hyperlink ref="C29" r:id="rId29" xr:uid="{350F50E6-C4D9-4F3A-B53D-144690D03D5A}"/>
+    <hyperlink ref="C30" r:id="rId30" location="google_vignette" xr:uid="{3754E26C-D7C6-40D3-B586-6975F6F56209}"/>
+    <hyperlink ref="C31" r:id="rId31" xr:uid="{537E3572-23A5-4B1C-94E7-1F64C6EB61B9}"/>
+    <hyperlink ref="C32" r:id="rId32" xr:uid="{B4520193-AB5F-40C5-9A4B-26529026A72E}"/>
+    <hyperlink ref="C33" r:id="rId33" xr:uid="{A9D65C0A-24AE-4D5B-BD49-0C336C536161}"/>
+    <hyperlink ref="C34" r:id="rId34" xr:uid="{18649552-0041-4234-A3EB-DFC8EC413712}"/>
+    <hyperlink ref="C35" r:id="rId35" xr:uid="{35032743-80F9-4C55-9D67-F35944398F85}"/>
+    <hyperlink ref="C36" r:id="rId36" xr:uid="{4F606619-1E1C-41D9-B617-DA116A1C0CA3}"/>
+    <hyperlink ref="C37" r:id="rId37" xr:uid="{B6F7B2EB-02A0-4D9E-A822-8BDA8286FC10}"/>
+    <hyperlink ref="C38" r:id="rId38" xr:uid="{74EB49E7-58BC-4E6C-B75B-265813B243D2}"/>
+    <hyperlink ref="C39" r:id="rId39" xr:uid="{4257C921-4F81-44E4-B6CA-183BE662305F}"/>
+    <hyperlink ref="C40" r:id="rId40" xr:uid="{A65B2ECB-F8D3-4FF6-8201-C7D0EBD6A9F1}"/>
+    <hyperlink ref="C41" r:id="rId41" xr:uid="{C8A70CAD-E2DA-4809-B1D1-2F662B3D0486}"/>
+    <hyperlink ref="C42" r:id="rId42" xr:uid="{2F69EF8D-C6D5-44FB-A957-5FAD77F891F0}"/>
+    <hyperlink ref="C43" r:id="rId43" xr:uid="{B9939436-D276-4A35-B3B5-8E625EBA6037}"/>
+    <hyperlink ref="C44" r:id="rId44" xr:uid="{E8D3DF2E-D6BC-47CA-AF40-8D1C537A5571}"/>
+    <hyperlink ref="C45" r:id="rId45" xr:uid="{5C1BD0FA-31B0-4F22-981A-667C6150C2E6}"/>
+    <hyperlink ref="C46" r:id="rId46" xr:uid="{814E9C6C-074D-4418-829E-E1F3359B338F}"/>
+    <hyperlink ref="C50" r:id="rId47" location="kali-installer-images" xr:uid="{E1BCFBC9-0B68-431D-90DA-0369C5382AD4}"/>
+    <hyperlink ref="C47" r:id="rId48" xr:uid="{EC716333-E69B-4EFE-BE63-E604B21F9EBF}"/>
+    <hyperlink ref="C48" r:id="rId49" xr:uid="{743525DA-D392-4530-8242-1F48B502FA4E}"/>
+    <hyperlink ref="C49" r:id="rId50" xr:uid="{A38A5E98-F896-46B4-8A2E-3E80D787816F}"/>
+    <hyperlink ref="C51" r:id="rId51" xr:uid="{823493CB-2620-4D09-AA8F-7A9857E24D01}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{8FDE9EF9-40DB-4296-9945-146497DF033A}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{1E30EDA7-8A17-490D-89DD-F09092EF3230}"/>
+    <hyperlink ref="C56" r:id="rId54" xr:uid="{7D60A2E9-1459-4CC0-A3D8-3F8B6D24EDD7}"/>
+    <hyperlink ref="C57" r:id="rId55" xr:uid="{9FB30596-CDD4-47A8-AE6B-CAC81B53BAC0}"/>
+    <hyperlink ref="C58" r:id="rId56" xr:uid="{D0CFA84A-4EB8-4E3A-854E-9AFE4E3FDA16}"/>
+    <hyperlink ref="C64" r:id="rId57" xr:uid="{A9D99C97-92B1-4979-B86E-32BC99DCF5D6}"/>
+    <hyperlink ref="C65" r:id="rId58" xr:uid="{123E1AAE-E0F6-4625-8F67-8146F97BB4E1}"/>
+    <hyperlink ref="C67" r:id="rId59" xr:uid="{B91B8090-78B6-48FF-A863-E1651AB8D7CF}"/>
+    <hyperlink ref="C66" r:id="rId60" xr:uid="{7048EAAD-48CA-4B1B-A3F7-F4F1EA614A73}"/>
+    <hyperlink ref="C68" r:id="rId61" xr:uid="{354DCF7C-3DC5-4A83-A807-C4E207675DF1}"/>
+    <hyperlink ref="C69" r:id="rId62" xr:uid="{D3246893-3FB0-40DF-8B20-1686D9D450DA}"/>
+    <hyperlink ref="C71" r:id="rId63" xr:uid="{5D2770CE-1672-4FDE-8D9E-6D86E70E88D7}"/>
+    <hyperlink ref="C72" r:id="rId64" xr:uid="{E9868362-8964-4567-ABDF-BE883ADB7549}"/>
+    <hyperlink ref="C73" r:id="rId65" xr:uid="{0ACB5CBE-8908-4471-A689-373CE8DEB745}"/>
+    <hyperlink ref="C74" r:id="rId66" xr:uid="{FD609230-2D31-4E2E-B524-87A25007B12F}"/>
+    <hyperlink ref="C75" r:id="rId67" xr:uid="{C0AE8560-BE27-415A-AD0A-14E3797E5B20}"/>
+    <hyperlink ref="C76" r:id="rId68" xr:uid="{4868C4DD-96B1-44D7-8B96-F9295A5A0DCD}"/>
+    <hyperlink ref="C77" r:id="rId69" xr:uid="{25E5301F-61E6-43D2-A641-2F6026FF1480}"/>
+    <hyperlink ref="C78" r:id="rId70" xr:uid="{CBE9D00B-0CC6-4D93-8C7E-9C10BAAC47EE}"/>
+    <hyperlink ref="C79" r:id="rId71" xr:uid="{4D5A2527-8BE9-4F08-9D4C-87D6491402AB}"/>
+    <hyperlink ref="C80" r:id="rId72" xr:uid="{28E2B9FC-AB8B-44C7-8B21-0E1E522F10F7}"/>
+    <hyperlink ref="C81" r:id="rId73" xr:uid="{FA281B91-D05B-4C2B-B507-034DB0460365}"/>
+    <hyperlink ref="C82" r:id="rId74" xr:uid="{89740D7E-60F5-4477-B0F5-482D59C91D1D}"/>
+    <hyperlink ref="C83" r:id="rId75" xr:uid="{2EE40B56-5EA1-421E-863D-EBB257790F35}"/>
+    <hyperlink ref="C59" r:id="rId76" xr:uid="{0D69ECB9-6D5C-431C-80C2-EAF05F31B7F4}"/>
+    <hyperlink ref="C84" r:id="rId77" xr:uid="{D95162B2-AB17-430D-A4AA-59E72D376090}"/>
+    <hyperlink ref="C85" r:id="rId78" xr:uid="{3A8F3135-C2E5-42BB-B039-BC7B4D4CEB46}"/>
+    <hyperlink ref="C86" r:id="rId79" xr:uid="{33811B59-87F3-45DD-9166-C307BAC98B35}"/>
+    <hyperlink ref="C87" r:id="rId80" xr:uid="{BB4F0EFA-A1E0-4AAA-91C7-8886F4840C66}"/>
+    <hyperlink ref="C88" r:id="rId81" xr:uid="{0F18BA5D-0A7A-442D-AD02-F2C623AEA04F}"/>
+    <hyperlink ref="C89" r:id="rId82" xr:uid="{77B195E5-961B-4E0C-989E-BCAB90FE6D5A}"/>
+    <hyperlink ref="C90" r:id="rId83" xr:uid="{B98A95F5-8F2A-4445-ABDC-34E189C133C5}"/>
+    <hyperlink ref="C91" r:id="rId84" xr:uid="{5D7D8938-B362-47C3-9537-12308E080143}"/>
+    <hyperlink ref="C92" r:id="rId85" xr:uid="{592DA57C-A13F-43E9-8B81-3AECF9B3E245}"/>
+    <hyperlink ref="C93" r:id="rId86" location="download" xr:uid="{6A65D0F3-344D-43BA-9B91-9B0E06D8E2E6}"/>
+    <hyperlink ref="C94" r:id="rId87" xr:uid="{79F56FA6-8F91-4B9F-8B40-ECB07CED87AE}"/>
+    <hyperlink ref="C95" r:id="rId88" xr:uid="{F8BC4287-42BB-4D7F-BCC2-C5970212A8B7}"/>
+    <hyperlink ref="C96" r:id="rId89" xr:uid="{7D5221D7-7E6A-4274-B4CE-B5E04F892D2F}"/>
+    <hyperlink ref="C97" r:id="rId90" xr:uid="{D8A46ABB-98D1-422B-AE92-E9295766C282}"/>
+    <hyperlink ref="C98" r:id="rId91" xr:uid="{48415821-BF59-45C0-B636-B15716A8AFBE}"/>
+    <hyperlink ref="C99" r:id="rId92" xr:uid="{3F881E20-3181-4372-B4E2-6B3AF72EB3A5}"/>
+    <hyperlink ref="C100" r:id="rId93" xr:uid="{0444AA34-7704-4F15-B46C-22C38E0B5309}"/>
+    <hyperlink ref="C101" r:id="rId94" xr:uid="{F87C2EA2-D052-4A96-AB0D-42085AF2F6EA}"/>
+    <hyperlink ref="C102" r:id="rId95" xr:uid="{7E914BAB-4F68-4D85-BC6B-92D5DE40739C}"/>
+    <hyperlink ref="C103" r:id="rId96" xr:uid="{9BDF66C9-25BE-449E-828E-2EC717720208}"/>
+    <hyperlink ref="C104" r:id="rId97" xr:uid="{D0E8F201-9C1A-4BF1-8DA2-95046CD31165}"/>
+    <hyperlink ref="C105" r:id="rId98" xr:uid="{DC34E626-90BC-4E82-AC86-B39CDA345EC2}"/>
+    <hyperlink ref="C106" r:id="rId99" xr:uid="{E430BC28-7E12-486D-B301-68AA34A492DD}"/>
+    <hyperlink ref="C107" r:id="rId100" xr:uid="{C3115C55-EC7B-45E3-8662-226D73A716DD}"/>
+    <hyperlink ref="C108" r:id="rId101" xr:uid="{16E59904-31C8-48FB-A058-33975EA173F1}"/>
+    <hyperlink ref="C109" r:id="rId102" location="/media/File:2019_City_of_London_3D_model.jpg" xr:uid="{D8008C1B-63BB-4DAB-ADCD-C3A71D666E7C}"/>
+    <hyperlink ref="C110" r:id="rId103" xr:uid="{D1CCBCC4-9A44-4453-98DE-989C25F78BC3}"/>
+    <hyperlink ref="C111" r:id="rId104" xr:uid="{7F0DA02A-2A72-4557-9412-46FB6F76C781}"/>
+    <hyperlink ref="C112" r:id="rId105" xr:uid="{53A4E879-856F-436F-A8DC-3257683B02B1}"/>
+    <hyperlink ref="C115" r:id="rId106" xr:uid="{9F0C7A20-F85A-4FB3-B05E-58FBD30122EE}"/>
+    <hyperlink ref="C113" r:id="rId107" xr:uid="{4F49A94A-FCA6-46DC-B727-A9BEBBD65D84}"/>
+    <hyperlink ref="C116" r:id="rId108" location="fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" display="https://www.freepik.com/free-photo/young-woman-teacher-wearing-glasses-explaining-lesson-holding-stack-books-looking-confident-standing-school-desk-front-blackboard-classroom_26397314.htm#fromView=keyword&amp;page=1&amp;position=2&amp;uuid=f2d9c8ff-4958-4fdf-a220-d39d4c853740&amp;from_element=categories_trends&amp;query=University+Teacher" xr:uid="{63CB67EA-23F9-45B4-9DC7-8FD2FB007797}"/>
+    <hyperlink ref="C117" r:id="rId109" xr:uid="{A52B4FAE-450E-4385-B259-61D9DDBF9587}"/>
+    <hyperlink ref="C118" r:id="rId110" xr:uid="{4879ACB0-AB3E-4858-9477-768BD1BC3B6F}"/>
+    <hyperlink ref="C153" r:id="rId111" xr:uid="{27F4667C-E73F-4D70-A01A-4C4795729965}"/>
+    <hyperlink ref="C119" r:id="rId112" xr:uid="{4A8F39D5-A16F-4A0B-8166-BB7AE8B590F1}"/>
+    <hyperlink ref="C120" r:id="rId113" xr:uid="{E729AAFB-923C-4752-9548-677B4A0CBCB1}"/>
+    <hyperlink ref="C121" r:id="rId114" xr:uid="{8602DFAA-7B01-4481-AA3B-F6EAE34449C9}"/>
+    <hyperlink ref="C122" r:id="rId115" xr:uid="{8EEDA427-C69D-4C39-8F43-58262A593AFE}"/>
+    <hyperlink ref="C123" r:id="rId116" xr:uid="{AB39E989-5BE0-483C-9750-97DBF6733693}"/>
+    <hyperlink ref="C124" r:id="rId117" xr:uid="{75694668-2FF0-43B0-BFF3-1F2C90B9B74A}"/>
+    <hyperlink ref="C125" r:id="rId118" xr:uid="{A5202F31-89AE-4187-BD14-11BC381A35E0}"/>
+    <hyperlink ref="C126" r:id="rId119" xr:uid="{BD8F8097-6FDD-48AF-8E0E-63FBF4EAEF19}"/>
+    <hyperlink ref="C127" r:id="rId120" xr:uid="{ABE75258-5BF6-44E1-8CA4-305E9FD2216F}"/>
+    <hyperlink ref="C128" r:id="rId121" location="google_vignette" xr:uid="{2A87507C-829A-410D-B0C6-309D4E3A2BD3}"/>
+    <hyperlink ref="C129" r:id="rId122" xr:uid="{625B0886-C44A-4063-8A39-4883D1980498}"/>
+    <hyperlink ref="C130" r:id="rId123" xr:uid="{CEE57B0B-A828-4DD4-83A8-A9C38D9D8DBE}"/>
+    <hyperlink ref="C131" r:id="rId124" xr:uid="{ADB11BDE-27E8-423F-AFDB-5FAAA3892804}"/>
+    <hyperlink ref="C132" r:id="rId125" xr:uid="{DE3934B6-FED0-4609-A6E0-986ABAC1CE69}"/>
+    <hyperlink ref="C134" r:id="rId126" xr:uid="{4156FCA5-20E1-4801-A3EB-FB1100E2354A}"/>
+    <hyperlink ref="C136" r:id="rId127" xr:uid="{1B83D7CB-D69B-498C-9CAC-4BB8F195C9F4}"/>
+    <hyperlink ref="C137" r:id="rId128" xr:uid="{ED7E2358-B5A9-4DA1-89AC-42221E44451D}"/>
+    <hyperlink ref="C138" r:id="rId129" xr:uid="{00B2CF8C-A349-46F9-99D0-73A40EAC8BCD}"/>
+    <hyperlink ref="C139" r:id="rId130" xr:uid="{0168C140-1EBD-4635-A27B-A1F6DB707B99}"/>
+    <hyperlink ref="C140" r:id="rId131" xr:uid="{32E59C3E-FA98-4923-8EE6-5E998F112CE1}"/>
+    <hyperlink ref="C142" r:id="rId132" xr:uid="{50CF528A-B2AD-4844-863A-ED656E183E4D}"/>
+    <hyperlink ref="C133" r:id="rId133" xr:uid="{F6802C6B-31C7-43A4-9758-44BBE446B47A}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{0E7140E4-72ED-43C7-9ACB-E28E8B6AEBA4}"/>
+    <hyperlink ref="C143" r:id="rId135" xr:uid="{B58922D1-EFBD-4E0F-B032-F3D207B54A16}"/>
+    <hyperlink ref="C145" r:id="rId136" xr:uid="{25F446AC-A40C-4543-890F-2EFC06F6FC1E}"/>
+    <hyperlink ref="C146" r:id="rId137" xr:uid="{3B322F6E-7E7F-4DE7-95E7-C3DBF7ABB633}"/>
+    <hyperlink ref="C147" r:id="rId138" xr:uid="{3ED732A0-1BE2-420B-93EC-8C04838DC24D}"/>
+    <hyperlink ref="C148" r:id="rId139" xr:uid="{6E223FF5-B6CD-4E57-8DBA-4F47D5A4544F}"/>
+    <hyperlink ref="C149" r:id="rId140" xr:uid="{8BA115F0-9A73-4E7E-8C04-39FF7AABC875}"/>
+    <hyperlink ref="C154" r:id="rId141" xr:uid="{C8852A29-E984-41D6-865B-C7F453D536FB}"/>
+    <hyperlink ref="C8" r:id="rId142" xr:uid="{3860EF84-5F21-4F8B-9DA0-1CB4E5991994}"/>
+    <hyperlink ref="C11" r:id="rId143" xr:uid="{DF0B2257-39B5-4A39-8727-C860512B1373}"/>
+    <hyperlink ref="C53" r:id="rId144" xr:uid="{8183C350-9FC9-4B12-BAD5-4152FEE6040A}"/>
+    <hyperlink ref="C63" r:id="rId145" xr:uid="{8AFA7A32-AC5E-4C8E-9937-FF4CF69265DD}"/>
+    <hyperlink ref="C114" r:id="rId146" xr:uid="{A0055B26-2529-4E3C-B7BB-F28D0BA385FF}"/>
+    <hyperlink ref="C70" r:id="rId147" xr:uid="{536A7D39-0A70-4F87-A581-9A9466B014F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909BC19-AB46-4F94-A65C-0204A0E725E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A418CD0-78B3-4129-900A-711288435B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="390" windowWidth="12810" windowHeight="12000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1595">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3626,63 +3626,24 @@
     <t xml:space="preserve">https://www.1001games.com/multiplayer/agar-io  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.1001games.com/multiplayer/amogus-io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://anomal.io  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://antwar.io  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://aquapark.io  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://aquar.io  </t>
   </si>
   <si>
     <t xml:space="preserve">https://arras.io  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://arrow.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://astr.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://astrar.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://astro.io  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://astroe.io  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://backrooms.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bacter.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bacterio.ca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://basher.io  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://battleofpens.io  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://battleboats.io  </t>
   </si>
   <si>
     <t xml:space="preserve">https://battledudes.io  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://battleshipgame.io  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://bellum.io  </t>
   </si>
   <si>
@@ -3905,9 +3866,6 @@
     <t>raised</t>
   </si>
   <si>
-    <t>admeen-splash-button</t>
-  </si>
-  <si>
     <t>app-btn-primary</t>
   </si>
   <si>
@@ -4797,6 +4755,81 @@
   </si>
   <si>
     <t>close-button-module__button___nu_np</t>
+  </si>
+  <si>
+    <t>didomi-notice-agree-button,svelte-dccu4i</t>
+  </si>
+  <si>
+    <t>cc-allowall</t>
+  </si>
+  <si>
+    <t>https://mynoise.net/NoiseMachines/windSeaRainNoiseGenerator.php</t>
+  </si>
+  <si>
+    <t>pButton</t>
+  </si>
+  <si>
+    <t>https://boilerroom.tv/audio/sicaria</t>
+  </si>
+  <si>
+    <t>iubenda-cs-accept-btn,PlayerInitialiser-PlayButton-28KPGi</t>
+  </si>
+  <si>
+    <t>https://app.idagio.com/albums/7532cb68-6451-4be3-849c-a983c228a4e0</t>
+  </si>
+  <si>
+    <t>modals-Modal__close--QUxrM,playlist-PlaylistItem__status--3-b2x</t>
+  </si>
+  <si>
+    <t>https://tidal.com/album/444580969</t>
+  </si>
+  <si>
+    <t>_large_d7c16cb</t>
+  </si>
+  <si>
+    <t>https://www.liveone.com/video/536ecd74-a4eb-4c29-bf67-71c26be08904</t>
+  </si>
+  <si>
+    <t>https://www.datpiff.com/</t>
+  </si>
+  <si>
+    <t>es-media-card</t>
+  </si>
+  <si>
+    <t>https://www.last.fm/music/j-hope/_/Mona+Lisa</t>
+  </si>
+  <si>
+    <t>header-new-playlink</t>
+  </si>
+  <si>
+    <t>https://www.pbs.org/newshour/podcasts</t>
+  </si>
+  <si>
+    <t>audioplayer-playpause</t>
+  </si>
+  <si>
+    <t>https://music.youtube.com/watch?v=ypVUjBGVoGQ&amp;list=RDAMVMypVUjBGVoGQ</t>
+  </si>
+  <si>
+    <t>https://music.youtube.com/watch?v=oWkSspt93XM&amp;list=TLGGpSh6q7XyO6QwNzA3MjAyNQ</t>
+  </si>
+  <si>
+    <t>ytp-ad-skip-button-modern</t>
+  </si>
+  <si>
+    <t>btn-play-pulse</t>
+  </si>
+  <si>
+    <t>https://www.1001games.com/skill/vex</t>
+  </si>
+  <si>
+    <t>joinButton</t>
+  </si>
+  <si>
+    <t>CybotCookiebotDialogBodyLevelButtonLevelOptinAllowAll,play_button</t>
+  </si>
+  <si>
+    <t>https://battleshipgame.io/ducklingsio</t>
   </si>
 </sst>
 </file>
@@ -4875,7 +4908,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4912,6 +4945,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4926,7 +4965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4976,6 +5015,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9860,13 +9901,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10386,502 +10427,502 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="3" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="3" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>
@@ -10905,7 +10946,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
@@ -10915,42 +10956,42 @@
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
@@ -10965,7 +11006,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -10975,12 +11016,12 @@
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -10990,417 +11031,417 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="5" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="5" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="5" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="5" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
     </row>
   </sheetData>
@@ -11410,10 +11451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11425,13 +11466,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11473,7 +11514,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11526,7 +11567,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>864</v>
@@ -11543,7 +11584,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11554,7 +11595,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="14" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>971</v>
@@ -11562,7 +11603,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>884</v>
@@ -11584,7 +11625,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>886</v>
@@ -11592,7 +11633,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>873</v>
@@ -11605,10 +11646,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11626,7 +11667,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>881</v>
@@ -11656,7 +11697,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>897</v>
@@ -11664,7 +11705,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>898</v>
@@ -11672,7 +11713,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>899</v>
@@ -11685,7 +11726,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>901</v>
@@ -11703,7 +11744,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>906</v>
@@ -11727,7 +11768,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>912</v>
@@ -11740,7 +11781,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>916</v>
@@ -11753,7 +11794,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>919</v>
@@ -11767,7 +11808,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>924</v>
@@ -11780,10 +11821,10 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -11833,195 +11874,213 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1538</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="11" t="s">
-        <v>570</v>
+      <c r="C67" s="5" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="11" t="s">
-        <v>4</v>
+      <c r="C68" s="5" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="11" t="s">
-        <v>13</v>
+      <c r="B69" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>11</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>571</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>572</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
-        <v>574</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
-        <v>2</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="11" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="11" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="11" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="11" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="11" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="11" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="11" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="11" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="11" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="11" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="11" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="11" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="11" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="11" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="11" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="11" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="11" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="22" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="22" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C98" s="22" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="23" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="23" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="23" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="23" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="23" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="23" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="23" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="23" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="23" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="23" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="23" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="23" t="s">
         <v>866</v>
       </c>
     </row>
@@ -12029,36 +12088,36 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8864BEEE-0484-418C-ADFA-89FED57056F0}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{33C07D58-FC14-4694-85DC-CA3F19D77A58}"/>
-    <hyperlink ref="C67" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
-    <hyperlink ref="C68" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
-    <hyperlink ref="C69" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
-    <hyperlink ref="C70" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
-    <hyperlink ref="C71" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
-    <hyperlink ref="C72" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
-    <hyperlink ref="C73" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
-    <hyperlink ref="C74" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
-    <hyperlink ref="C75" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
-    <hyperlink ref="C76" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
-    <hyperlink ref="C77" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
-    <hyperlink ref="C78" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
-    <hyperlink ref="C79" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
-    <hyperlink ref="C80" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
-    <hyperlink ref="C81" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
-    <hyperlink ref="C82" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
-    <hyperlink ref="C83" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
-    <hyperlink ref="C90" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
-    <hyperlink ref="C92" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
-    <hyperlink ref="C93" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
-    <hyperlink ref="C85" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
-    <hyperlink ref="C86" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
-    <hyperlink ref="C87" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
-    <hyperlink ref="C88" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
-    <hyperlink ref="C89" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
-    <hyperlink ref="C91" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
-    <hyperlink ref="C84" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
-    <hyperlink ref="C99" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
-    <hyperlink ref="C96" r:id="rId31" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
-    <hyperlink ref="C98" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
+    <hyperlink ref="C70" r:id="rId3" display="http://slither.io/" xr:uid="{5D8BF003-D30B-4778-8D41-ABA23E2DC48F}"/>
+    <hyperlink ref="C71" r:id="rId4" display="http://agar.io/" xr:uid="{EDEF75C6-62A1-45D1-A370-18C9E9E7A5EB}"/>
+    <hyperlink ref="C72" r:id="rId5" display="http://diep.io/" xr:uid="{C081F28C-85D7-4926-91CC-DA9AFCFAC301}"/>
+    <hyperlink ref="C73" r:id="rId6" display="http://krunker.io/" xr:uid="{4F654821-B6BF-414A-9C5D-E4E686E2FDCC}"/>
+    <hyperlink ref="C74" r:id="rId7" display="http://skribbl.io/" xr:uid="{E3DE4095-95AF-4E16-A3E9-26D48ABA897C}"/>
+    <hyperlink ref="C75" r:id="rId8" display="http://wings.io/" xr:uid="{FA51F25D-573A-478E-915F-539382CD794B}"/>
+    <hyperlink ref="C76" r:id="rId9" display="http://hole.io/" xr:uid="{3412DE3F-6F60-41D6-9FD5-82534A155FD5}"/>
+    <hyperlink ref="C77" r:id="rId10" display="http://paper.io/" xr:uid="{8010C012-9084-4C91-8B11-7B745C69D5AB}"/>
+    <hyperlink ref="C78" r:id="rId11" display="http://shellshock.io/" xr:uid="{2AD557BC-56C1-450D-8852-CF03B6A65637}"/>
+    <hyperlink ref="C79" r:id="rId12" display="http://snake.io/" xr:uid="{B3934B02-5565-4192-BF7E-1797200AB1C8}"/>
+    <hyperlink ref="C80" r:id="rId13" display="https://www.crazygames.com/game/agario" xr:uid="{3CCD6A56-8988-4C0C-BC37-DB5B15C98F15}"/>
+    <hyperlink ref="C81" r:id="rId14" display="https://www.crazygames.com/game/holey-io-battle-royale" xr:uid="{6144F034-DF98-4F8C-9993-043FB24B3AEF}"/>
+    <hyperlink ref="C82" r:id="rId15" display="https://www.crazygames.com/game/snake-io" xr:uid="{D19B0FEA-6A3B-4B6C-819A-958AE9EE4B92}"/>
+    <hyperlink ref="C83" r:id="rId16" display="https://www.crazygames.com/game/worm-hunt" xr:uid="{E6A299D4-9C16-4E25-BB16-AE333685FBD9}"/>
+    <hyperlink ref="C84" r:id="rId17" display="https://www.crazygames.com/game/paper-io-2" xr:uid="{221E2F90-49CD-4110-9813-9FA920C543E6}"/>
+    <hyperlink ref="C85" r:id="rId18" display="https://www.crazygames.com/game/shellshockersio" xr:uid="{D974E627-1AAF-42B5-876A-FF9DF261A6A3}"/>
+    <hyperlink ref="C86" r:id="rId19" display="https://www.crazygames.com/game/krunker-io" xr:uid="{51942A3B-7EFC-4C4B-BEE1-7E3470295EA2}"/>
+    <hyperlink ref="C93" r:id="rId20" display="https://www.crazygames.com/game/deadshot-io" xr:uid="{5A03ABEE-6E3A-4526-9F2B-73F0AB9B18BB}"/>
+    <hyperlink ref="C95" r:id="rId21" display="https://www.crazygames.com/game/1v1-lol" xr:uid="{A0BA408D-D347-4BA0-9B94-3BE0B489F493}"/>
+    <hyperlink ref="C96" r:id="rId22" display="https://www.crazygames.com/game/diepio" xr:uid="{B2261812-D809-44FA-A72F-AF1D15359AD4}"/>
+    <hyperlink ref="C88" r:id="rId23" display="https://www.crazygames.com/game/buildroyale-io" xr:uid="{ED0498AB-688F-4EE5-BA70-A6D70EBE3684}"/>
+    <hyperlink ref="C89" r:id="rId24" display="https://www.crazygames.com/game/flyordieio" xr:uid="{382FB2BD-8DEF-405F-BE05-B619F1BB4D1D}"/>
+    <hyperlink ref="C90" r:id="rId25" display="https://www.crazygames.com/game/ducklings" xr:uid="{2424889D-FC6A-4203-AE6A-0D896370241B}"/>
+    <hyperlink ref="C91" r:id="rId26" display="https://www.crazygames.com/game/smash-karts" xr:uid="{CB73B8E1-AECC-4B35-A1AA-5FF59EAF37B2}"/>
+    <hyperlink ref="C92" r:id="rId27" display="https://www.crazygames.com/game/bloxdhop-io" xr:uid="{9BC3A4E9-E8DE-402B-9705-3C34244CCBCD}"/>
+    <hyperlink ref="C94" r:id="rId28" display="https://www.crazygames.com/game/skribblio" xr:uid="{1D9AC806-94C6-44C6-A62E-358D25E6CF23}"/>
+    <hyperlink ref="C87" r:id="rId29" display="https://www.crazygames.com/game/taming-io" xr:uid="{6BAB78B7-B303-4AF1-8CDA-B9A0E30451E2}"/>
+    <hyperlink ref="C102" r:id="rId30" display="https://glz.co.il/%D7%92%D7%9C%D7%92%D7%9C%D7%A6" xr:uid="{40BCB9F1-104D-4608-9E1B-A5D35E88203D}"/>
+    <hyperlink ref="C99" r:id="rId31" xr:uid="{F01479AE-4303-4755-92BF-559F63DDDF44}"/>
+    <hyperlink ref="C101" r:id="rId32" display="https://103fm.maariv.co.il/" xr:uid="{968AD454-E9F1-4CFE-ACD2-A8E373DED7F6}"/>
     <hyperlink ref="C25" r:id="rId33" xr:uid="{6DCC3EA9-7501-49BC-9D4E-68F6AC022646}"/>
     <hyperlink ref="C22" r:id="rId34" xr:uid="{46519804-D5AF-45F8-AF29-1DB01DE7CC42}"/>
     <hyperlink ref="C31" r:id="rId35" display="https://www.reichman.ac.il/en/radio/" xr:uid="{36474073-1B27-43C8-BB18-4A1B78D8BFEE}"/>
@@ -12073,7 +12132,7 @@
     <hyperlink ref="C4" r:id="rId44" xr:uid="{9F187665-2BE3-46D0-8088-1DBE88E348FE}"/>
     <hyperlink ref="C5" r:id="rId45" xr:uid="{0A8CD6A4-7D97-4D66-963D-3857FD753A98}"/>
     <hyperlink ref="C7" r:id="rId46" xr:uid="{D8AC6938-A3EC-41A3-9AFC-A466A245EE24}"/>
-    <hyperlink ref="C95" r:id="rId47" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
+    <hyperlink ref="C98" r:id="rId47" xr:uid="{3FB49C2A-22EE-4315-851C-A8E34FB1ADDF}"/>
     <hyperlink ref="C9" r:id="rId48" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
     <hyperlink ref="C10" r:id="rId49" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
     <hyperlink ref="C11" r:id="rId50" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
@@ -12082,14 +12141,14 @@
     <hyperlink ref="C15" r:id="rId53" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
     <hyperlink ref="C16" r:id="rId54" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
     <hyperlink ref="C17" r:id="rId55" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C101" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C104" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
     <hyperlink ref="C18" r:id="rId57" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
     <hyperlink ref="C23" r:id="rId58" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
     <hyperlink ref="C24" r:id="rId59" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
     <hyperlink ref="C30" r:id="rId60" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
     <hyperlink ref="C12" r:id="rId61" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
     <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C94" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
+    <hyperlink ref="C97" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId64"/>
@@ -12098,10 +12157,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12113,18 +12172,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>940</v>
@@ -12132,7 +12191,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>941</v>
@@ -12140,7 +12199,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>943</v>
@@ -12148,7 +12207,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>944</v>
@@ -12156,10 +12215,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>945</v>
@@ -12167,7 +12226,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>946</v>
@@ -12175,7 +12234,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>947</v>
@@ -12183,7 +12242,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>948</v>
@@ -12191,7 +12250,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>949</v>
@@ -12199,7 +12258,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>1583</v>
+        <v>1569</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>950</v>
@@ -12207,7 +12266,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>951</v>
@@ -12215,7 +12274,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>953</v>
@@ -12223,7 +12282,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>954</v>
@@ -12231,7 +12290,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>955</v>
@@ -12239,7 +12298,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>963</v>
@@ -12247,7 +12306,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>956</v>
@@ -12255,7 +12314,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>957</v>
@@ -12263,7 +12322,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>923</v>
@@ -12271,7 +12330,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>958</v>
@@ -12279,7 +12338,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>959</v>
@@ -12287,7 +12346,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>960</v>
@@ -12295,15 +12354,15 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>931</v>
@@ -12311,7 +12370,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>933</v>
@@ -12319,7 +12378,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>1530</v>
+        <v>1516</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>915</v>
@@ -12332,7 +12391,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>929</v>
@@ -12340,10 +12399,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>882</v>
@@ -12351,7 +12410,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>887</v>
@@ -12359,7 +12418,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>893</v>
@@ -12367,18 +12426,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>908</v>
@@ -12386,7 +12445,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>1542</v>
+        <v>1528</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>910</v>
@@ -12394,7 +12453,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>1543</v>
+        <v>1529</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>913</v>
@@ -12402,7 +12461,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>865</v>
@@ -12410,7 +12469,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>1544</v>
+        <v>1530</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>970</v>
@@ -12418,15 +12477,15 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1546</v>
+        <v>1532</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1545</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>1547</v>
+        <v>1533</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>972</v>
@@ -12434,29 +12493,29 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1551</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>706</v>
@@ -12464,7 +12523,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>710</v>
@@ -12472,7 +12531,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>711</v>
@@ -12480,7 +12539,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>712</v>
@@ -12488,37 +12547,37 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="9" t="s">
-        <v>1560</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>716</v>
@@ -12526,7 +12585,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>717</v>
@@ -12534,55 +12593,55 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>737</v>
@@ -12591,187 +12650,129 @@
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="9" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>1582</v>
+        <v>1568</v>
       </c>
       <c r="C61" s="9" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="10" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="10" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="10" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="10" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="12" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="12" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="13" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="23" t="s">
+      <c r="C68" s="9" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="10" t="s">
-        <v>938</v>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C86" r:id="rId1" xr:uid="{63F314B8-DBD1-404D-ADDB-F1388B3579E5}"/>
-    <hyperlink ref="C73" r:id="rId2" xr:uid="{C28D3562-05A2-4373-A0F6-04979F955C69}"/>
-    <hyperlink ref="C74" r:id="rId3" xr:uid="{74BDD072-1C24-4024-A8A3-52C22DC4F4AE}"/>
-    <hyperlink ref="C75" r:id="rId4" xr:uid="{574FC8C6-AE4C-4915-B344-24B73E82B9F9}"/>
-    <hyperlink ref="C76" r:id="rId5" xr:uid="{61044818-0939-4A90-8599-B2A568594274}"/>
-    <hyperlink ref="C77" r:id="rId6" xr:uid="{C75D6396-175B-4AB6-9D50-BEEF6413E95D}"/>
-    <hyperlink ref="C78" r:id="rId7" xr:uid="{32731225-C97F-44A3-81C0-6BB3D5561589}"/>
-    <hyperlink ref="C80" r:id="rId8" xr:uid="{9A4C38CF-C385-46C4-AF5E-4BD5C83ADECD}"/>
-    <hyperlink ref="C79" r:id="rId9" xr:uid="{317D8014-D715-4187-93BD-408899CC13ED}"/>
-    <hyperlink ref="C43" r:id="rId10" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
-    <hyperlink ref="C44" r:id="rId11" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
-    <hyperlink ref="C45" r:id="rId12" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
-    <hyperlink ref="C51" r:id="rId13" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
-    <hyperlink ref="C52" r:id="rId14" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
-    <hyperlink ref="C72" r:id="rId15" xr:uid="{CCD0B607-4738-4A9C-BEF5-9EC39695453C}"/>
-    <hyperlink ref="C71" r:id="rId16" xr:uid="{698B805A-481F-4BFE-B2E0-9B35F29E394B}"/>
-    <hyperlink ref="C70" r:id="rId17" xr:uid="{603DC9C9-06BB-4EDB-AFCD-C9AFC97A49FB}"/>
-    <hyperlink ref="C69" r:id="rId18" xr:uid="{8A64217F-DDBB-43C6-A6CB-41860C8EC627}"/>
-    <hyperlink ref="C68" r:id="rId19" xr:uid="{54E96382-8196-4BE4-B827-1C21138A8EBB}"/>
-    <hyperlink ref="C67" r:id="rId20" xr:uid="{19C0620A-A37A-4414-BEBA-FA224D4D1248}"/>
-    <hyperlink ref="C66" r:id="rId21" xr:uid="{DD7D960F-E485-4EB0-8C3C-658FF1E7C791}"/>
-    <hyperlink ref="C65" r:id="rId22" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
-    <hyperlink ref="C64" r:id="rId23" xr:uid="{954D9F3A-F840-4C59-AFA6-A6722F3F256D}"/>
-    <hyperlink ref="C63" r:id="rId24" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
-    <hyperlink ref="C59" r:id="rId25" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
-    <hyperlink ref="C62" r:id="rId26" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="C19" r:id="rId27" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="C82" r:id="rId28" xr:uid="{BA1FD2BE-D270-4B76-9A7B-B63DEDA3EB5B}"/>
-    <hyperlink ref="C81" r:id="rId29" xr:uid="{29507CAC-4255-40A4-A2F4-82B3EB3ADCC6}"/>
-    <hyperlink ref="C6" r:id="rId30" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
-    <hyperlink ref="C7" r:id="rId31" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
-    <hyperlink ref="C85" r:id="rId32" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
-    <hyperlink ref="C37" r:id="rId33" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
-    <hyperlink ref="C41" r:id="rId34" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
-    <hyperlink ref="C46" r:id="rId35" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="C48" r:id="rId36" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
-    <hyperlink ref="C50" r:id="rId37" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
-    <hyperlink ref="C55" r:id="rId38" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
-    <hyperlink ref="C60" r:id="rId40" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
+    <hyperlink ref="C43" r:id="rId1" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
+    <hyperlink ref="C44" r:id="rId2" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
+    <hyperlink ref="C45" r:id="rId3" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
+    <hyperlink ref="C51" r:id="rId4" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
+    <hyperlink ref="C52" r:id="rId5" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
+    <hyperlink ref="C65" r:id="rId6" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
+    <hyperlink ref="C63" r:id="rId7" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
+    <hyperlink ref="C59" r:id="rId8" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
+    <hyperlink ref="C62" r:id="rId9" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
+    <hyperlink ref="C71" r:id="rId13" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
+    <hyperlink ref="C37" r:id="rId14" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
+    <hyperlink ref="C41" r:id="rId15" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
+    <hyperlink ref="C46" r:id="rId16" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C48" r:id="rId17" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
+    <hyperlink ref="C50" r:id="rId18" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
+    <hyperlink ref="C55" r:id="rId19" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
+    <hyperlink ref="C42" r:id="rId20" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
+    <hyperlink ref="C60" r:id="rId21" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
+    <hyperlink ref="C69" r:id="rId22" xr:uid="{F24314A8-AEF1-4DC6-9277-5865C1BD746B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -12787,13 +12788,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13313,13 +13314,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13853,13 +13854,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14675,10 +14676,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2D1A5-2BF6-4BAC-B823-F864749CEE0B}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14688,18 +14689,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1188</v>
@@ -14714,493 +14715,456 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>1286</v>
+      <c r="B4" s="20" t="s">
+        <v>1590</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1193</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>1200</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3" t="s">
-        <v>1274</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3" t="s">
-        <v>1275</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>1276</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="3" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="3" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="3" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{6FEEC0A2-C760-4642-9FCE-AA70BD4747B2}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{40005C80-7A70-4BCF-A7F3-9C311088CA3A}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{85D8E411-ABE9-4167-AD9F-53691417C7A8}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{CF68C9D5-876B-4B78-83D8-52D944A2E1D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A418CD0-78B3-4129-900A-711288435B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC86BC4-873B-42EF-9547-CFD28428A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45720" yWindow="0" windowWidth="7080" windowHeight="12900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1598">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4523,15 +4523,6 @@
     <t>detailHeaderButton1</t>
   </si>
   <si>
-    <t>onetrust-accept-btn-handler,sc-button-xxlarge</t>
-  </si>
-  <si>
-    <t>playbutton</t>
-  </si>
-  <si>
-    <t>dWWVle</t>
-  </si>
-  <si>
     <t>play-pause-button</t>
   </si>
   <si>
@@ -4541,9 +4532,6 @@
     <t>ChannelHeading__ImageContainer-sc-17o11wq-2</t>
   </si>
   <si>
-    <t>button_ok,duration-200</t>
-  </si>
-  <si>
     <t>play-track</t>
   </si>
   <si>
@@ -4601,9 +4589,6 @@
     <t>sp_choice_type_11,dcr-md2xfn</t>
   </si>
   <si>
-    <t>control-play-pause</t>
-  </si>
-  <si>
     <t>#playpause</t>
   </si>
   <si>
@@ -4640,12 +4625,6 @@
     <t>shoutcast779playbutton</t>
   </si>
   <si>
-    <t>https://open.spotify.com/show/6TMepIcA0MjQm96IFzvK08</t>
-  </si>
-  <si>
-    <t>e-9960-button-icon-only--small</t>
-  </si>
-  <si>
     <t>episode-play-button</t>
   </si>
   <si>
@@ -4830,6 +4809,36 @@
   </si>
   <si>
     <t>https://battleshipgame.io/ducklingsio</t>
+  </si>
+  <si>
+    <t>customHoverScale</t>
+  </si>
+  <si>
+    <t>onetrust-accept-btn-handler</t>
+  </si>
+  <si>
+    <t>https://bandcamp.com/?show=853</t>
+  </si>
+  <si>
+    <t>styles__StyledPlayButton-css-in-js__sc-4mn479-1</t>
+  </si>
+  <si>
+    <t>https://audiomack.com/kidi/song/gymnastic-6883507</t>
+  </si>
+  <si>
+    <t>#el_L_Gs9t3G5H</t>
+  </si>
+  <si>
+    <t>https://www.radio.net/s/91fm-levhamedina</t>
+  </si>
+  <si>
+    <t>button_ok,player_playbutton</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/3gYxWS9iXnmFBc4bDLuR4N</t>
+  </si>
+  <si>
+    <t>ix_8kg3iUb9VS5SmTnBY</t>
   </si>
 </sst>
 </file>
@@ -11567,7 +11576,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>864</v>
@@ -11584,7 +11593,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11646,7 +11655,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1487</v>
@@ -11874,7 +11883,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1486</v>
@@ -11882,28 +11891,28 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -12159,8 +12168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12172,7 +12181,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="B1" t="s">
         <v>1275</v>
@@ -12207,7 +12216,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1492</v>
+        <v>1589</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>944</v>
@@ -12215,18 +12224,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1493</v>
+        <v>1515</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1547</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>945</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1494</v>
+        <v>1591</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>946</v>
@@ -12234,23 +12243,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>947</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1593</v>
+      </c>
       <c r="B10" s="18" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>949</v>
@@ -12258,7 +12270,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>950</v>
@@ -12266,15 +12278,15 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>1498</v>
+        <v>1595</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>951</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>953</v>
@@ -12282,7 +12294,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>954</v>
@@ -12290,7 +12302,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>955</v>
@@ -12298,7 +12310,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>963</v>
@@ -12306,7 +12318,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>956</v>
@@ -12314,7 +12326,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>957</v>
@@ -12322,7 +12334,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>923</v>
@@ -12330,7 +12342,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>958</v>
@@ -12338,7 +12350,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>959</v>
@@ -12346,7 +12358,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>960</v>
@@ -12354,15 +12366,15 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>931</v>
@@ -12370,7 +12382,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>933</v>
@@ -12378,7 +12390,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>915</v>
@@ -12391,7 +12403,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>929</v>
@@ -12399,18 +12411,16 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>1518</v>
-      </c>
+        <v>1514</v>
+      </c>
+      <c r="B29" s="18"/>
       <c r="C29" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>887</v>
@@ -12418,7 +12428,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>893</v>
@@ -12426,18 +12436,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>908</v>
@@ -12445,7 +12455,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>910</v>
@@ -12453,7 +12463,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>913</v>
@@ -12461,7 +12471,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>865</v>
@@ -12469,7 +12479,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>970</v>
@@ -12477,15 +12487,15 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1532</v>
+        <v>1597</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1531</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>972</v>
@@ -12493,29 +12503,29 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="9" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>706</v>
@@ -12523,7 +12533,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>710</v>
@@ -12531,7 +12541,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>711</v>
@@ -12539,7 +12549,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>712</v>
@@ -12547,37 +12557,37 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="9" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>716</v>
@@ -12585,7 +12595,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>717</v>
@@ -12593,55 +12603,55 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>737</v>
@@ -12650,20 +12660,20 @@
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="9" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>740</v>
@@ -12671,7 +12681,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>741</v>
@@ -12679,12 +12689,12 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>743</v>
@@ -12692,47 +12702,47 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>888</v>
@@ -12740,10 +12750,10 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
     </row>
   </sheetData>
@@ -12758,18 +12768,18 @@
     <hyperlink ref="C59" r:id="rId8" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
     <hyperlink ref="C62" r:id="rId9" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
     <hyperlink ref="C19" r:id="rId10" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{749FF0BD-4C6F-42EA-AB65-D92A352CDA58}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
-    <hyperlink ref="C71" r:id="rId13" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
-    <hyperlink ref="C41" r:id="rId15" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
-    <hyperlink ref="C46" r:id="rId16" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="C48" r:id="rId17" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
-    <hyperlink ref="C50" r:id="rId18" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
-    <hyperlink ref="C55" r:id="rId19" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
-    <hyperlink ref="C42" r:id="rId20" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
-    <hyperlink ref="C60" r:id="rId21" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
-    <hyperlink ref="C69" r:id="rId22" xr:uid="{F24314A8-AEF1-4DC6-9277-5865C1BD746B}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
+    <hyperlink ref="C71" r:id="rId12" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
+    <hyperlink ref="C37" r:id="rId13" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
+    <hyperlink ref="C41" r:id="rId14" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
+    <hyperlink ref="C46" r:id="rId15" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C48" r:id="rId16" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
+    <hyperlink ref="C50" r:id="rId17" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
+    <hyperlink ref="C55" r:id="rId18" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
+    <hyperlink ref="C42" r:id="rId19" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
+    <hyperlink ref="C60" r:id="rId20" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
+    <hyperlink ref="C69" r:id="rId21" xr:uid="{F24314A8-AEF1-4DC6-9277-5865C1BD746B}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{7CBFA681-53A7-4415-9AD9-5A76B0ECA64F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -14678,8 +14688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2D1A5-2BF6-4BAC-B823-F864749CEE0B}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14716,10 +14726,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14732,7 +14742,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1194</v>
@@ -14745,7 +14755,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1196</v>
@@ -14753,7 +14763,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1197</v>
@@ -14761,15 +14771,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1588</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Final_Project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC86BC4-873B-42EF-9547-CFD28428A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57958020-8848-49D6-A9F5-2EB63263061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45720" yWindow="0" windowWidth="7080" windowHeight="12900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1599">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -4679,9 +4679,6 @@
     <t>popup_close,seg_play</t>
   </si>
   <si>
-    <t>noSelect</t>
-  </si>
-  <si>
     <t>iconWrapper</t>
   </si>
   <si>
@@ -4712,9 +4709,6 @@
     <t>https://www.1036kh.com/podcast/episode/2f091908</t>
   </si>
   <si>
-    <t>s__3b64FT</t>
-  </si>
-  <si>
     <t>mejs__overlay-button</t>
   </si>
   <si>
@@ -4839,6 +4833,15 @@
   </si>
   <si>
     <t>ix_8kg3iUb9VS5SmTnBY</t>
+  </si>
+  <si>
+    <t>https://90fm.mnsite.co.il/?page_id=1046</t>
+  </si>
+  <si>
+    <t>uja_u8</t>
+  </si>
+  <si>
+    <t>https://news.walla.co.il/item/3765180</t>
   </si>
 </sst>
 </file>
@@ -4917,7 +4920,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4954,12 +4957,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4974,7 +4971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5025,7 +5022,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11462,8 +11458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F866F9-5AE4-4932-ABC3-52361087BB04}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,7 +11551,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
-        <v>860</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11899,20 +11895,20 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -12145,22 +12141,21 @@
     <hyperlink ref="C9" r:id="rId48" xr:uid="{9E11F97E-8B26-4B84-9C59-D6EB4A8BA6F1}"/>
     <hyperlink ref="C10" r:id="rId49" xr:uid="{A6CB0EE3-6E7F-46CC-990E-81E0A57EAD7E}"/>
     <hyperlink ref="C11" r:id="rId50" xr:uid="{E22B5B9A-82EF-452C-A12C-26305A8DAE27}"/>
-    <hyperlink ref="C13" r:id="rId51" xr:uid="{9F489BDA-D607-4FC7-BAAB-CE91B94A9370}"/>
-    <hyperlink ref="C14" r:id="rId52" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
-    <hyperlink ref="C15" r:id="rId53" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
-    <hyperlink ref="C16" r:id="rId54" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
-    <hyperlink ref="C17" r:id="rId55" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
-    <hyperlink ref="C104" r:id="rId56" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
-    <hyperlink ref="C18" r:id="rId57" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
-    <hyperlink ref="C23" r:id="rId58" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
-    <hyperlink ref="C24" r:id="rId59" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
-    <hyperlink ref="C30" r:id="rId60" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
-    <hyperlink ref="C12" r:id="rId61" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
-    <hyperlink ref="C20" r:id="rId62" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
-    <hyperlink ref="C97" r:id="rId63" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
+    <hyperlink ref="C14" r:id="rId51" xr:uid="{E9344DF6-02F0-48DE-9E6E-7CFE4387A86D}"/>
+    <hyperlink ref="C15" r:id="rId52" xr:uid="{163BDA7C-455A-46BB-9E80-451A9ABF6142}"/>
+    <hyperlink ref="C16" r:id="rId53" xr:uid="{938B0C65-683C-49A0-96EE-CFCBF1C5AB63}"/>
+    <hyperlink ref="C17" r:id="rId54" xr:uid="{E9906A4C-9676-4089-9967-4BB2EFA6646E}"/>
+    <hyperlink ref="C104" r:id="rId55" display="https://courses.campus.gov.il/courses/course-v1:DigitalIsrael+GOV_Oryanut_ExcelBasic101_HE+2022-1/courseware/f6f119b5a0a24fc0a6a4075958245ef7/1fe7c51e6d834517b1ad5003ba140a6d/1?activate_block_id=block-v1%3ADigitalIsrael%2BGOV_Oryanut_ExcelBasic101_HE%2B2022-1%2Btype%40html%2Bblock%40f10d379c29db4e47ae0c6e7e1822c423" xr:uid="{67BF6C12-BC9D-48AC-932D-20E36A5CD01E}"/>
+    <hyperlink ref="C18" r:id="rId56" xr:uid="{463D806D-B86B-4180-9E7F-9EB2BED7841E}"/>
+    <hyperlink ref="C23" r:id="rId57" xr:uid="{4EF2B920-D471-4707-9713-2E599EA07F52}"/>
+    <hyperlink ref="C24" r:id="rId58" xr:uid="{4F86FA57-8CF3-4A8A-A74C-2E6BC150EEE4}"/>
+    <hyperlink ref="C30" r:id="rId59" xr:uid="{0A85D764-066B-406E-A867-B93CA0B65FC9}"/>
+    <hyperlink ref="C12" r:id="rId60" location="autoplay" xr:uid="{875E97CE-0FD0-41CD-B187-4B8E7F934150}"/>
+    <hyperlink ref="C20" r:id="rId61" xr:uid="{666E62C8-E82E-4690-B68A-1240E03D1520}"/>
+    <hyperlink ref="C97" r:id="rId62" xr:uid="{ED4096BC-C9CE-42A8-A2E1-844FDFEF2BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -12168,8 +12163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC6163-F89F-44E5-90BE-4CFB44CF1FB4}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12216,7 +12211,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>944</v>
@@ -12227,15 +12222,15 @@
         <v>1515</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>946</v>
@@ -12246,7 +12241,7 @@
         <v>1492</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12259,7 +12254,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>1494</v>
@@ -12270,7 +12265,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>950</v>
@@ -12278,10 +12273,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12471,7 +12466,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>865</v>
@@ -12487,10 +12482,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12587,15 +12582,15 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>716</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>717</v>
@@ -12603,34 +12598,34 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -12638,20 +12633,20 @@
         <v>1517</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>1555</v>
+        <v>1597</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>737</v>
@@ -12660,20 +12655,20 @@
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="9" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>740</v>
@@ -12681,7 +12676,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>741</v>
@@ -12689,12 +12684,12 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>743</v>
@@ -12702,42 +12697,42 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -12750,10 +12745,10 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>1581</v>
+        <v>1580</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
@@ -12761,28 +12756,27 @@
     <hyperlink ref="C43" r:id="rId1" xr:uid="{D8BD5A9B-DC4B-4A04-ACC9-F2A1BEA9D332}"/>
     <hyperlink ref="C44" r:id="rId2" xr:uid="{1102FEC3-A4A2-4B0F-ADE4-3D751ECF38FC}"/>
     <hyperlink ref="C45" r:id="rId3" xr:uid="{C21D3D86-1F2D-4E8D-A7CB-5189D8F456B6}"/>
-    <hyperlink ref="C51" r:id="rId4" xr:uid="{40C9C721-A72B-4760-ACE3-E8AD6E343AF9}"/>
-    <hyperlink ref="C52" r:id="rId5" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
-    <hyperlink ref="C65" r:id="rId6" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
-    <hyperlink ref="C63" r:id="rId7" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
-    <hyperlink ref="C59" r:id="rId8" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
-    <hyperlink ref="C62" r:id="rId9" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
-    <hyperlink ref="C71" r:id="rId12" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
-    <hyperlink ref="C41" r:id="rId14" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
-    <hyperlink ref="C46" r:id="rId15" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
-    <hyperlink ref="C48" r:id="rId16" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
-    <hyperlink ref="C50" r:id="rId17" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
-    <hyperlink ref="C55" r:id="rId18" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
-    <hyperlink ref="C60" r:id="rId20" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
-    <hyperlink ref="C69" r:id="rId21" xr:uid="{F24314A8-AEF1-4DC6-9277-5865C1BD746B}"/>
-    <hyperlink ref="C6" r:id="rId22" xr:uid="{7CBFA681-53A7-4415-9AD9-5A76B0ECA64F}"/>
+    <hyperlink ref="C52" r:id="rId4" xr:uid="{6ED252E3-1A5A-463F-B8CA-EE5F62CFF274}"/>
+    <hyperlink ref="C65" r:id="rId5" xr:uid="{DAEC30C9-1203-405A-92E7-934BB88B171E}"/>
+    <hyperlink ref="C63" r:id="rId6" xr:uid="{DC52B000-1FC8-4907-909D-B434FC0591BC}"/>
+    <hyperlink ref="C59" r:id="rId7" xr:uid="{1AD42A18-5C6A-469C-984A-68CA68C03474}"/>
+    <hyperlink ref="C62" r:id="rId8" xr:uid="{A8465678-1427-486F-BEAC-27B7BF15EF20}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{6A0FBB2A-F01F-4F12-A2A2-84B3093329DD}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{5646E514-FD80-400A-861F-C88E87997722}"/>
+    <hyperlink ref="C71" r:id="rId11" xr:uid="{7F58F8A6-F514-49E8-9F1F-7AD7BCF776D7}"/>
+    <hyperlink ref="C37" r:id="rId12" xr:uid="{E815B360-D8AF-4CCE-9CED-F2C672B9729D}"/>
+    <hyperlink ref="C41" r:id="rId13" xr:uid="{86C497B9-5A0E-4A31-84E4-36040284A197}"/>
+    <hyperlink ref="C46" r:id="rId14" xr:uid="{CFCDD53B-868B-4558-87DA-9621CCBB313F}"/>
+    <hyperlink ref="C48" r:id="rId15" xr:uid="{364A8617-AF30-4696-8915-C49811E408BC}"/>
+    <hyperlink ref="C50" r:id="rId16" xr:uid="{49F841D7-7E05-4BC4-B96C-B2D651A60799}"/>
+    <hyperlink ref="C55" r:id="rId17" xr:uid="{029DBA7B-42D5-4D7B-ACD0-4722509BC974}"/>
+    <hyperlink ref="C42" r:id="rId18" xr:uid="{D7452DF6-F577-4F68-898F-87018A9F90E3}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{E57511F6-433E-4C0A-9E55-A6D616B4B542}"/>
+    <hyperlink ref="C69" r:id="rId20" xr:uid="{F24314A8-AEF1-4DC6-9277-5865C1BD746B}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{7CBFA681-53A7-4415-9AD9-5A76B0ECA64F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -14726,10 +14720,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14755,7 +14749,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1196</v>
@@ -14771,7 +14765,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1198</v>
@@ -14779,10 +14773,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/Crawler/App_direct_links.xlsx
+++ b/Crawler/App_direct_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\פרויקט גמר\network_traffic_project\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E08FEF-820D-4F23-9912-991E83B9482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298121AD-EAC8-48A6-9240-864B2A5E7E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1714">
   <si>
     <t>Khan Academy</t>
   </si>
@@ -3596,9 +3596,6 @@
     <t>https://sample-videos.com/download-sample-pdf.php</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1PD5OUnHWnEzhfPl4h1mZCReWYjJOCx34FqbZonOEgs4/export?format=pdf</t>
-  </si>
-  <si>
     <t>downloadButtonElement</t>
   </si>
   <si>
@@ -4856,18 +4853,9 @@
     <t>.ez-btn.ez-btn--primary</t>
   </si>
   <si>
-    <t>https://soundcloud.com/</t>
-  </si>
-  <si>
     <t>https://www.jamendo.com/</t>
   </si>
   <si>
-    <t>https://datpiff.com/</t>
-  </si>
-  <si>
-    <t>https://whymusicmatters.com/</t>
-  </si>
-  <si>
     <t>sm-app-url-block-btn</t>
   </si>
   <si>
@@ -4934,12 +4922,6 @@
     <t>https://blendswap.com/blend/5733</t>
   </si>
   <si>
-    <t>.btn.btn-success.btn-block</t>
-  </si>
-  <si>
-    <t>https://openclipart.org/detail/351987/only-love</t>
-  </si>
-  <si>
     <t>.btn.btn-green.btn-lg</t>
   </si>
   <si>
@@ -5133,13 +5115,85 @@
   </si>
   <si>
     <t>global-btn</t>
+  </si>
+  <si>
+    <t>https://www.notion.com/desktop</t>
+  </si>
+  <si>
+    <t>windowsLogo</t>
+  </si>
+  <si>
+    <t>.btn.btn-primary.download-link</t>
+  </si>
+  <si>
+    <t>https://anydesk.com/en/downloads/windows</t>
+  </si>
+  <si>
+    <t>.blue.btn-link-solid.round</t>
+  </si>
+  <si>
+    <t>https://www.mendeley.com/download-reference-manager/windows</t>
+  </si>
+  <si>
+    <t>https://zoom.us/download</t>
+  </si>
+  <si>
+    <t>.download-btn.zm-button--primary.zm-button--large.zm-button.is-link</t>
+  </si>
+  <si>
+    <t>.mw-ui-button.mw-ui-progressive.mw-ui-big</t>
+  </si>
+  <si>
+    <t>https://www.mediawiki.org/wiki/Download</t>
+  </si>
+  <si>
+    <t>.cta.gb-call-to-action</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/106375</t>
+  </si>
+  <si>
+    <t>https://limewire.com/d/kfune#fE3N6vWG0d</t>
+  </si>
+  <si>
+    <t>.default:block.default:flex-none.default:bg-current.mask-center.mask-contain.mask-no-repeat.default:lh-size-75</t>
+  </si>
+  <si>
+    <t>https://filebin.net/849eqs8ygo14lj23/assets_task_01jz4m0kefee9857f3vftb6j46_task_01jz4m0kefee9857f3vftb6j46_genid_01f27158-fef5-4872-96f8-55ae53e1b263_25_07_</t>
+  </si>
+  <si>
+    <t>.m-1.btn.btn-lg.btn-danger</t>
+  </si>
+  <si>
+    <t>https://www.download.io/kanbana_windows-download-windows.html</t>
+  </si>
+  <si>
+    <t>dl_buttons</t>
+  </si>
+  <si>
+    <t>https://www.filemail.com/d/sbwnlwenonfcchs</t>
+  </si>
+  <si>
+    <t>btn.btn-primary.btn-lg</t>
+  </si>
+  <si>
+    <t>.h-12.px-4.bg-gradient-to-b.from-green-500.to-green-600.text-white.rounded-md.hover:from-green-500.hover:to-green-700.transition-all.duration-200.border.border-green-600.shadow-sm.hover:shadow-md.text-shadow</t>
+  </si>
+  <si>
+    <t>https://file.pizza/download/lq5af1jr</t>
+  </si>
+  <si>
+    <t>https://slack.com/intl/en-in/downloads/windows</t>
+  </si>
+  <si>
+    <t>#downloads_ddl_win64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5245,6 +5299,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5342,7 +5403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5420,6 +5481,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10313,13 +10375,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
    